--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$32:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$31:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,30 +30,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, May 19, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 20, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 21, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 22, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 23, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, May 24, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, May 25, 2025</t>
+    <t>Monday, May 26, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, May 27, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, May 28, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, May 29, 2025</t>
+  </si>
+  <si>
+    <t>Friday, May 30, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, May 31, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 1, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -83,12 +83,6 @@
     <t>Yara Emad</t>
   </si>
   <si>
-    <t>5th Settlement</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -98,115 +92,115 @@
     <t>To</t>
   </si>
   <si>
+    <t>Rana Khaled</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
     <t>Almoatazbellah Soliman</t>
   </si>
   <si>
-    <t>Mohanad Abdelhameed Abdelmonaem</t>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
   </si>
   <si>
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Aboul Alor</t>
+  </si>
+  <si>
+    <t>Sarah Emad Eissa Hassan</t>
+  </si>
+  <si>
+    <t>Toqa Bader</t>
+  </si>
+  <si>
     <t>Sarah Hassan</t>
   </si>
   <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
   </si>
   <si>
     <t>Peter Tawfellos Asham</t>
   </si>
   <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Omer Alsadig Alfadil</t>
-  </si>
-  <si>
-    <t>Sun</t>
+    <t>Mon</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Salsabeel Mostafa</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Salsabeel Mostafa</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
+    <t>AN</t>
   </si>
   <si>
     <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
   </si>
   <si>
     <t>Karim Rashid</t>
@@ -291,15 +285,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -492,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,12 +525,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5A6BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -770,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -870,58 +858,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF999999"/>
       </left>
       <right style="medium">
@@ -939,17 +875,6 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF999999"/>
       </right>
@@ -966,26 +891,35 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFB7B7B7"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1175,7 +1109,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,119 +1121,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,128 +1273,92 @@
     <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2000,10 +1898,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2011,10 +1909,13 @@
     <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6363636363636" style="1" customWidth="1"/>
     <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.72727272727273" style="1"/>
+    <col min="13" max="14" width="8.72727272727273" style="1"/>
+    <col min="15" max="15" width="11.3636363636364" style="1"/>
+    <col min="16" max="16" width="10.2727272727273" style="1"/>
+    <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2043,10 +1944,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="12.75" spans="1:16">
       <c r="A2" s="6" t="s">
@@ -2094,7 +1995,7 @@
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2106,10 +2007,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="12">
-        <v>0.458333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D3" s="12">
-        <v>0.833333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E3" s="12">
         <v>0.458333333333333</v>
@@ -2135,16 +2036,16 @@
       <c r="L3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2161,10 +2062,10 @@
       <c r="D4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.333333333333333</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.708333333333333</v>
       </c>
       <c r="G4" s="12">
@@ -2185,93 +2086,120 @@
       <c r="L4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="16" customHeight="1" spans="1:16">
+    <row r="5" s="3" customFormat="1" ht="13.75" spans="1:16">
       <c r="A5" s="10">
         <v>10282231</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="E5" s="12">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G5" s="12">
         <v>0.416666666666667</v>
       </c>
       <c r="H5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="15.25" spans="1:13">
-      <c r="A6" s="17">
+    <row r="6" s="3" customFormat="1" ht="13.75" spans="1:16">
+      <c r="A6" s="13">
         <v>10250874</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="L6" s="53">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" ht="15.25" spans="1:6">
+      <c r="C6" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -2279,655 +2207,593 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" ht="26.75" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+    <row r="8" ht="15.25" spans="1:5">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8"/>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="A9" s="18">
+        <v>10281100</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" ht="15.25" spans="1:5">
+      <c r="A10" s="18">
+        <v>10295622</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" ht="25.75" spans="1:5">
-      <c r="A10" s="29">
+      <c r="C10" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="B10" s="30">
+      <c r="D10" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" ht="15.25" spans="1:5">
+      <c r="A11" s="18">
         <v>10299512</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="31">
+      <c r="C11" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="E10" s="31">
+      <c r="D11" s="20">
         <v>0.708333333333333</v>
       </c>
-    </row>
-    <row r="11" ht="38.25" spans="1:5">
-      <c r="A11" s="29">
+      <c r="E11"/>
+    </row>
+    <row r="12" ht="15.25" spans="1:5">
+      <c r="A12" s="18">
+        <v>10295541</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="B11" s="30">
-        <v>10318439</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="D12" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" ht="15.25" spans="1:5">
+      <c r="A13" s="18">
+        <v>10314762</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="E11" s="31">
+      <c r="D13" s="20">
         <v>0.708333333333333</v>
       </c>
-    </row>
-    <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="29">
+      <c r="E13"/>
+    </row>
+    <row r="14" ht="15.25" spans="1:5">
+      <c r="A14" s="18">
+        <v>10303715</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="B12" s="30">
-        <v>10303715</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="D14" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" ht="25.75" spans="1:5">
+      <c r="A15" s="18">
+        <v>10323547</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="E12" s="31">
+      <c r="D15" s="20">
         <v>0.708333333333333</v>
       </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="29">
+      <c r="E15"/>
+    </row>
+    <row r="16" ht="25.75" spans="1:5">
+      <c r="A16" s="18">
+        <v>10326484</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20">
         <v>0.333333333333333</v>
       </c>
-      <c r="B13" s="30">
+      <c r="D16" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="18">
+        <v>10251309</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="18">
+        <v>10328665</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="18">
+        <v>10328658</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="18">
+        <v>10330150</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="18">
+        <v>10282852</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="25.75" spans="1:5">
+      <c r="A22" s="18">
+        <v>10304876</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:5">
+      <c r="A23" s="18">
+        <v>10293907</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="18">
         <v>10304629</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="38.25" spans="1:5">
-      <c r="A14" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B14" s="30">
-        <v>10323547</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="38.25" spans="1:5">
-      <c r="A15" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B15" s="30">
-        <v>10326484</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B16" s="30">
-        <v>10251309</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B17" s="30">
-        <v>10327594</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B18" s="30">
-        <v>10327588</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="25.75" spans="1:5">
-      <c r="A19" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B19" s="30">
-        <v>10328665</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B20" s="30">
-        <v>10329911</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B21" s="30">
-        <v>10330150</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="38.25" spans="1:5">
-      <c r="A22" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B22" s="30">
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="18">
+        <v>10320445</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:5">
+      <c r="A26" s="18">
+        <v>10320448</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="18">
+        <v>10326502</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="18">
         <v>10330149</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E22" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B23" s="30">
-        <v>10329943</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E23" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B24" s="30">
-        <v>10314749</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="31">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E24" s="31">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="29">
+      <c r="B28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="20">
         <v>0.458333333333333</v>
       </c>
-      <c r="B25" s="30">
-        <v>10320445</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="D28" s="20">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B26" s="30">
-        <v>10320448</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E26" s="31">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="38.25" spans="1:5">
-      <c r="A27" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B27" s="30">
-        <v>10324431</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E27" s="31">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="25.75" spans="1:5">
-      <c r="A28" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B28" s="30">
-        <v>10328658</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="E28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:6">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:6">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E28" s="31">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="25.75" spans="1:5">
-      <c r="A29" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B29" s="30">
-        <v>10330637</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E29" s="31">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:6">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="23"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
     <row r="31" ht="15.25" spans="1:6">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="26">
+        <v>45803</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="E31"/>
       <c r="F31"/>
     </row>
     <row r="32" ht="15.25" spans="1:6">
-      <c r="A32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="36">
-        <v>45802</v>
-      </c>
-      <c r="D32" s="37" t="s">
+      <c r="A32" s="28">
+        <v>10237041</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" hidden="1" spans="1:6">
-      <c r="A33" s="38">
-        <v>10303779</v>
-      </c>
-      <c r="B33" s="39" t="s">
+    <row r="33" ht="15.25" hidden="1" spans="1:6">
+      <c r="A33" s="28">
+        <v>10276035</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="30">
         <v>0.333333333333333</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" ht="15.25" hidden="1" spans="1:6">
-      <c r="A34" s="38">
-        <v>10281108</v>
-      </c>
-      <c r="B34" s="39" t="s">
+    <row r="34" ht="15.25" spans="1:6">
+      <c r="A34" s="28">
+        <v>10269203</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="40">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>45</v>
+      <c r="C34" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" ht="15.25" spans="1:6">
-      <c r="A35" s="38">
-        <v>10269203</v>
-      </c>
-      <c r="B35" s="39" t="s">
+    <row r="35" ht="15.25" hidden="1" spans="1:6">
+      <c r="A35" s="28">
+        <v>10272473</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="D35" s="41" t="s">
-        <v>48</v>
+      <c r="D35" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
     </row>
     <row r="36" ht="15.25" hidden="1" spans="1:6">
-      <c r="A36" s="38">
-        <v>10312258</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="40">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D36" s="41" t="s">
+      <c r="A36" s="28">
+        <v>10284489</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D36" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
     </row>
     <row r="37" ht="15.25" hidden="1" spans="1:6">
-      <c r="A37" s="38">
-        <v>10254389</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="40">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D37" s="41" t="s">
+      <c r="A37" s="28">
+        <v>10312258</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D37" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
     </row>
     <row r="38" ht="15.25" hidden="1" spans="1:6">
-      <c r="A38" s="38">
-        <v>10292718</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="D38" s="41" t="s">
+      <c r="A38" s="28">
+        <v>10281108</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
     </row>
     <row r="39" ht="15.25" hidden="1" spans="1:6">
-      <c r="A39" s="38">
-        <v>10309113</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="40">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D39" s="41" t="s">
+      <c r="A39" s="28">
+        <v>10292718</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
     </row>
     <row r="40" ht="15.25" hidden="1" spans="1:6">
-      <c r="A40" s="38">
+      <c r="A40" s="28">
         <v>10304619</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="B40" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
     </row>
     <row r="41" ht="15.25" hidden="1" spans="1:6">
-      <c r="A41" s="38">
-        <v>10284489</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="41" t="s">
+      <c r="A41" s="28">
+        <v>10309113</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" ht="15.25" spans="1:6">
-      <c r="A42" s="38">
-        <v>10237041</v>
-      </c>
-      <c r="B42" s="39" t="s">
+    <row r="42" ht="15.25" hidden="1" spans="1:4">
+      <c r="A42" s="28">
+        <v>10303779</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" hidden="1" spans="1:4">
+      <c r="A43" s="28">
+        <v>10254389</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C43" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" ht="15.25" hidden="1" spans="1:6">
-      <c r="A43" s="38">
-        <v>10276035</v>
-      </c>
-      <c r="B43" s="39" t="s">
+      <c r="D43" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" hidden="1" spans="1:4">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="28">
+        <v>10212315</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="41" t="s">
+      <c r="C45" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" hidden="1" spans="1:4">
+      <c r="A46" s="28">
+        <v>10326982</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" ht="15.25" hidden="1" spans="1:6">
-      <c r="A44" s="38">
-        <v>10272473</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="41" t="s">
+    </row>
+    <row r="47" ht="15.25" hidden="1" spans="1:4">
+      <c r="A47" s="28">
+        <v>10224237</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" ht="15.25" hidden="1" spans="1:6">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" ht="15.25" hidden="1" spans="1:6">
-      <c r="A46" s="38">
-        <v>10212315</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" ht="15.25" hidden="1" spans="1:6">
-      <c r="A47" s="38">
-        <v>10326982</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" ht="15.25" hidden="1" spans="1:4">
-      <c r="A48" s="38">
-        <v>10224237</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="40">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:D48" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A31:D47" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>
@@ -2935,7 +2801,7 @@
     </filterColumn>
     <extLst/>
   </autoFilter>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -2944,7 +2810,6 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$31:$D$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$9:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Details</t>
   </si>
@@ -83,9 +83,66 @@
     <t>Yara Emad</t>
   </si>
   <si>
+    <t>Tue</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Karim Rashid</t>
+  </si>
+  <si>
+    <t>Eman Taha</t>
+  </si>
+  <si>
+    <t>Kareem Tarek</t>
+  </si>
+  <si>
     <t>From</t>
   </si>
   <si>
@@ -101,21 +158,15 @@
     <t>Almoatazbellah Soliman</t>
   </si>
   <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
     <t>Fatma Ahmed</t>
   </si>
   <si>
     <t>Alaa Karam</t>
   </si>
   <si>
-    <t>Shimaa Mokhtar</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
     <t>Aya Ashraf</t>
   </si>
   <si>
@@ -150,66 +201,6 @@
   </si>
   <si>
     <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Salsabeel Mostafa</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Karim Rashid</t>
-  </si>
-  <si>
-    <t>Eman Taha</t>
-  </si>
-  <si>
-    <t>Kareem Tarek</t>
   </si>
 </sst>
 </file>
@@ -224,7 +215,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,15 +276,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -315,7 +299,7 @@
     <font>
       <i/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -330,6 +314,25 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -525,43 +528,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,30 +906,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -952,6 +931,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,137 +1106,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,67 +1286,76 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1354,7 +1366,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,10 +1910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1944,10 +1956,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="37"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="12.75" spans="1:16">
       <c r="A2" s="6" t="s">
@@ -1995,7 +2007,7 @@
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="41" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2036,16 +2048,16 @@
       <c r="L3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2086,16 +2098,16 @@
       <c r="L4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2136,16 +2148,16 @@
       <c r="L5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2180,16 +2192,16 @@
       <c r="J6" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="44" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="15">
@@ -2199,7 +2211,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" ht="15.25" spans="1:6">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -2208,592 +2220,539 @@
       <c r="F7"/>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" ht="15.25" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="21">
+        <v>45804</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" ht="15.25" hidden="1" spans="1:5">
+      <c r="A10" s="23">
+        <v>10276035</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23">
+        <v>10237041</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" ht="15.25" hidden="1" spans="1:5">
+      <c r="A12" s="23">
+        <v>10272473</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" ht="15.25" hidden="1" spans="1:5">
+      <c r="A13" s="23">
+        <v>10284489</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" ht="15.25" hidden="1" spans="1:5">
+      <c r="A14" s="23">
+        <v>10281108</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" ht="15.25" hidden="1" spans="1:5">
+      <c r="A15" s="23">
+        <v>10304619</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" ht="15.25" hidden="1" spans="1:5">
+      <c r="A16" s="23">
+        <v>10292718</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" ht="15.25" hidden="1" spans="1:5">
+      <c r="A17" s="23">
+        <v>10309113</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" ht="15.25" hidden="1" spans="1:5">
+      <c r="A18" s="23">
+        <v>10303779</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" ht="15.25" hidden="1" spans="1:5">
+      <c r="A19" s="23">
+        <v>10312258</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="15.25" hidden="1" spans="1:5">
+      <c r="A20" s="23">
+        <v>10254389</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="15.25" hidden="1" spans="1:5">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="15.25" hidden="1" spans="1:5">
+      <c r="A22" s="23">
+        <v>10212315</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="15.25" hidden="1" spans="1:5">
+      <c r="A23" s="23">
+        <v>10326982</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" ht="15.25" hidden="1" spans="1:5">
+      <c r="A24" s="23">
+        <v>10224237</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="18">
+      <c r="B26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="34">
         <v>10281100</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="36">
         <v>0.458333333333333</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D27" s="36">
         <v>0.833333333333333</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="18">
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="37">
         <v>10295622</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D28" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="18">
+      <c r="E28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:5">
+      <c r="A29" s="37">
         <v>10299512</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="B29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D29" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="18">
+      <c r="E29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="37">
+        <v>10273387</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="37">
         <v>10295541</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B31" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D31" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="18">
+      <c r="E31"/>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="37">
         <v>10314762</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D32" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="18">
-        <v>10303715</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="37">
+        <v>10251309</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D33" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="25.75" spans="1:5">
-      <c r="A15" s="18">
-        <v>10323547</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="E33"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="37">
+        <v>10328665</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D34" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="25.75" spans="1:5">
-      <c r="A16" s="18">
-        <v>10326484</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="E34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="37">
+        <v>10328658</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D35" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="18">
-        <v>10251309</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="E35"/>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="37">
+        <v>10330150</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="39">
         <v>0.333333333333333</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D36" s="39">
         <v>0.708333333333333</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="18">
-        <v>10328665</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="18">
-        <v>10328658</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="18">
-        <v>10330150</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="18">
+      <c r="E36"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="37">
         <v>10282852</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20">
+      <c r="B37" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D37" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="25.75" spans="1:5">
-      <c r="A22" s="18">
+      <c r="E37"/>
+    </row>
+    <row r="38" ht="25.75" spans="1:5">
+      <c r="A38" s="37">
         <v>10304876</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="B38" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D38" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="18">
+      <c r="E38"/>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="37">
         <v>10293907</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="B39" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D39" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="18">
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="37">
         <v>10304629</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="B40" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D40" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="18">
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="37">
         <v>10320445</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="B41" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D41" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="18">
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="37">
         <v>10320448</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="B42" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D42" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="18">
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="37">
         <v>10326502</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="B43" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D43" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="18">
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="37">
         <v>10330149</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="20">
+      <c r="B44" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="39">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D44" s="39">
         <v>0.833333333333333</v>
       </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:6">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" ht="15.25" spans="1:6">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:6">
-      <c r="A31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="26">
-        <v>45803</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:6">
-      <c r="A32" s="28">
-        <v>10237041</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" ht="15.25" hidden="1" spans="1:6">
-      <c r="A33" s="28">
-        <v>10276035</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:6">
-      <c r="A34" s="28">
-        <v>10269203</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" ht="15.25" hidden="1" spans="1:6">
-      <c r="A35" s="28">
-        <v>10272473</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" ht="15.25" hidden="1" spans="1:6">
-      <c r="A36" s="28">
-        <v>10284489</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" ht="15.25" hidden="1" spans="1:6">
-      <c r="A37" s="28">
-        <v>10312258</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" ht="15.25" hidden="1" spans="1:6">
-      <c r="A38" s="28">
-        <v>10281108</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" ht="15.25" hidden="1" spans="1:6">
-      <c r="A39" s="28">
-        <v>10292718</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" ht="15.25" hidden="1" spans="1:6">
-      <c r="A40" s="28">
-        <v>10304619</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" ht="15.25" hidden="1" spans="1:6">
-      <c r="A41" s="28">
-        <v>10309113</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" ht="15.25" hidden="1" spans="1:4">
-      <c r="A42" s="28">
-        <v>10303779</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" hidden="1" spans="1:4">
-      <c r="A43" s="28">
-        <v>10254389</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" hidden="1" spans="1:4">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="28">
-        <v>10212315</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" hidden="1" spans="1:4">
-      <c r="A46" s="28">
-        <v>10326982</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" hidden="1" spans="1:4">
-      <c r="A47" s="28">
-        <v>10224237</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>45</v>
-      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A31:D47" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A9:D24" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$9:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$35:$D$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>Details</t>
   </si>
@@ -83,12 +83,90 @@
     <t>Yara Emad</t>
   </si>
   <si>
-    <t>Tue</t>
-  </si>
-  <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Rana Khaled</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Shimaa Mokhtar</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Sarah Emad Eissa Hassan</t>
+  </si>
+  <si>
+    <t>Toqa Bader</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Omer Alsadig Alfadil</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
@@ -113,27 +191,27 @@
     <t>Ziad Mohamed</t>
   </si>
   <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
     <t>Aya Shehabeldin</t>
   </si>
   <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
     <t>Ayman Hassan</t>
   </si>
   <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>Ahmed Samir</t>
   </si>
   <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
     <t>Karim Rashid</t>
   </si>
   <si>
@@ -141,66 +219,6 @@
   </si>
   <si>
     <t>Kareem Tarek</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Rana Khaled</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Aboul Alor</t>
-  </si>
-  <si>
-    <t>Sarah Emad Eissa Hassan</t>
-  </si>
-  <si>
-    <t>Toqa Bader</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
   </si>
 </sst>
 </file>
@@ -215,7 +233,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +294,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
@@ -321,25 +352,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -528,6 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,12 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -936,30 +948,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -1106,137 +1094,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,88 +1273,79 @@
     <xf numFmtId="178" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,10 +1889,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1956,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="40"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="12.75" spans="1:16">
       <c r="A2" s="6" t="s">
@@ -2007,7 +1986,7 @@
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2048,16 +2027,16 @@
       <c r="L3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2098,16 +2077,16 @@
       <c r="L4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2148,16 +2127,16 @@
       <c r="L5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2192,16 +2171,16 @@
       <c r="J6" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="41" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="15">
@@ -2219,540 +2198,599 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="16"/>
+    <row r="8" ht="15.25" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:4">
+      <c r="A9" s="18">
+        <v>10281100</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:4">
+      <c r="A10" s="18">
+        <v>10295622</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:4">
+      <c r="A11" s="18">
+        <v>10299512</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:4">
+      <c r="A12" s="18">
+        <v>10273387</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:4">
+      <c r="A13" s="18">
+        <v>10295541</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:4">
+      <c r="A14" s="18">
+        <v>10314762</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:4">
+      <c r="A15" s="18">
+        <v>10303715</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:4">
+      <c r="A16" s="18">
+        <v>10251309</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="18">
+        <v>10326502</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:4">
+      <c r="A18" s="18">
+        <v>10327594</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19" s="18">
+        <v>10328665</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:4">
+      <c r="A20" s="18">
+        <v>10328658</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:4">
+      <c r="A21" s="18">
+        <v>10329911</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22" s="18">
+        <v>10330150</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="18">
+        <v>10329943</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="25.75" spans="1:4">
+      <c r="A24" s="18">
+        <v>10304876</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="18">
+        <v>10293907</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="18">
+        <v>10304629</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="18">
+        <v>10320445</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="18">
+        <v>10320448</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="25.75" spans="1:4">
+      <c r="A29" s="18">
+        <v>10324431</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="18">
+        <v>10327588</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="18">
+        <v>10330149</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="18">
+        <v>10330637</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="23"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21">
-        <v>45804</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" ht="15.25" hidden="1" spans="1:5">
-      <c r="A10" s="23">
+      <c r="C35" s="26">
+        <v>45805</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" ht="15.25" hidden="1" spans="1:5">
+      <c r="A36" s="28">
         <v>10276035</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25">
+      <c r="B36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="30">
         <v>0.333333333333333</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23">
+      <c r="D36" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="28">
         <v>10237041</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="B37" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="15.25" hidden="1" spans="1:5">
-      <c r="A12" s="23">
+      <c r="D37" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" ht="15.25" hidden="1" spans="1:5">
+      <c r="A38" s="28">
         <v>10272473</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="25">
+      <c r="B38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="30">
         <v>0.458333333333333</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="15.25" hidden="1" spans="1:5">
-      <c r="A13" s="23">
+      <c r="D38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" ht="15.25" hidden="1" spans="1:5">
+      <c r="A39" s="28">
         <v>10284489</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="25">
+      <c r="B39" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="30">
         <v>0.541666666666667</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="15.25" hidden="1" spans="1:5">
-      <c r="A14" s="23">
+      <c r="D39" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" ht="15.25" hidden="1" spans="1:5">
+      <c r="A40" s="28">
         <v>10281108</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="25">
+      <c r="B40" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="30">
         <v>0.625</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="15.25" hidden="1" spans="1:5">
-      <c r="A15" s="23">
+      <c r="D40" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" ht="15.25" hidden="1" spans="1:5">
+      <c r="A41" s="28">
+        <v>10254389</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" ht="15.25" hidden="1" spans="1:5">
+      <c r="A42" s="28">
+        <v>10292718</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" ht="15.25" hidden="1" spans="1:5">
+      <c r="A43" s="28">
+        <v>10303779</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" ht="15.25" hidden="1" spans="1:4">
+      <c r="A44" s="28">
         <v>10304619</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="25">
+      <c r="B44" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" hidden="1" spans="1:4">
+      <c r="A45" s="28">
+        <v>10309113</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" hidden="1" spans="1:4">
+      <c r="A46" s="28">
+        <v>10312258</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" hidden="1" spans="1:4">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+    </row>
+    <row r="48" ht="15.25" hidden="1" spans="1:4">
+      <c r="A48" s="28">
+        <v>10212315</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" hidden="1" spans="1:4">
+      <c r="A49" s="28">
+        <v>10326982</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="30">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" hidden="1" spans="1:4">
+      <c r="A50" s="28">
+        <v>10224237</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="30">
         <v>0.666666666666667</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="15.25" hidden="1" spans="1:5">
-      <c r="A16" s="23">
-        <v>10292718</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="15.25" hidden="1" spans="1:5">
-      <c r="A17" s="23">
-        <v>10309113</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="15.25" hidden="1" spans="1:5">
-      <c r="A18" s="23">
-        <v>10303779</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="15.25" hidden="1" spans="1:5">
-      <c r="A19" s="23">
-        <v>10312258</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="15.25" hidden="1" spans="1:5">
-      <c r="A20" s="23">
-        <v>10254389</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="15.25" hidden="1" spans="1:5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="15.25" hidden="1" spans="1:5">
-      <c r="A22" s="23">
-        <v>10212315</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="15.25" hidden="1" spans="1:5">
-      <c r="A23" s="23">
-        <v>10326982</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="15.25" hidden="1" spans="1:5">
-      <c r="A24" s="23">
-        <v>10224237</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="34">
-        <v>10281100</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="36">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="37">
-        <v>10295622</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="37">
-        <v>10299512</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="37">
-        <v>10273387</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="37">
-        <v>10295541</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="37">
-        <v>10314762</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="37">
-        <v>10251309</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="37">
-        <v>10328665</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="37">
-        <v>10328658</v>
-      </c>
-      <c r="B35" s="38" t="s">
+      <c r="D50" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="37">
-        <v>10330150</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="39">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="37">
-        <v>10282852</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="25.75" spans="1:5">
-      <c r="A38" s="37">
-        <v>10304876</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D38" s="39">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="37">
-        <v>10293907</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="37">
-        <v>10304629</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D40" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="37">
-        <v>10320445</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D41" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="37">
-        <v>10320448</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D42" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="37">
-        <v>10326502</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D43" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="37">
-        <v>10330149</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="39">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D44" s="39">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A9:D24" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A35:D50" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$35:$D$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$D$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Details</t>
   </si>
@@ -83,6 +83,12 @@
     <t>Yara Emad</t>
   </si>
   <si>
+    <t>Mohamed Atef</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -95,37 +101,22 @@
     <t>Rana Khaled</t>
   </si>
   <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
     <t>Rawya Alor Biong</t>
   </si>
   <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
   </si>
   <si>
     <t>Youssef Khalid</t>
   </si>
   <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
+    <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Hagar Ayman</t>
@@ -134,54 +125,63 @@
     <t>Hossam Elamin</t>
   </si>
   <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
     <t>Weaam Alaa</t>
   </si>
   <si>
-    <t>Sarah Emad Eissa Hassan</t>
-  </si>
-  <si>
-    <t>Toqa Bader</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
     <t>Donia Elbanan</t>
   </si>
   <si>
     <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
     <t>Omer Alsadig Alfadil</t>
   </si>
   <si>
-    <t>Wed</t>
+    <t>Yara Ehab</t>
+  </si>
+  <si>
+    <t>Sat</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
     <t>Hager Salah</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
     <t>Mohamed Younes</t>
   </si>
   <si>
@@ -189,27 +189,6 @@
   </si>
   <si>
     <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
   </si>
   <si>
     <t>Karim Rashid</t>
@@ -233,7 +212,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +281,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -330,7 +303,7 @@
     <font>
       <i/>
       <sz val="9"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -345,7 +318,7 @@
       <b/>
       <i/>
       <sz val="9"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1094,137 +1067,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,67 +1246,73 @@
     <xf numFmtId="178" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,11 +1324,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1889,10 +1871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1906,7 +1888,7 @@
     <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1935,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="37"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="12.75" spans="1:16">
       <c r="A2" s="6" t="s">
@@ -1986,7 +1968,7 @@
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2027,16 +2009,16 @@
       <c r="L3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="41" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2077,16 +2059,16 @@
       <c r="L4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2127,16 +2109,16 @@
       <c r="L5" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="42" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2171,16 +2153,16 @@
       <c r="J6" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="15">
@@ -2190,607 +2172,606 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="1:6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+    <row r="7" ht="15.25" spans="1:10">
+      <c r="A7" s="16">
+        <v>10299937</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J7" s="44">
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="8" ht="15.25" spans="1:4">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" ht="15.25" spans="1:5">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:5">
+      <c r="A10" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B10" s="21">
+        <v>10281100</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="11" ht="25.75" spans="1:5">
+      <c r="A11" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B11" s="21">
+        <v>10273387</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="12" ht="25.75" spans="1:5">
+      <c r="A12" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B12" s="21">
+        <v>10303715</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25" spans="1:5">
+      <c r="A13" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B13" s="21">
+        <v>10323547</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25" spans="1:5">
+      <c r="A14" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B14" s="21">
+        <v>10326484</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B15" s="21">
+        <v>10327594</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B16" s="21">
+        <v>10327588</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B17" s="21">
+        <v>10329911</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B18" s="21">
+        <v>10330150</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" spans="1:5">
+      <c r="A19" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B19" s="21">
+        <v>10330149</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B20" s="21">
+        <v>10329943</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B21" s="21">
+        <v>10320448</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25" spans="1:5">
+      <c r="A22" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B22" s="21">
+        <v>10324431</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="25.75" spans="1:5">
+      <c r="A23" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B23" s="21">
+        <v>10330637</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B24" s="21">
+        <v>10314763</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:6">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" ht="15.25" spans="1:6">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:4">
-      <c r="A9" s="18">
-        <v>10281100</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="28">
+        <v>45808</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" ht="15.25" hidden="1" spans="1:6">
+      <c r="A28" s="30">
+        <v>10312258</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30">
+        <v>10304619</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="32">
         <v>0.458333333333333</v>
       </c>
-      <c r="D9" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:4">
-      <c r="A10" s="18">
-        <v>10295622</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="18">
-        <v>10299512</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="18">
-        <v>10273387</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="18">
-        <v>10295541</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="18">
-        <v>10314762</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:4">
-      <c r="A15" s="18">
-        <v>10303715</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:4">
-      <c r="A16" s="18">
-        <v>10251309</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="18">
-        <v>10326502</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="18">
-        <v>10327594</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:4">
-      <c r="A19" s="18">
-        <v>10328665</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="18">
-        <v>10328658</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="18">
-        <v>10329911</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="18">
-        <v>10330150</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="18">
-        <v>10329943</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="25.75" spans="1:4">
-      <c r="A24" s="18">
-        <v>10304876</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="18">
-        <v>10293907</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="18">
-        <v>10304629</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="18">
-        <v>10320445</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="18">
-        <v>10320448</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="25.75" spans="1:4">
-      <c r="A29" s="18">
-        <v>10324431</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="D29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" ht="15.25" hidden="1" spans="1:6">
+      <c r="A30" s="30">
+        <v>10309113</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="32">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="18">
-        <v>10327588</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="18">
-        <v>10330149</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" ht="15.25" hidden="1" spans="1:6">
+      <c r="A31" s="30">
+        <v>10254389</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" ht="15.25" hidden="1" spans="1:6">
+      <c r="A32" s="30">
+        <v>10292718</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" ht="15.25" hidden="1" spans="1:6">
+      <c r="A33" s="30">
+        <v>10303779</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" ht="15.25" hidden="1" spans="1:6">
+      <c r="A34" s="30">
+        <v>10276035</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:6">
+      <c r="A35" s="30">
+        <v>10237041</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="18">
-        <v>10330637</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="26">
-        <v>45805</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" hidden="1" spans="1:5">
-      <c r="A36" s="28">
-        <v>10276035</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>47</v>
+      <c r="F35"/>
+    </row>
+    <row r="36" ht="15.25" hidden="1" spans="1:6">
+      <c r="A36" s="30">
+        <v>10272473</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="28">
-        <v>10237041</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>49</v>
+      <c r="F36"/>
+    </row>
+    <row r="37" ht="15.25" hidden="1" spans="1:6">
+      <c r="A37" s="30">
+        <v>10284489</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E37"/>
-    </row>
-    <row r="38" ht="15.25" hidden="1" spans="1:5">
-      <c r="A38" s="28">
-        <v>10272473</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>47</v>
+      <c r="F37"/>
+    </row>
+    <row r="38" ht="15.25" hidden="1" spans="1:6">
+      <c r="A38" s="30">
+        <v>10281108</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" hidden="1" spans="1:5">
-      <c r="A39" s="28">
-        <v>10284489</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>47</v>
-      </c>
+      <c r="F38"/>
+    </row>
+    <row r="39" ht="15.25" hidden="1" spans="1:6">
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
       <c r="E39"/>
-    </row>
-    <row r="40" ht="15.25" hidden="1" spans="1:5">
-      <c r="A40" s="28">
-        <v>10281108</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>47</v>
+      <c r="F39"/>
+    </row>
+    <row r="40" ht="15.25" hidden="1" spans="1:6">
+      <c r="A40" s="30">
+        <v>10212315</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E40"/>
-    </row>
-    <row r="41" ht="15.25" hidden="1" spans="1:5">
-      <c r="A41" s="28">
-        <v>10254389</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>47</v>
+      <c r="F40"/>
+    </row>
+    <row r="41" ht="15.25" hidden="1" spans="1:6">
+      <c r="A41" s="30">
+        <v>10326982</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E41"/>
-    </row>
-    <row r="42" ht="15.25" hidden="1" spans="1:5">
-      <c r="A42" s="28">
-        <v>10292718</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>47</v>
+      <c r="F41"/>
+    </row>
+    <row r="42" ht="15.25" hidden="1" spans="1:6">
+      <c r="A42" s="30">
+        <v>10224237</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E42"/>
-    </row>
-    <row r="43" ht="15.25" hidden="1" spans="1:5">
-      <c r="A43" s="28">
-        <v>10303779</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>47</v>
-      </c>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
       <c r="E43"/>
-    </row>
-    <row r="44" ht="15.25" hidden="1" spans="1:4">
-      <c r="A44" s="28">
-        <v>10304619</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" hidden="1" spans="1:4">
-      <c r="A45" s="28">
-        <v>10309113</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" hidden="1" spans="1:4">
-      <c r="A46" s="28">
-        <v>10312258</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" hidden="1" spans="1:4">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-    </row>
-    <row r="48" ht="15.25" hidden="1" spans="1:4">
-      <c r="A48" s="28">
-        <v>10212315</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" hidden="1" spans="1:4">
-      <c r="A49" s="28">
-        <v>10326982</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" hidden="1" spans="1:4">
-      <c r="A50" s="28">
-        <v>10224237</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>47</v>
-      </c>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A35:D50" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A27:D42" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$27:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$D$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,30 +30,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, May 26, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, May 27, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, May 28, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, May 29, 2025</t>
-  </si>
-  <si>
-    <t>Friday, May 30, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, May 31, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 1, 2025</t>
+    <t>Monday, June 2, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 3, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 4, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 5, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 6, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 7, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 8, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -62,13 +62,19 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>Shift Start</t>
   </si>
   <si>
     <t>Shift End</t>
   </si>
   <si>
-    <t>Fatma Bahaa</t>
+    <t>Dohha Mohamed Ali</t>
+  </si>
+  <si>
+    <t>QAS</t>
   </si>
   <si>
     <t>OFF</t>
@@ -77,40 +83,112 @@
     <t>Fatma Sherief</t>
   </si>
   <si>
-    <t>Sarah Alsadig Alfadil</t>
-  </si>
-  <si>
-    <t>Yara Emad</t>
-  </si>
-  <si>
-    <t>Mohamed Atef</t>
-  </si>
-  <si>
-    <t>Shift</t>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Alhaj Ashraf</t>
+  </si>
+  <si>
+    <t>Veronica Nady</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>David Michael Gabriel</t>
+  </si>
+  <si>
+    <t>Nesting SME</t>
+  </si>
+  <si>
+    <t>Karim Hendi</t>
+  </si>
+  <si>
+    <t>Wed</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Karim Rashid</t>
+  </si>
+  <si>
+    <t>Eman Taha</t>
+  </si>
+  <si>
+    <t>Kareem Tarek</t>
+  </si>
+  <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>Rana Khaled</t>
+    <t>Minas Haitham</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
   </si>
   <si>
     <t>Rawya Alor Biong</t>
   </si>
   <si>
-    <t>Shimaa Mokhtar</t>
+    <t>Fatma Ahmed</t>
   </si>
   <si>
     <t>Belal Karam Fawzy Qassem</t>
   </si>
   <si>
-    <t>Akram Mohamed Hassan</t>
+    <t>Aya Ashraf</t>
   </si>
   <si>
     <t>Youssef Khalid</t>
@@ -119,6 +197,12 @@
     <t>Khaled Ezz</t>
   </si>
   <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
@@ -131,73 +215,103 @@
     <t>Weaam Alaa</t>
   </si>
   <si>
+    <t>Razan Mohammed</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>Ahmed Hassan</t>
+  </si>
+  <si>
+    <t>Nurhan Elkhateib</t>
+  </si>
+  <si>
+    <t>Ahmed Ali</t>
+  </si>
+  <si>
+    <t>Rawan Tamer</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Judith Rajaonarivony</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Edmound Nichola Ali</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Romeo Solofoniaina</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Aboul Alor</t>
+  </si>
+  <si>
+    <t>Sarah Emad Eissa Hassan</t>
+  </si>
+  <si>
+    <t>Toqa Bader</t>
+  </si>
+  <si>
     <t>Donia Elbanan</t>
   </si>
   <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Omer Alsadig Alfadil</t>
-  </si>
-  <si>
-    <t>Yara Ehab</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Karim Rashid</t>
-  </si>
-  <si>
-    <t>Eman Taha</t>
-  </si>
-  <si>
-    <t>Kareem Tarek</t>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Mina Sadallah</t>
   </si>
 </sst>
 </file>
@@ -222,22 +336,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -247,15 +345,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="IBM Plex Sans"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="IBM Plex Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,13 +376,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -316,9 +415,14 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -327,6 +431,12 @@
       <sz val="10"/>
       <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -474,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,48 +623,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -759,7 +863,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF434343"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
@@ -815,7 +919,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -845,17 +949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
+      <left style="thick">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,13 +968,13 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,13 +983,54 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,6 +1043,21 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -923,8 +1083,8 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thick">
+        <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
@@ -945,6 +1105,21 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1073,7 +1248,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,119 +1260,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,13 +1382,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,110 +1403,152 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1871,58 +2088,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.72727272727273" style="1"/>
-    <col min="15" max="15" width="11.3636363636364" style="1"/>
-    <col min="16" max="16" width="10.2727272727273" style="1"/>
-    <col min="17" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="12.4545454545455" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.0909090909091" style="2"/>
+    <col min="14" max="14" width="8.72727272727273" style="2"/>
+    <col min="15" max="15" width="11.3636363636364" style="2"/>
+    <col min="16" max="16" width="10.2727272727273" style="2"/>
+    <col min="17" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="19" customHeight="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="12.75" spans="1:16">
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1932,846 +2151,1343 @@
       <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+      <c r="Q2" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="16" spans="1:17">
       <c r="A3" s="10">
-        <v>10295542</v>
+        <v>10282174</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.333333333333333</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="12">
-        <v>0.708333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" s="12">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="F3" s="12">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G3" s="12">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="H3" s="12">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I3" s="12">
-        <v>0.458333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="J3" s="12">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K3" s="12">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="L3" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="13.75" spans="1:16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="1:17">
       <c r="A4" s="10">
         <v>10282854</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.333333333333333</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="12">
-        <v>0.708333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E4" s="12">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="F4" s="12">
-        <v>0.708333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G4" s="12">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="H4" s="12">
-        <v>0.708333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I4" s="12">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="J4" s="12">
-        <v>0.708333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K4" s="12">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="L4" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="13.75" spans="1:16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:17">
       <c r="A5" s="10">
-        <v>10282231</v>
+        <v>10295540</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="O5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:17">
+      <c r="A6" s="10">
+        <v>10304630</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="1:17">
+      <c r="A7" s="10">
+        <v>10272462</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:17">
+      <c r="A8" s="15">
+        <v>10280906</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:17">
+      <c r="A9" s="19">
+        <v>10325072</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J9" s="51">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:5">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" ht="15.25" spans="1:6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" ht="15.25" spans="1:6">
+      <c r="A12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31">
+        <v>45812</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" ht="15.25" hidden="1" spans="1:4">
+      <c r="A13" s="33">
+        <v>10276035</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="33">
+        <v>10237041</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" hidden="1" spans="1:4">
+      <c r="A15" s="33">
+        <v>10281108</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="13.75" spans="1:16">
-      <c r="A6" s="13">
-        <v>10250874</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="D15" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:4">
+      <c r="A16" s="33">
+        <v>10304619</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="35">
         <v>0.458333333333333</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D16" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" hidden="1" spans="1:4">
+      <c r="A17" s="33">
+        <v>10284489</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" hidden="1" spans="1:4">
+      <c r="A18" s="33">
+        <v>10303779</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" hidden="1" spans="1:4">
+      <c r="A19" s="33">
+        <v>10272473</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" hidden="1" spans="1:4">
+      <c r="A20" s="33">
+        <v>10254389</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" hidden="1" spans="1:4">
+      <c r="A21" s="33">
+        <v>10292718</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" hidden="1" spans="1:4">
+      <c r="A22" s="33">
+        <v>10309113</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="33">
+        <v>10312258</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" hidden="1" spans="1:4">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" ht="15.25" hidden="1" spans="1:4">
+      <c r="A25" s="33">
+        <v>10212315</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" hidden="1" spans="1:4">
+      <c r="A26" s="33">
+        <v>10326982</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" hidden="1" spans="1:4">
+      <c r="A27" s="33">
+        <v>10224237</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="44">
+        <v>10281289</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="44">
+        <v>10295622</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="44">
+        <v>10299512</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="44">
+        <v>10273387</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="44">
+        <v>10295541</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="25.75" spans="1:4">
+      <c r="A35" s="44">
+        <v>10323547</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="44">
+        <v>10251309</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="44">
+        <v>10327594</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="44">
+        <v>10327588</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="44">
+        <v>10328665</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="44">
+        <v>10328658</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D40" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="44">
+        <v>10329911</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="44">
+        <v>10330150</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D42" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="44">
+        <v>10330149</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="44">
+        <v>10329943</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D44" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="44">
+        <v>10326471</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D45" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="44">
+        <v>10332557</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D46" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="44">
+        <v>10332554</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D47" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="44">
+        <v>10332553</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D48" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="44">
+        <v>10332552</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D49" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="44">
+        <v>10331792</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D50" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="44">
+        <v>10332544</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D51" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="44">
+        <v>10332517</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D52" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="45">
+        <v>10332480</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D53" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="44">
+        <v>10332681</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="44">
+        <v>10332631</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D55" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="44">
+        <v>10332567</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D56" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="44">
+        <v>10332555</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D57" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="44">
+        <v>10332548</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D58" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="44">
+        <v>10332547</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D59" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:4">
+      <c r="A60" s="44">
+        <v>10332515</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D60" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="44">
+        <v>10332482</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D61" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="44">
+        <v>10332513</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D62" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:4">
+      <c r="A63" s="44">
+        <v>10332478</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D63" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:4">
+      <c r="A64" s="44">
+        <v>10332550</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D64" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:4">
+      <c r="A65" s="44">
+        <v>10332571</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D65" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:4">
+      <c r="A66" s="58">
+        <v>10327586</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D66" s="46">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:4">
+      <c r="A67" s="44">
+        <v>10282852</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="46">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D67" s="46">
         <v>0.833333333333333</v>
       </c>
-      <c r="E6" s="15">
+    </row>
+    <row r="68" ht="25.75" spans="1:4">
+      <c r="A68" s="44">
+        <v>10304876</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="F6" s="15">
+      <c r="D68" s="46">
         <v>0.833333333333333</v>
       </c>
-      <c r="G6" s="15">
+    </row>
+    <row r="69" ht="15.25" spans="1:4">
+      <c r="A69" s="44">
+        <v>10293907</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="H6" s="15">
+      <c r="D69" s="46">
         <v>0.833333333333333</v>
       </c>
-      <c r="I6" s="15">
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="44">
+        <v>10320448</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="J6" s="15">
+      <c r="D70" s="46">
         <v>0.833333333333333</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="15">
+    </row>
+    <row r="71" ht="15.25" spans="1:4">
+      <c r="A71" s="44">
+        <v>10326502</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="P6" s="15">
+      <c r="D71" s="46">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="7" ht="15.25" spans="1:10">
-      <c r="A7" s="16">
-        <v>10299937</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="44">
+    <row r="72" ht="15.25" spans="1:4">
+      <c r="A72" s="44">
+        <v>10331082</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="J7" s="44">
+      <c r="D72" s="46">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="8" ht="15.25" spans="1:4">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B10" s="21">
-        <v>10281100</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="11" ht="25.75" spans="1:5">
-      <c r="A11" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B11" s="21">
-        <v>10273387</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B12" s="21">
-        <v>10303715</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="13" ht="38.25" spans="1:5">
-      <c r="A13" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B13" s="21">
-        <v>10323547</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="38.25" spans="1:5">
-      <c r="A14" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B14" s="21">
-        <v>10326484</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B15" s="21">
-        <v>10327594</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B16" s="21">
-        <v>10327588</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B17" s="21">
-        <v>10329911</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B18" s="21">
-        <v>10330150</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="38.25" spans="1:5">
-      <c r="A19" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B19" s="21">
-        <v>10330149</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B20" s="21">
-        <v>10329943</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="20">
+    <row r="73" ht="15.25" spans="1:4">
+      <c r="A73" s="44">
+        <v>10331077</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="B21" s="21">
-        <v>10320448</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="D73" s="46">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:4">
+      <c r="A74" s="44">
+        <v>10314749</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="E21" s="22">
+      <c r="D74" s="46">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="22" ht="38.25" spans="1:5">
-      <c r="A22" s="20">
+    <row r="75" ht="15.25" spans="1:4">
+      <c r="A75" s="44">
+        <v>10331785</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="B22" s="21">
-        <v>10324431</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="D75" s="46">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" spans="1:4">
+      <c r="A76" s="45">
+        <v>10331787</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="E22" s="22">
+      <c r="D76" s="46">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="23" ht="25.75" spans="1:5">
-      <c r="A23" s="20">
+    <row r="77" ht="15.25" spans="1:4">
+      <c r="A77" s="44">
+        <v>10331809</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="46">
         <v>0.458333333333333</v>
       </c>
-      <c r="B23" s="21">
-        <v>10330637</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="D77" s="46">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B24" s="21">
-        <v>10314763</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:6">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:6">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:6">
-      <c r="A27" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="28">
-        <v>45808</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" ht="15.25" hidden="1" spans="1:6">
-      <c r="A28" s="30">
-        <v>10312258</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="30">
-        <v>10304619</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="32">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" ht="15.25" hidden="1" spans="1:6">
-      <c r="A30" s="30">
-        <v>10309113</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="32">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" ht="15.25" hidden="1" spans="1:6">
-      <c r="A31" s="30">
-        <v>10254389</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" ht="15.25" hidden="1" spans="1:6">
-      <c r="A32" s="30">
-        <v>10292718</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="32">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" ht="15.25" hidden="1" spans="1:6">
-      <c r="A33" s="30">
-        <v>10303779</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" ht="15.25" hidden="1" spans="1:6">
-      <c r="A34" s="30">
-        <v>10276035</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:6">
-      <c r="A35" s="30">
-        <v>10237041</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" ht="15.25" hidden="1" spans="1:6">
-      <c r="A36" s="30">
-        <v>10272473</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" ht="15.25" hidden="1" spans="1:6">
-      <c r="A37" s="30">
-        <v>10284489</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" ht="15.25" hidden="1" spans="1:6">
-      <c r="A38" s="30">
-        <v>10281108</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" ht="15.25" hidden="1" spans="1:6">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" ht="15.25" hidden="1" spans="1:6">
-      <c r="A40" s="30">
-        <v>10212315</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" ht="15.25" hidden="1" spans="1:6">
-      <c r="A41" s="30">
-        <v>10326982</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" ht="15.25" hidden="1" spans="1:6">
-      <c r="A42" s="30">
-        <v>10224237</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A27:D42" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:D27" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>
@@ -2781,13 +3497,13 @@
   </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$64:$D$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Details</t>
   </si>
@@ -107,12 +107,171 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Wed</t>
+    <t>Shift</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Minas Haitham</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Razan Mohammed</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>Ahmed Hassan</t>
+  </si>
+  <si>
+    <t>Nurhan Elkhateib</t>
+  </si>
+  <si>
+    <t>Ahmed Ali</t>
+  </si>
+  <si>
+    <t>Rawan Tamer</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Judith Rajaonarivony</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Edmound Nichola Ali</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Romeo Solofoniaina</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Shimaa Mokhtar</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Aboul Alor</t>
+  </si>
+  <si>
+    <t>Sarah Emad Eissa Hassan</t>
+  </si>
+  <si>
+    <t>Toqa Bader</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Mina Sadallah</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
@@ -122,39 +281,39 @@
     <t>Smart.V</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
   </si>
   <si>
     <t>Hamdy Attia</t>
   </si>
   <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
     <t>Esraa Ibrahim</t>
   </si>
   <si>
     <t>Ayman Hassan</t>
   </si>
   <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
     <t>Karim Rashid</t>
   </si>
   <si>
@@ -162,156 +321,6 @@
   </si>
   <si>
     <t>Kareem Tarek</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Minas Haitham</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Razan Mohammed</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Ahmed Hassan</t>
-  </si>
-  <si>
-    <t>Nurhan Elkhateib</t>
-  </si>
-  <si>
-    <t>Ahmed Ali</t>
-  </si>
-  <si>
-    <t>Rawan Tamer</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Judith Rajaonarivony</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Edmound Nichola Ali</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Romeo Solofoniaina</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Aboul Alor</t>
-  </si>
-  <si>
-    <t>Sarah Emad Eissa Hassan</t>
-  </si>
-  <si>
-    <t>Toqa Bader</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Mina Sadallah</t>
   </si>
 </sst>
 </file>
@@ -379,6 +388,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -400,6 +428,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -410,32 +445,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -623,6 +632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -635,6 +650,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -653,18 +674,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -850,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1028,6 +1037,21 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1248,7 +1272,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,34 +1284,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,103 +1476,103 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2088,10 +2112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2136,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="47"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2190,7 +2214,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2234,16 +2258,16 @@
       <c r="M3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="46" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2287,20 +2311,20 @@
       <c r="M4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="1:17">
+    <row r="5" ht="16" customHeight="1" spans="1:17">
       <c r="A5" s="10">
         <v>10295540</v>
       </c>
@@ -2340,16 +2364,16 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2393,16 +2417,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2446,16 +2470,16 @@
       <c r="M7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2499,16 +2523,16 @@
       <c r="M8" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="O8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="48" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2533,31 +2557,31 @@
       <c r="H9" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="I9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L9" s="51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N9" s="52" t="s">
+      <c r="I9" s="43">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="Q9" s="49" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2568,926 +2592,1115 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" ht="15.25" spans="1:6">
-      <c r="A11" s="26"/>
+    <row r="11" ht="15.25" spans="1:5">
+      <c r="A11" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28"/>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" ht="15.25" spans="1:6">
-      <c r="A12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31">
-        <v>45812</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" ht="15.25" hidden="1" spans="1:4">
-      <c r="A13" s="33">
+      <c r="E11" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:5">
+      <c r="A12" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B12" s="29">
+        <v>10281289</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:5">
+      <c r="A13" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B13" s="29">
+        <v>10295622</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="25.75" spans="1:5">
+      <c r="A14" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B14" s="29">
+        <v>10299512</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="25.75" spans="1:5">
+      <c r="A15" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B15" s="29">
+        <v>10273387</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B16" s="29">
+        <v>10295541</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25" spans="1:5">
+      <c r="A17" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B17" s="29">
+        <v>10323547</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" spans="1:5">
+      <c r="A18" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B18" s="29">
+        <v>10326484</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B19" s="29">
+        <v>10251309</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B20" s="29">
+        <v>10327594</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E20" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B21" s="29">
+        <v>10327588</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="25.75" spans="1:5">
+      <c r="A22" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B22" s="29">
+        <v>10328665</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="25.75" spans="1:5">
+      <c r="A23" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B23" s="29">
+        <v>10328658</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B24" s="29">
+        <v>10329911</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B25" s="29">
+        <v>10329943</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="25.75" spans="1:5">
+      <c r="A26" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B26" s="29">
+        <v>10326471</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B27" s="29">
+        <v>10332557</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B28" s="29">
+        <v>10332554</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="25.75" spans="1:5">
+      <c r="A29" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B29" s="29">
+        <v>10332553</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E29" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B30" s="29">
+        <v>10332552</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B31" s="29">
+        <v>10331792</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B32" s="29">
+        <v>10332544</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E32" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="25.75" spans="1:5">
+      <c r="A33" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B33" s="29">
+        <v>10332517</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B34" s="29">
+        <v>10332480</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B35" s="29">
+        <v>10332681</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="25.75" spans="1:5">
+      <c r="A36" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B36" s="29">
+        <v>10332631</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="25.75" spans="1:5">
+      <c r="A37" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B37" s="29">
+        <v>10332567</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E37" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B38" s="29">
+        <v>10332555</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B39" s="29">
+        <v>10332548</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B40" s="29">
+        <v>10332547</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B41" s="29">
+        <v>10332515</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:5">
+      <c r="A42" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B42" s="29">
+        <v>10332482</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E42" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="25.75" spans="1:5">
+      <c r="A43" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B43" s="29">
+        <v>10332513</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B44" s="29">
+        <v>10332478</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="25.75" spans="1:5">
+      <c r="A45" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B45" s="29">
+        <v>10332550</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="25.75" spans="1:5">
+      <c r="A46" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B46" s="29">
+        <v>10332571</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="25.75" spans="1:5">
+      <c r="A47" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B47" s="31">
+        <v>10327586</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="25.75" spans="1:5">
+      <c r="A48" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B48" s="29">
+        <v>10303715</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E48" s="30">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B49" s="29">
+        <v>10299934</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E49" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B50" s="29">
+        <v>10282852</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E50" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="25.75" spans="1:5">
+      <c r="A51" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B51" s="29">
+        <v>10304876</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B52" s="29">
+        <v>10293907</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B53" s="29">
+        <v>10304629</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E53" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B54" s="29">
+        <v>10320448</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E54" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="25.75" spans="1:5">
+      <c r="A55" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B55" s="29">
+        <v>10331082</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B56" s="29">
+        <v>10331077</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E56" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B57" s="29">
+        <v>10314749</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E57" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B58" s="29">
+        <v>10331785</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E58" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B59" s="29">
+        <v>10331787</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E59" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B60" s="29">
+        <v>10331809</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E60" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="25.75" spans="1:5">
+      <c r="A61" s="28">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B61" s="29">
+        <v>10331078</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E61" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="34"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="37">
+        <v>45813</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:5">
+      <c r="A65" s="50">
         <v>10276035</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="33">
+      <c r="B65" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="52">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="50">
+        <v>10312258</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="52">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66"/>
+    </row>
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="50">
+        <v>10304619</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="52">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:5">
+      <c r="A68" s="50">
+        <v>10281108</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="52">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69" s="50">
         <v>10237041</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" hidden="1" spans="1:4">
-      <c r="A15" s="33">
-        <v>10281108</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:4">
-      <c r="A16" s="33">
-        <v>10304619</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="35">
+      <c r="B69" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="52">
         <v>0.458333333333333</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" hidden="1" spans="1:4">
-      <c r="A17" s="33">
+      <c r="D69" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:5">
+      <c r="A70" s="50">
+        <v>10303779</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="52">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:5">
+      <c r="A71" s="50">
+        <v>10272473</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="52">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:5">
+      <c r="A72" s="50">
+        <v>10254389</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="52">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73" ht="15.25" hidden="1" spans="1:5">
+      <c r="A73" s="50">
         <v>10284489</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" hidden="1" spans="1:4">
-      <c r="A18" s="33">
-        <v>10303779</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" hidden="1" spans="1:4">
-      <c r="A19" s="33">
-        <v>10272473</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="B73" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" ht="15.25" hidden="1" spans="1:4">
+      <c r="A74" s="50">
+        <v>10292718</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" hidden="1" spans="1:4">
+      <c r="A75" s="50">
+        <v>10309113</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" hidden="1" spans="1:4">
+      <c r="A76" s="55"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="57"/>
+    </row>
+    <row r="77" ht="15.25" hidden="1" spans="1:4">
+      <c r="A77" s="50">
+        <v>10212315</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" hidden="1" spans="1:4">
+      <c r="A78" s="50">
+        <v>10326982</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="58"/>
+      <c r="D78" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" hidden="1" spans="1:4">
+      <c r="A79" s="50">
+        <v>10224237</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="52">
         <v>0.666666666666667</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" hidden="1" spans="1:4">
-      <c r="A20" s="33">
-        <v>10254389</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" hidden="1" spans="1:4">
-      <c r="A21" s="33">
-        <v>10292718</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" hidden="1" spans="1:4">
-      <c r="A22" s="33">
-        <v>10309113</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="33">
-        <v>10312258</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" hidden="1" spans="1:4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" ht="15.25" hidden="1" spans="1:4">
-      <c r="A25" s="33">
-        <v>10212315</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" hidden="1" spans="1:4">
-      <c r="A26" s="33">
-        <v>10326982</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" hidden="1" spans="1:4">
-      <c r="A27" s="33">
-        <v>10224237</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="35">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="44">
-        <v>10281289</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="44">
-        <v>10295622</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="44">
-        <v>10299512</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="44">
-        <v>10273387</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="44">
-        <v>10295541</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="25.75" spans="1:4">
-      <c r="A35" s="44">
-        <v>10323547</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="44">
-        <v>10251309</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="44">
-        <v>10327594</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="44">
-        <v>10327588</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="44">
-        <v>10328665</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="44">
-        <v>10328658</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="44">
-        <v>10329911</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="44">
-        <v>10330150</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="44">
-        <v>10330149</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="44">
-        <v>10329943</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="44">
-        <v>10326471</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="44">
-        <v>10332557</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="44">
-        <v>10332554</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="44">
-        <v>10332553</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="44">
-        <v>10332552</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="44">
-        <v>10331792</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="44">
-        <v>10332544</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D51" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="44">
-        <v>10332517</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D52" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="45">
-        <v>10332480</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D53" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="44">
-        <v>10332681</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="44">
-        <v>10332631</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="44">
-        <v>10332567</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="44">
-        <v>10332555</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D57" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="44">
-        <v>10332548</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="44">
-        <v>10332547</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D59" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="44">
-        <v>10332515</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D60" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="44">
-        <v>10332482</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D61" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="44">
-        <v>10332513</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D62" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="44">
-        <v>10332478</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D63" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="44">
-        <v>10332550</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D64" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:4">
-      <c r="A65" s="44">
-        <v>10332571</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D65" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="58">
-        <v>10327586</v>
-      </c>
-      <c r="B66" s="45" t="s">
+      <c r="D79" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D66" s="46">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:4">
-      <c r="A67" s="44">
-        <v>10282852</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D67" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="68" ht="25.75" spans="1:4">
-      <c r="A68" s="44">
-        <v>10304876</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:4">
-      <c r="A69" s="44">
-        <v>10293907</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D69" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="44">
-        <v>10320448</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D70" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:4">
-      <c r="A71" s="44">
-        <v>10326502</v>
-      </c>
-      <c r="B71" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D71" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="44">
-        <v>10331082</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D72" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:4">
-      <c r="A73" s="44">
-        <v>10331077</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D73" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="44">
-        <v>10314749</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D74" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:4">
-      <c r="A75" s="44">
-        <v>10331785</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D75" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:4">
-      <c r="A76" s="45">
-        <v>10331787</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D76" s="46">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:4">
-      <c r="A77" s="44">
-        <v>10331809</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="46">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D77" s="46">
-        <v>0.833333333333333</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:D27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A64:D79" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$64:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$13:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>Details</t>
   </si>
@@ -107,31 +107,76 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Shift</t>
+    <t>Sat</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Karim Rashid</t>
+  </si>
+  <si>
+    <t>Eman Taha</t>
+  </si>
+  <si>
+    <t>Kareem Tarek</t>
+  </si>
+  <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>Minas Haitham</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
+    <t>Rana Khaled</t>
   </si>
   <si>
     <t>Rawya Alor Biong</t>
   </si>
   <si>
-    <t>Fatma Ahmed</t>
+    <t>Shimaa Mokhtar</t>
   </si>
   <si>
     <t>Belal Karam Fawzy Qassem</t>
@@ -140,187 +185,49 @@
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
     <t>Youssef Khalid</t>
   </si>
   <si>
     <t>Khaled Ezz</t>
   </si>
   <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
     <t>Weaam Alaa</t>
   </si>
   <si>
-    <t>Razan Mohammed</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Ahmed Hassan</t>
-  </si>
-  <si>
-    <t>Nurhan Elkhateib</t>
-  </si>
-  <si>
-    <t>Ahmed Ali</t>
-  </si>
-  <si>
-    <t>Rawan Tamer</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Judith Rajaonarivony</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Edmound Nichola Ali</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Romeo Solofoniaina</t>
-  </si>
-  <si>
     <t>Shahd Mahmoud</t>
   </si>
   <si>
-    <t>Shimaa Mokhtar</t>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Yara Ehab</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
     <t>Aya Mohamed</t>
   </si>
   <si>
-    <t>Aboul Alor</t>
-  </si>
-  <si>
-    <t>Sarah Emad Eissa Hassan</t>
-  </si>
-  <si>
-    <t>Toqa Bader</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Mina Sadallah</t>
-  </si>
-  <si>
     <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Karim Rashid</t>
-  </si>
-  <si>
-    <t>Eman Taha</t>
-  </si>
-  <si>
-    <t>Kareem Tarek</t>
   </si>
 </sst>
 </file>
@@ -335,7 +242,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,27 +295,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -428,16 +316,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -446,6 +327,26 @@
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -632,48 +533,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -859,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1037,21 +938,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1266,137 +1152,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,103 +1362,100 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2112,10 +1995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2160,10 +2043,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2214,7 +2097,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2258,16 +2141,16 @@
       <c r="M3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="46" t="s">
+      <c r="N3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="54" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2305,22 +2188,22 @@
       <c r="K4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="47" t="s">
+      <c r="L4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2364,16 +2247,16 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="47" t="s">
+      <c r="N5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2412,21 +2295,21 @@
         <v>0.75</v>
       </c>
       <c r="L6" s="12">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="M6" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="47" t="s">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2470,16 +2353,16 @@
       <c r="M7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="47" t="s">
+      <c r="N7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="55" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2523,16 +2406,16 @@
       <c r="M8" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="48" t="s">
+      <c r="N8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="56" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2557,1150 +2440,856 @@
       <c r="H9" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="I9" s="43">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L9" s="43">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M9" s="43">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="1:5">
+      <c r="I9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J9" s="51">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="26" t="s">
+    <row r="11" ht="15.25" spans="1:7">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" ht="15.25" spans="1:7">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" ht="15.25" spans="1:7">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="E13" s="31">
+        <v>45815</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="G13"/>
+    </row>
+    <row r="14" ht="23.75" spans="1:7">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="33">
+        <v>10304619</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B12" s="29">
-        <v>10281289</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="E14" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B13" s="29">
-        <v>10295622</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="G14"/>
+    </row>
+    <row r="15" hidden="1" spans="1:7">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" s="33">
+        <v>10284489</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="25.75" spans="1:5">
-      <c r="A14" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B14" s="29">
-        <v>10299512</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="E15" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="25.75" spans="1:5">
-      <c r="A15" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="G15"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:7">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="33">
+        <v>10312258</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" hidden="1" spans="1:7">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="33">
+        <v>10292718</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" hidden="1" spans="1:7">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="33">
+        <v>10309113</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" hidden="1" spans="1:7">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="33">
+        <v>10254389</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" hidden="1" spans="1:7">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="33">
+        <v>10276035</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" ht="23.75" spans="1:7">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="33">
+        <v>10237041</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" ht="23.75" hidden="1" spans="1:7">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="33">
+        <v>10272473</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" hidden="1" spans="1:7">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="33">
+        <v>10281108</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" ht="23.75" hidden="1" spans="1:7">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="33">
+        <v>10303779</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" hidden="1" spans="1:7">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" hidden="1" spans="1:7">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" s="33">
+        <v>10212315</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" hidden="1" spans="1:7">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" s="33">
+        <v>10326982</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" hidden="1" spans="1:7">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" s="33">
+        <v>10224237</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:6">
+      <c r="A30" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" ht="15.25" spans="1:6">
+      <c r="A31" s="43">
+        <v>10281100</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" ht="15.25" spans="1:6">
+      <c r="A32" s="43">
         <v>10273387</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B16" s="29">
-        <v>10295541</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="38.25" spans="1:5">
-      <c r="A17" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="B32" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" ht="15.25" spans="1:6">
+      <c r="A33" s="43">
+        <v>10303715</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" ht="25.75" spans="1:6">
+      <c r="A34" s="43">
         <v>10323547</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="38.25" spans="1:5">
-      <c r="A18" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B18" s="29">
+      <c r="B34" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" ht="25.75" spans="1:6">
+      <c r="A35" s="43">
         <v>10326484</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B19" s="29">
-        <v>10251309</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="B35" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" ht="15.25" spans="1:6">
+      <c r="A36" s="43">
         <v>10327594</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B21" s="29">
+      <c r="B36" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:6">
+      <c r="A37" s="43">
         <v>10327588</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="25.75" spans="1:5">
-      <c r="A22" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B22" s="29">
-        <v>10328665</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E22" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="25.75" spans="1:5">
-      <c r="A23" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B23" s="29">
-        <v>10328658</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E23" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B24" s="29">
+      <c r="B37" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" ht="15.25" spans="1:6">
+      <c r="A38" s="43">
         <v>10329911</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B25" s="29">
+      <c r="B38" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" ht="15.25" spans="1:6">
+      <c r="A39" s="43">
+        <v>10330150</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" ht="15.25" spans="1:6">
+      <c r="A40" s="43">
+        <v>10330149</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D40" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" ht="15.25" spans="1:6">
+      <c r="A41" s="43">
         <v>10329943</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E25" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="25.75" spans="1:5">
-      <c r="A26" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B26" s="29">
-        <v>10326471</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B27" s="29">
-        <v>10332557</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E27" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B28" s="29">
-        <v>10332554</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E28" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="25.75" spans="1:5">
-      <c r="A29" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B29" s="29">
-        <v>10332553</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E29" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B30" s="29">
-        <v>10332552</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E30" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B31" s="29">
-        <v>10331792</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E31" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B32" s="29">
-        <v>10332544</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E32" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="25.75" spans="1:5">
-      <c r="A33" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B33" s="29">
-        <v>10332517</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E33" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B34" s="29">
-        <v>10332480</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E34" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B35" s="29">
-        <v>10332681</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E35" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="25.75" spans="1:5">
-      <c r="A36" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B36" s="29">
-        <v>10332631</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="25.75" spans="1:5">
-      <c r="A37" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B37" s="29">
-        <v>10332567</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B38" s="29">
-        <v>10332555</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E38" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B39" s="29">
-        <v>10332548</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B41" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B40" s="29">
-        <v>10332547</v>
-      </c>
-      <c r="C40" s="29" t="s">
+      <c r="C41" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:6">
+      <c r="A42" s="46">
+        <v>10327586</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E40" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B41" s="29">
-        <v>10332515</v>
-      </c>
-      <c r="C41" s="29" t="s">
+      <c r="C42" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" ht="15.25" spans="1:6">
+      <c r="A43" s="46">
+        <v>10331475</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E41" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B42" s="29">
-        <v>10332482</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="C43" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" ht="15.25" spans="1:6">
+      <c r="A44" s="43">
+        <v>10331785</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="25.75" spans="1:5">
-      <c r="A43" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B43" s="29">
-        <v>10332513</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="C44" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" ht="15.25" spans="1:6">
+      <c r="A45" s="43">
+        <v>10314763</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E43" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B44" s="29">
-        <v>10332478</v>
-      </c>
-      <c r="C44" s="29" t="s">
+      <c r="C45" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" ht="15.25" spans="1:6">
+      <c r="A46" s="43">
+        <v>10304876</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E44" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="25.75" spans="1:5">
-      <c r="A45" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B45" s="29">
-        <v>10332550</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="C46" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D46" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" ht="15.25" spans="1:6">
+      <c r="A47" s="43">
+        <v>10314763</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="45">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D47" s="45">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" ht="15.25" spans="1:6">
+      <c r="A48" s="43">
+        <v>10320448</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E45" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="25.75" spans="1:5">
-      <c r="A46" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B46" s="29">
-        <v>10332571</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="C48" s="45">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D48" s="45">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" ht="25.75" spans="1:6">
+      <c r="A49" s="43">
+        <v>10324431</v>
+      </c>
+      <c r="B49" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E46" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="25.75" spans="1:5">
-      <c r="A47" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B47" s="31">
-        <v>10327586</v>
-      </c>
-      <c r="C47" s="29" t="s">
+      <c r="C49" s="45">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D49" s="45">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" ht="15.25" spans="1:6">
+      <c r="A50" s="43">
+        <v>10299934</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="25.75" spans="1:5">
-      <c r="A48" s="28">
+      <c r="C50" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="B48" s="29">
-        <v>10303715</v>
-      </c>
-      <c r="C48" s="29" t="s">
+      <c r="D50" s="45">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" ht="15.25" spans="1:6">
+      <c r="A51" s="43">
+        <v>10331078</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E48" s="30">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="28">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B49" s="29">
-        <v>10299934</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="30">
+      <c r="C51" s="45">
         <v>0.458333333333333</v>
       </c>
-      <c r="E49" s="30">
+      <c r="D51" s="45">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B50" s="29">
-        <v>10282852</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E50" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="25.75" spans="1:5">
-      <c r="A51" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B51" s="29">
-        <v>10304876</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E51" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B52" s="29">
-        <v>10293907</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E52" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B53" s="29">
-        <v>10304629</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E53" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B54" s="29">
-        <v>10320448</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="25.75" spans="1:5">
-      <c r="A55" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B55" s="29">
-        <v>10331082</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E55" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B56" s="29">
-        <v>10331077</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E56" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B57" s="29">
-        <v>10314749</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E57" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B58" s="29">
-        <v>10331785</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E58" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B59" s="29">
-        <v>10331787</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E59" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B60" s="29">
-        <v>10331809</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E60" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="25.75" spans="1:5">
-      <c r="A61" s="28">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B61" s="29">
-        <v>10331078</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="30">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E61" s="30">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:5">
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" ht="15.25" spans="1:7">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" ht="15.25" spans="1:7">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" ht="15.25" spans="1:7">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" ht="15.25" spans="1:7">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-    </row>
-    <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="34"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
       <c r="E63"/>
-    </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="37">
-        <v>45813</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>80</v>
-      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
       <c r="E64"/>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:5">
-      <c r="A65" s="50">
-        <v>10276035</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="52">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>82</v>
-      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
       <c r="E65"/>
-    </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="50">
-        <v>10312258</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="52">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
       <c r="E66"/>
-    </row>
-    <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="50">
-        <v>10304619</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="52">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
       <c r="E67"/>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:5">
-      <c r="A68" s="50">
-        <v>10281108</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>82</v>
-      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" ht="15.25" spans="1:7">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
       <c r="E68"/>
-    </row>
-    <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="50">
-        <v>10237041</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="52">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
       <c r="E69"/>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:5">
-      <c r="A70" s="50">
-        <v>10303779</v>
-      </c>
-      <c r="B70" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="52">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>82</v>
-      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" ht="15.25" spans="3:7">
+      <c r="C70"/>
+      <c r="D70"/>
       <c r="E70"/>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:5">
-      <c r="A71" s="50">
-        <v>10272473</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="52">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" ht="15.25" hidden="1" spans="1:5">
-      <c r="A72" s="50">
-        <v>10254389</v>
-      </c>
-      <c r="B72" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="52">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" ht="15.25" hidden="1" spans="1:5">
-      <c r="A73" s="50">
-        <v>10284489</v>
-      </c>
-      <c r="B73" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" ht="15.25" hidden="1" spans="1:4">
-      <c r="A74" s="50">
-        <v>10292718</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" hidden="1" spans="1:4">
-      <c r="A75" s="50">
-        <v>10309113</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" hidden="1" spans="1:4">
-      <c r="A76" s="55"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="57"/>
-    </row>
-    <row r="77" ht="15.25" hidden="1" spans="1:4">
-      <c r="A77" s="50">
-        <v>10212315</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D77" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" hidden="1" spans="1:4">
-      <c r="A78" s="50">
-        <v>10326982</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" ht="15.25" hidden="1" spans="1:4">
-      <c r="A79" s="50">
-        <v>10224237</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="52">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>82</v>
-      </c>
+      <c r="F70"/>
+      <c r="G70"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A64:D79" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C13:F28" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$13:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$39:$D$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>Details</t>
   </si>
@@ -107,12 +107,93 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Sat</t>
+    <t>Shift</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Rana Khaled</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Shimaa Mokhtar</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Sarah Emad Eissa Hassan</t>
+  </si>
+  <si>
+    <t>Toqa Bader</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Yara Ehab</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
@@ -122,13 +203,19 @@
     <t>5th.S</t>
   </si>
   <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
     <t>Hamdy Attia</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
+    <t>Mohamed Medhat</t>
   </si>
   <si>
     <t>Esraa Ibrahim</t>
@@ -149,12 +236,6 @@
     <t>Mohamed Younes</t>
   </si>
   <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
     <t>Karim Rashid</t>
   </si>
   <si>
@@ -162,72 +243,6 @@
   </si>
   <si>
     <t>Kareem Tarek</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Rana Khaled</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Shimaa Mokhtar</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Yara Ehab</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
   </si>
 </sst>
 </file>
@@ -295,6 +310,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
@@ -318,7 +346,7 @@
     <font>
       <i/>
       <sz val="9"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -326,19 +354,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -533,6 +548,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,12 +584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -760,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -938,6 +953,21 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1158,7 +1188,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,34 +1200,34 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1282,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,69 +1392,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,19 +1481,19 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1995,10 +2034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2043,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="47"/>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2097,7 +2136,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="56" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2141,16 +2180,16 @@
       <c r="M3" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="54" t="s">
+      <c r="N3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="57" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2188,22 +2227,22 @@
       <c r="K4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="55" t="s">
+      <c r="L4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2247,20 +2286,20 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="1:17">
+      <c r="N5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:17">
       <c r="A6" s="10">
         <v>10304630</v>
       </c>
@@ -2300,16 +2339,16 @@
       <c r="M6" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="55" t="s">
+      <c r="N6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2353,16 +2392,16 @@
       <c r="M7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="55" t="s">
+      <c r="N7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2406,16 +2445,16 @@
       <c r="M8" s="18">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="56" t="s">
+      <c r="N8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="59" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2440,31 +2479,31 @@
       <c r="H9" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="I9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L9" s="51">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M9" s="51">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N9" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="57" t="s">
+      <c r="I9" s="54">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J9" s="54">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L9" s="54">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="60" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2484,664 +2523,714 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" ht="15.25" spans="1:7">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="26"/>
+    <row r="12" ht="15.25" spans="1:6">
+      <c r="A12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="28"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" ht="15.25" spans="1:7">
-      <c r="A13"/>
-      <c r="B13"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" ht="15.25" spans="1:6">
+      <c r="A13" s="28">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B13" s="29">
+        <v>10281100</v>
+      </c>
       <c r="C13" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="31">
-        <v>45815</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" ht="23.75" spans="1:7">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="33">
-        <v>10304619</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" hidden="1" spans="1:7">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="33">
-        <v>10284489</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="D13" s="30">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" ht="25.75" spans="1:6">
+      <c r="A14" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B14" s="32">
+        <v>10299512</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="D14" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" ht="25.75" spans="1:6">
+      <c r="A15" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B15" s="32">
+        <v>10303715</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:7">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="33">
-        <v>10312258</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="D15" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:6">
+      <c r="A16" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B16" s="32">
+        <v>10304629</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="35">
+      <c r="D16" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" ht="38.25" spans="1:6">
+      <c r="A17" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B17" s="32">
+        <v>10326484</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:6">
+      <c r="A18" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B18" s="32">
+        <v>10251309</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" ht="25.75" spans="1:6">
+      <c r="A19" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B19" s="32">
+        <v>10328665</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" ht="25.75" spans="1:6">
+      <c r="A20" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B20" s="32">
+        <v>10328658</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" ht="15.25" spans="1:6">
+      <c r="A21" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B21" s="32">
+        <v>10329911</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" ht="15.25" spans="1:6">
+      <c r="A22" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B22" s="32">
+        <v>10330150</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F22"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:6">
+      <c r="A23" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B23" s="32">
+        <v>10329943</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" ht="25.75" spans="1:6">
+      <c r="A24" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B24" s="34">
+        <v>10327586</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B25" s="32">
+        <v>10299934</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E25" s="33">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="25.75" spans="1:5">
+      <c r="A26" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B26" s="34">
+        <v>10331475</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E26" s="33">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B27" s="32">
+        <v>10314749</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E27" s="33">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="38.25" spans="1:5">
+      <c r="A28" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B28" s="32">
+        <v>10323547</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="25.75" spans="1:5">
+      <c r="A29" s="31">
         <v>0.458333333333333</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" hidden="1" spans="1:7">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="33">
-        <v>10292718</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" hidden="1" spans="1:7">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="33">
-        <v>10309113</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" hidden="1" spans="1:7">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="33">
-        <v>10254389</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" hidden="1" spans="1:7">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="33">
-        <v>10276035</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" ht="23.75" spans="1:7">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="33">
-        <v>10237041</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" ht="23.75" hidden="1" spans="1:7">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="33">
-        <v>10272473</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" hidden="1" spans="1:7">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" s="33">
-        <v>10281108</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23"/>
-    </row>
-    <row r="24" ht="23.75" hidden="1" spans="1:7">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" s="33">
-        <v>10303779</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24"/>
-    </row>
-    <row r="25" hidden="1" spans="1:7">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" hidden="1" spans="1:7">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26" s="33">
-        <v>10212315</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26"/>
-    </row>
-    <row r="27" hidden="1" spans="1:7">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27" s="33">
-        <v>10326982</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" hidden="1" spans="1:7">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28" s="33">
-        <v>10224237</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28"/>
-    </row>
-    <row r="29" ht="15.25" spans="2:7">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" ht="15.25" spans="1:6">
-      <c r="A30" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="42" t="s">
+      <c r="B29" s="32">
+        <v>10304876</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:6">
-      <c r="A31" s="43">
-        <v>10281100</v>
-      </c>
-      <c r="B31" s="44" t="s">
+      <c r="D29" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E29" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B30" s="32">
+        <v>10293907</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:6">
-      <c r="A32" s="43">
-        <v>10273387</v>
-      </c>
-      <c r="B32" s="44" t="s">
+      <c r="D30" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E30" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B31" s="32">
+        <v>10320448</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:6">
-      <c r="A33" s="43">
-        <v>10303715</v>
-      </c>
-      <c r="B33" s="44" t="s">
+      <c r="D31" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E31" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="38.25" spans="1:5">
+      <c r="A32" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B32" s="32">
+        <v>10324431</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" ht="25.75" spans="1:6">
-      <c r="A34" s="43">
-        <v>10323547</v>
-      </c>
-      <c r="B34" s="44" t="s">
+      <c r="D32" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E32" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="25.75" spans="1:5">
+      <c r="A33" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B33" s="32">
+        <v>10326502</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" ht="25.75" spans="1:6">
-      <c r="A35" s="43">
-        <v>10326484</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="D33" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E33" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="38.25" spans="1:5">
+      <c r="A34" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B34" s="32">
+        <v>10330149</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:6">
-      <c r="A36" s="43">
-        <v>10327594</v>
-      </c>
-      <c r="B36" s="44" t="s">
+      <c r="D34" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="25.75" spans="1:5">
+      <c r="A35" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B35" s="32">
+        <v>10331078</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="45">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+      <c r="D35" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E35" s="33">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="31">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B36" s="32">
+        <v>10314763</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0.833333333333333</v>
+      </c>
     </row>
     <row r="37" ht="15.25" spans="1:6">
-      <c r="A37" s="43">
-        <v>10327588</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="45">
-        <v>0.708333333333333</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
     </row>
     <row r="38" ht="15.25" spans="1:6">
-      <c r="A38" s="43">
-        <v>10329911</v>
-      </c>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="45">
-        <v>0.708333333333333</v>
-      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="37"/>
       <c r="E38"/>
       <c r="F38"/>
     </row>
     <row r="39" ht="15.25" spans="1:6">
-      <c r="A39" s="43">
-        <v>10330150</v>
-      </c>
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="40">
+        <v>45816</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="45">
-        <v>0.708333333333333</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
     </row>
     <row r="40" ht="15.25" spans="1:6">
-      <c r="A40" s="43">
-        <v>10330149</v>
-      </c>
-      <c r="B40" s="44" t="s">
+      <c r="A40" s="42">
+        <v>10304619</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="45">
-        <v>0.708333333333333</v>
+      <c r="C40" s="44">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" ht="15.25" spans="1:6">
-      <c r="A41" s="43">
-        <v>10329943</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="45">
-        <v>0.708333333333333</v>
+    <row r="41" ht="15.25" hidden="1" spans="1:6">
+      <c r="A41" s="42">
+        <v>10281108</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="44">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
     </row>
     <row r="42" ht="15.25" spans="1:6">
-      <c r="A42" s="46">
-        <v>10327586</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="45">
-        <v>0.708333333333333</v>
+      <c r="A42" s="42">
+        <v>10312258</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" ht="15.25" spans="1:6">
-      <c r="A43" s="46">
-        <v>10331475</v>
-      </c>
-      <c r="B43" s="44" t="s">
+    <row r="43" ht="15.25" hidden="1" spans="1:6">
+      <c r="A43" s="42">
+        <v>10284489</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="44">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>58</v>
-      </c>
-      <c r="C43" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="45">
-        <v>0.708333333333333</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" ht="15.25" spans="1:6">
-      <c r="A44" s="43">
-        <v>10331785</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="45">
-        <v>0.708333333333333</v>
+    <row r="44" ht="15.25" hidden="1" spans="1:6">
+      <c r="A44" s="42">
+        <v>10303779</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="44">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" ht="15.25" spans="1:6">
-      <c r="A45" s="43">
-        <v>10314763</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="45">
-        <v>0.708333333333333</v>
+    <row r="45" ht="15.25" hidden="1" spans="1:6">
+      <c r="A45" s="42">
+        <v>10292718</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" ht="15.25" spans="1:6">
-      <c r="A46" s="43">
-        <v>10304876</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="45">
-        <v>0.708333333333333</v>
+    <row r="46" ht="15.25" hidden="1" spans="1:6">
+      <c r="A46" s="42">
+        <v>10309113</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" ht="15.25" spans="1:6">
-      <c r="A47" s="43">
-        <v>10314763</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="45">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="45">
-        <v>0.708333333333333</v>
+    <row r="47" ht="15.25" hidden="1" spans="1:7">
+      <c r="A47" s="42">
+        <v>10254389</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="44">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
-    </row>
-    <row r="48" ht="15.25" spans="1:6">
-      <c r="A48" s="43">
-        <v>10320448</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="45">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D48" s="45">
-        <v>0.833333333333333</v>
+      <c r="G47"/>
+    </row>
+    <row r="48" ht="15.25" hidden="1" spans="1:7">
+      <c r="A48" s="42">
+        <v>10276035</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
-    </row>
-    <row r="49" ht="25.75" spans="1:6">
-      <c r="A49" s="43">
-        <v>10324431</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="45">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D49" s="45">
-        <v>0.833333333333333</v>
+      <c r="G48"/>
+    </row>
+    <row r="49" ht="15.25" spans="1:7">
+      <c r="A49" s="42">
+        <v>10237041</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
-    </row>
-    <row r="50" ht="15.25" spans="1:6">
-      <c r="A50" s="43">
-        <v>10299934</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="45">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D50" s="45">
-        <v>0.833333333333333</v>
+      <c r="G49"/>
+    </row>
+    <row r="50" ht="15.25" hidden="1" spans="1:7">
+      <c r="A50" s="42">
+        <v>10272473</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
-    </row>
-    <row r="51" ht="15.25" spans="1:6">
-      <c r="A51" s="43">
-        <v>10331078</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="45">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D51" s="45">
-        <v>0.833333333333333</v>
-      </c>
+      <c r="G50"/>
+    </row>
+    <row r="51" ht="15.25" hidden="1" spans="1:7">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51"/>
       <c r="F51"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" ht="15.25" hidden="1" spans="1:7">
+      <c r="A52" s="42">
+        <v>10212315</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" ht="15.25" spans="1:7">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
+    <row r="53" ht="15.25" hidden="1" spans="1:7">
+      <c r="A53" s="42">
+        <v>10326982</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" ht="15.25" spans="1:7">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
+    <row r="54" ht="15.25" hidden="1" spans="1:7">
+      <c r="A54" s="42">
+        <v>10224237</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="44">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -3155,7 +3244,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" ht="15.25" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3164,7 +3253,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" ht="15.25" spans="1:7">
+    <row r="57" spans="1:7">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3236,60 +3325,15 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65"/>
-      <c r="B65"/>
+    <row r="65" spans="3:7">
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-    </row>
-    <row r="68" ht="15.25" spans="1:7">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" ht="15.25" spans="3:7">
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C13:F28" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A39:D54" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$57:$D$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>Details</t>
   </si>
@@ -107,12 +107,144 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Wed</t>
+    <t>Shift</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Salma Yasser</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Aboul Alor</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Aladdin Hamdy</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
@@ -122,39 +254,39 @@
     <t>Smart.V</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
-    <t>5th.S</t>
+    <t>Aya Shehabeldin</t>
   </si>
   <si>
     <t>Mohamed Younes</t>
   </si>
   <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
     <t>Karim Rashid</t>
   </si>
   <si>
@@ -162,162 +294,6 @@
   </si>
   <si>
     <t>Kareem Tarek</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Rana Khaled</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Nurhan Elkhateib</t>
-  </si>
-  <si>
-    <t>Sarah Emad Eissa Hassan</t>
-  </si>
-  <si>
-    <t>Toqa Bader</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Mohamed Aladdin Hamdy</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Aboul Alor</t>
-  </si>
-  <si>
-    <t>Ahmed Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Ali</t>
-  </si>
-  <si>
-    <t>Rawan Tamer</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Edmound Nichola Ali</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Mina Sadallah</t>
   </si>
 </sst>
 </file>
@@ -332,7 +308,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,15 +365,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -424,28 +413,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -633,6 +602,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -657,24 +632,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -860,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -952,21 +921,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1166,137 +1120,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,88 +1300,73 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1967,10 +1906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2015,10 +1954,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2069,7 +2008,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2113,16 +2052,16 @@
       <c r="M3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2166,16 +2105,16 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2219,20 +2158,20 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:17">
+    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
       <c r="A6" s="10">
         <v>10295540</v>
       </c>
@@ -2272,16 +2211,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2325,16 +2264,16 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2378,16 +2317,16 @@
       <c r="M8" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2431,981 +2370,1021 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10254544</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:5">
+      <c r="A13" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B13" s="19">
+        <v>10295622</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="25.75" spans="1:5">
+      <c r="A14" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B14" s="19">
+        <v>10299512</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="25.75" spans="1:5">
+      <c r="A15" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B15" s="19">
+        <v>10273387</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B16" s="19">
+        <v>10295541</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B17" s="19">
+        <v>10314762</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B18" s="19">
+        <v>10304629</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" spans="1:5">
+      <c r="A19" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B19" s="19">
+        <v>10323547</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="25.75" spans="1:5">
+      <c r="A20" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B20" s="19">
+        <v>10326463</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="38.25" spans="1:5">
+      <c r="A21" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B21" s="19">
+        <v>10326484</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="25.75" spans="1:5">
+      <c r="A22" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B22" s="19">
+        <v>10327586</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:5">
+      <c r="A23" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B23" s="19">
+        <v>10327594</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B24" s="19">
+        <v>10327588</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B25" s="19">
+        <v>10329911</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:5">
+      <c r="A26" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B26" s="19">
+        <v>10329943</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B27" s="19">
+        <v>10330510</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B28" s="19">
+        <v>10299934</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="25.75" spans="1:5">
+      <c r="A29" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B29" s="19">
+        <v>10331082</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B30" s="19">
+        <v>10331157</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="25.75" spans="1:5">
+      <c r="A31" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B31" s="19">
+        <v>10331475</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B32" s="19">
+        <v>10331785</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="18">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B33" s="19">
+        <v>10331787</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="25.75" spans="1:5">
+      <c r="A34" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B34" s="19">
+        <v>10331078</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B35" s="19">
+        <v>10282852</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="25.75" spans="1:5">
+      <c r="A36" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B36" s="19">
+        <v>10282848</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B37" s="19">
+        <v>10320445</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="38.25" spans="1:5">
+      <c r="A38" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B38" s="19">
+        <v>10324431</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="25.75" spans="1:5">
+      <c r="A39" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B39" s="19">
+        <v>10330130</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="18">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B40" s="19">
+        <v>10331077</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B41" s="19">
+        <v>10332557</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:5">
+      <c r="A42" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B42" s="19">
+        <v>10332544</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="25.75" spans="1:5">
+      <c r="A43" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B43" s="19">
+        <v>10332517</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B44" s="19">
+        <v>10332480</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B45" s="19">
+        <v>10332681</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="25.75" spans="1:5">
+      <c r="A46" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B46" s="19">
+        <v>10332567</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B47" s="19">
+        <v>10332555</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B48" s="21">
+        <v>10332548</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B49" s="19">
+        <v>10332547</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B50" s="19">
+        <v>10332515</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B51" s="19">
+        <v>10332482</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B52" s="21">
+        <v>10332478</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="25.75" spans="1:5">
+      <c r="A53" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B53" s="19">
+        <v>10332550</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B54" s="22">
+        <v>10332478</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="25.75" spans="1:5">
+      <c r="A55" s="18">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B55" s="19">
+        <v>10332550</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B57" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
-        <v>45819</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="15.25" hidden="1" spans="1:4">
-      <c r="A13" s="23">
+      <c r="C57" s="25">
+        <v>45821</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" hidden="1" spans="1:4">
+      <c r="A58" s="27">
         <v>10276035</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="23">
+      <c r="B58" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="27">
+        <v>10312258</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:4">
+      <c r="A60" s="27">
         <v>10237041</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" hidden="1" spans="1:4">
-      <c r="A15" s="23">
+      <c r="B60" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="27">
+        <v>10304619</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" hidden="1" spans="1:4">
+      <c r="A62" s="27">
         <v>10272473</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" hidden="1" spans="1:4">
-      <c r="A16" s="23">
+      <c r="B62" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" hidden="1" spans="1:4">
+      <c r="A63" s="27">
+        <v>10254389</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" hidden="1" spans="1:4">
+      <c r="A64" s="27">
+        <v>10309113</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="29">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:4">
+      <c r="A65" s="27">
+        <v>10281108</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" hidden="1" spans="1:4">
+      <c r="A66" s="27">
+        <v>10284489</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:4">
+      <c r="A67" s="27">
+        <v>10292718</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:4">
+      <c r="A68" s="27">
         <v>10303779</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="23">
-        <v>10304619</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="B68" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:4">
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:4">
+      <c r="A70" s="27">
+        <v>10212315</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="27">
+        <v>10326982</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="29">
         <v>0.583333333333333</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" hidden="1" spans="1:4">
-      <c r="A18" s="23">
-        <v>10281108</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" hidden="1" spans="1:4">
-      <c r="A19" s="23">
-        <v>10284489</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" hidden="1" spans="1:4">
-      <c r="A20" s="23">
-        <v>10254389</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" hidden="1" spans="1:4">
-      <c r="A21" s="23">
-        <v>10292718</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" hidden="1" spans="1:4">
-      <c r="A22" s="23">
-        <v>10309113</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="D71" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:4">
+      <c r="A72" s="27">
+        <v>10224237</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="23">
-        <v>10312258</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" hidden="1" spans="1:4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" ht="15.25" hidden="1" spans="1:4">
-      <c r="A25" s="23">
-        <v>10212315</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" hidden="1" spans="1:5">
-      <c r="A26" s="23">
-        <v>10326982</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="15.25" hidden="1" spans="1:4">
-      <c r="A27" s="23">
-        <v>10224237</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="33">
-        <v>10281100</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="36">
-        <v>10295622</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="36">
-        <v>10299512</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="36">
-        <v>10273387</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="36">
-        <v>10295541</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="36">
-        <v>10314762</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="36">
-        <v>10304629</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="25.75" spans="1:4">
-      <c r="A37" s="36">
-        <v>10323547</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="36">
-        <v>10251309</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="36">
-        <v>10327588</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="36">
-        <v>10328665</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="36">
-        <v>10328658</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="36">
-        <v>10329911</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="36">
-        <v>10330150</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="36">
-        <v>10330149</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="36">
-        <v>10329943</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="36">
-        <v>10331475</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="36">
-        <v>10331785</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="36">
-        <v>10331787</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="36">
-        <v>10332557</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="36">
-        <v>10332553</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="25.75" spans="1:4">
-      <c r="A51" s="34">
-        <v>10304876</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D51" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="36">
-        <v>10293907</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D52" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="36">
-        <v>10320445</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D53" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="36">
-        <v>10320448</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D54" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="25.75" spans="1:4">
-      <c r="A55" s="36">
-        <v>10324431</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D55" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="36">
-        <v>10326502</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D56" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="25.75" spans="1:4">
-      <c r="A57" s="36">
-        <v>10330130</v>
-      </c>
-      <c r="B57" s="34" t="s">
+      <c r="D72" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D57" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="36">
-        <v>10331082</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D58" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="36">
-        <v>10331077</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="36">
-        <v>10331078</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D60" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="36">
-        <v>10314749</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D61" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="36">
-        <v>10282852</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D62" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="36">
-        <v>10332554</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D63" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="36">
-        <v>10332552</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D64" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:4">
-      <c r="A65" s="36">
-        <v>10331792</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D65" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="36">
-        <v>10332544</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D66" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:4">
-      <c r="A67" s="36">
-        <v>10332517</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D67" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:4">
-      <c r="A68" s="36">
-        <v>10332480</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D68" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:4">
-      <c r="A69" s="41">
-        <v>10332681</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D69" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="36">
-        <v>10332567</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:4">
-      <c r="A71" s="36">
-        <v>10332555</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="41">
-        <v>10332548</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D72" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:4">
-      <c r="A73" s="36">
-        <v>10332547</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D73" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="42">
-        <v>10332515</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D74" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:4">
-      <c r="A75" s="43">
-        <v>10332482</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:4">
-      <c r="A76" s="43">
-        <v>10332513</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D76" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:4">
-      <c r="A77" s="36">
-        <v>10332478</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D77" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:4">
-      <c r="A78" s="34">
-        <v>10332550</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D78" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="79" ht="15.25" spans="1:4">
-      <c r="A79" s="36">
-        <v>10331809</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="35">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D79" s="35">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:D27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A57:D72" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$57:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$34:$E$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>Details</t>
   </si>
@@ -119,36 +119,15 @@
     <t>To</t>
   </si>
   <si>
-    <t>Salma Yasser</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
+    <t>Shimaa Mokhtar</t>
   </si>
   <si>
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
     <t>Shahd Mahmoud</t>
   </si>
   <si>
@@ -158,133 +137,91 @@
     <t>Khaled Ezz</t>
   </si>
   <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
     <t>Weaam Alaa</t>
   </si>
   <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
     <t>Aya Mohamed</t>
   </si>
   <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
+    <t>Mahmoud Kamel</t>
   </si>
   <si>
     <t>Fatma El Gharably</t>
   </si>
   <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Aboul Alor</t>
-  </si>
-  <si>
     <t>Esraa mohamed</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
+    <t>Donia Elbanan</t>
   </si>
   <si>
     <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
-    <t>Mohamed Aladdin Hamdy</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
     <t>Hager Salah</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
     <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
   </si>
   <si>
     <t>Karim Rashid</t>
@@ -308,7 +245,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,20 +310,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -413,12 +344,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -614,6 +539,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF34A853"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,12 +569,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -950,10 +875,85 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,137 +1120,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1305,68 +1305,83 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1906,10 +1921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1954,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2008,7 +2023,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2052,16 +2067,16 @@
       <c r="M3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="34" t="s">
+      <c r="N3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2105,20 +2120,20 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
+      <c r="N4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
       <c r="A5" s="10">
         <v>10282854</v>
       </c>
@@ -2158,16 +2173,16 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="34" t="s">
+      <c r="N5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2211,16 +2226,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="34" t="s">
+      <c r="N6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2264,16 +2279,16 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="34" t="s">
+      <c r="N7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2317,16 +2332,16 @@
       <c r="M8" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="34" t="s">
+      <c r="N8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2370,16 +2385,16 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="32" t="s">
+      <c r="N9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2401,12 +2416,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:5">
+    <row r="12" ht="25.75" spans="1:5">
       <c r="A12" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B12" s="19">
-        <v>10254544</v>
+        <v>10303715</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>29</v>
@@ -2418,12 +2433,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="1:5">
+    <row r="13" ht="38.25" spans="1:5">
       <c r="A13" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B13" s="19">
-        <v>10295622</v>
+        <v>10326484</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>30</v>
@@ -2435,12 +2450,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="14" ht="25.75" spans="1:5">
+    <row r="14" ht="15.25" spans="1:5">
       <c r="A14" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B14" s="19">
-        <v>10299512</v>
+        <v>10251309</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>31</v>
@@ -2457,7 +2472,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B15" s="19">
-        <v>10273387</v>
+        <v>10327586</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>32</v>
@@ -2474,7 +2489,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B16" s="19">
-        <v>10295541</v>
+        <v>10327594</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>33</v>
@@ -2491,7 +2506,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B17" s="19">
-        <v>10314762</v>
+        <v>10327588</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>34</v>
@@ -2503,12 +2518,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="18" ht="15.25" spans="1:5">
+    <row r="18" ht="25.75" spans="1:5">
       <c r="A18" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B18" s="19">
-        <v>10304629</v>
+        <v>10328665</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>35</v>
@@ -2520,12 +2535,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="19" ht="38.25" spans="1:5">
+    <row r="19" ht="25.75" spans="1:5">
       <c r="A19" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B19" s="19">
-        <v>10323547</v>
+        <v>10328658</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>36</v>
@@ -2534,15 +2549,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E19" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="25.75" spans="1:5">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
       <c r="A20" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B20" s="19">
-        <v>10326463</v>
+        <v>10329911</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>37</v>
@@ -2554,12 +2569,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="21" ht="38.25" spans="1:5">
+    <row r="21" ht="15.25" spans="1:5">
       <c r="A21" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B21" s="19">
-        <v>10326484</v>
+        <v>10330150</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>38</v>
@@ -2571,12 +2586,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="22" ht="25.75" spans="1:5">
+    <row r="22" ht="38.25" spans="1:5">
       <c r="A22" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B22" s="19">
-        <v>10327586</v>
+        <v>10330149</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>39</v>
@@ -2593,7 +2608,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B23" s="19">
-        <v>10327594</v>
+        <v>10329943</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>40</v>
@@ -2610,7 +2625,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B24" s="19">
-        <v>10327588</v>
+        <v>10299934</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>41</v>
@@ -2622,12 +2637,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="25" ht="15.25" spans="1:5">
+    <row r="25" ht="25.75" spans="1:5">
       <c r="A25" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B25" s="19">
-        <v>10329911</v>
+        <v>10331078</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>42</v>
@@ -2639,12 +2654,12 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="26" ht="15.25" spans="1:5">
+    <row r="26" ht="25.75" spans="1:5">
       <c r="A26" s="18">
         <v>0.333333333333333</v>
       </c>
       <c r="B26" s="19">
-        <v>10329943</v>
+        <v>10331475</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>43</v>
@@ -2656,736 +2671,460 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="27" ht="15.25" spans="1:5">
+    <row r="27" ht="25.75" spans="1:5">
       <c r="A27" s="18">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B27" s="19">
-        <v>10330510</v>
+        <v>10282848</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="20">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E27" s="20">
-        <v>0.708333333333333</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
       <c r="A28" s="18">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B28" s="19">
-        <v>10299934</v>
+        <v>10320448</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="20">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E28" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="25.75" spans="1:5">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="38.25" spans="1:5">
       <c r="A29" s="18">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B29" s="19">
-        <v>10331082</v>
+        <v>10324431</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="20">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E29" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="25.75" spans="1:5">
       <c r="A30" s="18">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B30" s="19">
-        <v>10331157</v>
+        <v>10326502</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="20">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E30" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="25.75" spans="1:5">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
       <c r="A31" s="18">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B31" s="19">
-        <v>10331475</v>
+        <v>10314749</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="20">
-        <v>0.333333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E31" s="20">
-        <v>0.708333333333333</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B32" s="19">
-        <v>10331785</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E32" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B33" s="19">
-        <v>10331787</v>
-      </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="27">
+        <v>45823</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E33" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="25.75" spans="1:5">
-      <c r="A34" s="18">
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="30">
+        <v>10304619</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" hidden="1" spans="1:5">
+      <c r="A36" s="30">
+        <v>10303779</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" hidden="1" spans="1:5">
+      <c r="A37" s="30">
+        <v>10284489</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="32">
         <v>0.458333333333333</v>
       </c>
-      <c r="B34" s="19">
-        <v>10331078</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="18">
+      <c r="D37" s="33"/>
+      <c r="E37" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" hidden="1" spans="1:5">
+      <c r="A38" s="30">
+        <v>10281108</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="32">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="30">
+        <v>10312258</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="32">
         <v>0.458333333333333</v>
       </c>
-      <c r="B35" s="19">
-        <v>10282852</v>
-      </c>
-      <c r="C35" s="19" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E35" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="25.75" spans="1:5">
-      <c r="A36" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B36" s="19">
-        <v>10282848</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E36" s="20">
+    </row>
+    <row r="40" hidden="1" spans="1:5">
+      <c r="A40" s="30">
+        <v>10292718</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="32">
         <v>0.666666666666667</v>
       </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B37" s="19">
-        <v>10320445</v>
-      </c>
-      <c r="C37" s="19" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E37" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="38.25" spans="1:5">
-      <c r="A38" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B38" s="19">
-        <v>10324431</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E38" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="25.75" spans="1:5">
-      <c r="A39" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B39" s="19">
-        <v>10330130</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E39" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B40" s="19">
-        <v>10331077</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E40" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B41" s="19">
-        <v>10332557</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E41" s="20">
+    </row>
+    <row r="41" ht="15.25" hidden="1" spans="1:5">
+      <c r="A41" s="30">
+        <v>10254389</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" hidden="1" spans="1:5">
+      <c r="A42" s="30">
+        <v>10309113</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="32">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B42" s="19">
-        <v>10332544</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E42" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="25.75" spans="1:5">
-      <c r="A43" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B43" s="19">
-        <v>10332517</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E43" s="20">
-        <v>0.958333333333333</v>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" hidden="1" spans="1:5">
+      <c r="A43" s="30">
+        <v>10276035</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B44" s="19">
-        <v>10332480</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E44" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B45" s="19">
-        <v>10332681</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="A44" s="30">
+        <v>10237041</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E45" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="25.75" spans="1:5">
-      <c r="A46" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B46" s="19">
-        <v>10332567</v>
-      </c>
-      <c r="C46" s="19" t="s">
+      <c r="C44" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" hidden="1" spans="1:5">
+      <c r="A45" s="30">
+        <v>10272473</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E46" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B47" s="19">
-        <v>10332555</v>
-      </c>
-      <c r="C47" s="19" t="s">
+      <c r="C45" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" hidden="1" spans="1:5">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" ht="15.25" hidden="1" spans="1:5">
+      <c r="A47" s="30">
+        <v>10212315</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E47" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B48" s="21">
-        <v>10332548</v>
-      </c>
-      <c r="C48" s="19" t="s">
+      <c r="C47" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" hidden="1" spans="1:5">
+      <c r="A48" s="30">
+        <v>10326982</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E48" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B49" s="19">
-        <v>10332547</v>
-      </c>
-      <c r="C49" s="19" t="s">
+      <c r="C48" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" hidden="1" spans="1:5">
+      <c r="A49" s="30">
+        <v>10224237</v>
+      </c>
+      <c r="B49" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E49" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B50" s="19">
-        <v>10332515</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E50" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B51" s="19">
-        <v>10332482</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E51" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B52" s="21">
-        <v>10332478</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E52" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="25.75" spans="1:5">
-      <c r="A53" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B53" s="19">
-        <v>10332550</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E53" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B54" s="22">
-        <v>10332478</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E54" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="25.75" spans="1:5">
-      <c r="A55" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B55" s="19">
-        <v>10332550</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E55" s="20">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
+      <c r="C49" s="32">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="25">
-        <v>45821</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" hidden="1" spans="1:4">
-      <c r="A58" s="27">
-        <v>10276035</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="27">
-        <v>10312258</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="29">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="27">
-        <v>10237041</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="29">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="27">
-        <v>10304619</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="29">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" hidden="1" spans="1:4">
-      <c r="A62" s="27">
-        <v>10272473</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="29">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" hidden="1" spans="1:4">
-      <c r="A63" s="27">
-        <v>10254389</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" hidden="1" spans="1:4">
-      <c r="A64" s="27">
-        <v>10309113</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="29">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:4">
-      <c r="A65" s="27">
-        <v>10281108</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" hidden="1" spans="1:4">
-      <c r="A66" s="27">
-        <v>10284489</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:4">
-      <c r="A67" s="27">
-        <v>10292718</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:4">
-      <c r="A68" s="27">
-        <v>10303779</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:4">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:4">
-      <c r="A70" s="27">
-        <v>10212315</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:4">
-      <c r="A71" s="27">
-        <v>10326982</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="29">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" hidden="1" spans="1:4">
-      <c r="A72" s="27">
-        <v>10224237</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A57:D72" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A34:E49" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
       <filters>
         <filter val="5th.S"/>
       </filters>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$34:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$62:$D$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,30 +30,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 9, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 10, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 11, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 12, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 13, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 14, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 15, 2025</t>
+    <t>Monday, June 16, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 19, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 20, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 21, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 22, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -107,7 +107,16 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Shift</t>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Nesting SME</t>
+  </si>
+  <si>
+    <t>Aboul Alor</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
   </si>
   <si>
     <t>HRID</t>
@@ -122,109 +131,184 @@
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
     <t>Shahd Mahmoud</t>
   </si>
   <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
+    <t>Alaa Karam</t>
   </si>
   <si>
     <t>Mohamed Mamdouh</t>
   </si>
   <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
     <t>Lina Essam</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Mon</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
     <t>Aya Shehabeldin</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
     <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Karim Rashid</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -245,17 +329,10 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,11 +381,37 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -344,6 +447,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -488,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,19 +657,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,12 +693,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -754,7 +878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -853,6 +977,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -890,36 +1044,6 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
@@ -932,37 +1056,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
@@ -1120,268 +1214,283 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1921,192 +2030,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.0909090909091" style="2"/>
-    <col min="14" max="14" width="8.72727272727273" style="2"/>
-    <col min="15" max="15" width="11.3636363636364" style="2"/>
-    <col min="16" max="16" width="10.2727272727273" style="2"/>
-    <col min="17" max="16384" width="8.72727272727273" style="2"/>
+    <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.0909090909091" style="1"/>
+    <col min="14" max="14" width="8.72727272727273" style="1"/>
+    <col min="15" max="15" width="11.3636363636364" style="1"/>
+    <col min="16" max="16" width="10.2727272727273" style="1"/>
+    <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="17.5" customHeight="1" spans="1:17">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="40"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16" spans="1:17">
-      <c r="A3" s="10">
+    <row r="3" ht="16" spans="1:17">
+      <c r="A3" s="9">
         <v>10272463</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="41" t="s">
+      <c r="L3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A4" s="10">
+    <row r="4" ht="15.25" spans="1:17">
+      <c r="A4" s="9">
         <v>10282174</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F4" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="E4" s="12">
+      <c r="G4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>15</v>
+      <c r="H4" s="12">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.791666666666667</v>
       </c>
       <c r="J4" s="12">
         <v>0.416666666666667</v>
@@ -2120,27 +2229,27 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="41" t="s">
+      <c r="N4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q4" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
-      <c r="A5" s="10">
+    <row r="5" ht="15.25" spans="1:17">
+      <c r="A5" s="9">
         <v>10282854</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12">
@@ -2159,7 +2268,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="I5" s="12">
-        <v>0.833333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="J5" s="12">
         <v>0.333333333333333</v>
@@ -2173,27 +2282,27 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="41" t="s">
+      <c r="N5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16" customHeight="1" spans="1:17">
-      <c r="A6" s="10">
+    <row r="6" ht="15.25" spans="1:17">
+      <c r="A6" s="9">
         <v>10295540</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12">
@@ -2202,11 +2311,11 @@
       <c r="E6" s="12">
         <v>0.75</v>
       </c>
-      <c r="F6" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.75</v>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="12">
         <v>0.375</v>
@@ -2226,27 +2335,27 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="41" t="s">
+      <c r="N6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A7" s="10">
+    <row r="7" ht="15.25" spans="1:17">
+      <c r="A7" s="9">
         <v>10304630</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="12">
@@ -2261,16 +2370,16 @@
       <c r="G7" s="12">
         <v>0.75</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>0.375</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>0.75</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>0.375</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>0.75</v>
       </c>
       <c r="L7" s="12">
@@ -2279,27 +2388,27 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="41" t="s">
+      <c r="N7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="10">
+    <row r="8" ht="15.25" spans="1:17">
+      <c r="A8" s="9">
         <v>10272462</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="12">
@@ -2332,27 +2441,27 @@
       <c r="M8" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="41" t="s">
+      <c r="N8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="40" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A9" s="10">
+    <row r="9" ht="15.25" spans="1:17">
+      <c r="A9" s="9">
         <v>10325072</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="12">
@@ -2385,746 +2494,1070 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25"/>
-    <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="16" t="s">
+      <c r="N9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:17">
+      <c r="A10" s="9">
+        <v>10299512</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:17">
+      <c r="A11" s="9">
+        <v>10282852</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:17">
+      <c r="A12" s="14">
+        <v>10295622</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="16" spans="1:6">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" ht="15.25" spans="1:5">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="19">
         <v>10303715</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="B15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="22">
+        <v>10304629</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" ht="25.75" spans="1:5">
+      <c r="A17" s="22">
+        <v>10323547</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="22">
+        <v>10251309</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="22">
+        <v>10328665</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="22">
+        <v>10330150</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="22">
+        <v>10330149</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="15.25" spans="1:5">
+      <c r="A22" s="22">
+        <v>10330510</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:5">
+      <c r="A23" s="22">
+        <v>10299934</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="22">
+        <v>10331157</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="22">
+        <v>10331787</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:5">
+      <c r="A26" s="22">
+        <v>10333385</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="22">
+        <v>10333416</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="25">
+        <v>10333417</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:5">
+      <c r="A29" s="22">
+        <v>10333396</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="26">
+        <v>10333426</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="27">
+        <v>10333432</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="27">
+        <v>10333435</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="22">
+        <v>10333437</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="22">
+        <v>10333439</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="27">
+        <v>10333436</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="23">
+        <v>10282848</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="22">
+        <v>10295541</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="22">
+        <v>10320445</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="22">
+        <v>10320448</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" ht="25.75" spans="1:4">
+      <c r="A40" s="22">
+        <v>10326484</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="22">
+        <v>10327586</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="22">
+        <v>10314762</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="22">
+        <v>10326502</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="22">
+        <v>10331082</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="22">
+        <v>10331077</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="22">
+        <v>10314749</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="22">
+        <v>10332557</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="22">
+        <v>10332544</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="22">
+        <v>10332517</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="22">
+        <v>10332480</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="22">
+        <v>10332681</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="22">
+        <v>10332567</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="22">
+        <v>10332555</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="22">
+        <v>10332548</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="22">
+        <v>10332547</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="22">
+        <v>10332515</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="22">
+        <v>10332482</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="25">
+        <v>10332478</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="23">
+        <v>10332550</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25"/>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="13" ht="38.25" spans="1:5">
-      <c r="A13" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B13" s="19">
-        <v>10326484</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B14" s="19">
-        <v>10251309</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="25.75" spans="1:5">
-      <c r="A15" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B15" s="19">
-        <v>10327586</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B16" s="19">
-        <v>10327594</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B17" s="19">
-        <v>10327588</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="25.75" spans="1:5">
-      <c r="A18" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B18" s="19">
-        <v>10328665</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="25.75" spans="1:5">
-      <c r="A19" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B19" s="19">
-        <v>10328658</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B20" s="19">
-        <v>10329911</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B21" s="19">
-        <v>10330150</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="38.25" spans="1:5">
-      <c r="A22" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B22" s="19">
-        <v>10330149</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B23" s="19">
-        <v>10329943</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B24" s="19">
-        <v>10299934</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="25.75" spans="1:5">
-      <c r="A25" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B25" s="19">
-        <v>10331078</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="25.75" spans="1:5">
-      <c r="A26" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B26" s="19">
-        <v>10331475</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="25.75" spans="1:5">
-      <c r="A27" s="18">
+      <c r="B62" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="33">
+        <v>45824</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" hidden="1" spans="1:4">
+      <c r="A63" s="35">
+        <v>10303779</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="35">
+        <v>10237041</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:4">
+      <c r="A65" s="35">
+        <v>10281108</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="37">
         <v>0.458333333333333</v>
       </c>
-      <c r="B27" s="19">
-        <v>10282848</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D65" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:4">
+      <c r="A66" s="35">
+        <v>10312258</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="37">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:4">
+      <c r="A67" s="35">
+        <v>10284489</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="37">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:4">
+      <c r="A68" s="35">
+        <v>10272473</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="37">
         <v>0.666666666666667</v>
       </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B28" s="19">
-        <v>10320448</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E28" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="38.25" spans="1:5">
-      <c r="A29" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B29" s="19">
-        <v>10324431</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="25.75" spans="1:5">
-      <c r="A30" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B30" s="19">
-        <v>10326502</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B31" s="19">
-        <v>10314749</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="27">
-        <v>45823</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="30">
+      <c r="D68" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:4">
+      <c r="A69" s="35">
+        <v>10292718</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:4">
+      <c r="A70" s="35">
+        <v>10309113</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="37">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="35">
+        <v>10276035</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:4">
+      <c r="A72" s="35">
         <v>10304619</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" hidden="1" spans="1:5">
-      <c r="A36" s="30">
-        <v>10303779</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="32">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" hidden="1" spans="1:5">
-      <c r="A37" s="30">
-        <v>10284489</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="32">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" hidden="1" spans="1:5">
-      <c r="A38" s="30">
-        <v>10281108</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="B72" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" hidden="1" spans="1:4">
+      <c r="A73" s="35">
+        <v>10254389</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" hidden="1" spans="1:4">
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
+    </row>
+    <row r="75" ht="15.25" hidden="1" spans="1:4">
+      <c r="A75" s="35">
+        <v>10326982</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="30">
-        <v>10312258</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="32">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:5">
-      <c r="A40" s="30">
-        <v>10292718</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="32">
+      <c r="D75" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" hidden="1" spans="1:4">
+      <c r="A76" s="35">
+        <v>10224237</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="37">
         <v>0.666666666666667</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" hidden="1" spans="1:5">
-      <c r="A41" s="30">
-        <v>10254389</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" hidden="1" spans="1:5">
-      <c r="A42" s="30">
-        <v>10309113</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="32">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" hidden="1" spans="1:5">
-      <c r="A43" s="30">
-        <v>10276035</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="30">
-        <v>10237041</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" hidden="1" spans="1:5">
-      <c r="A45" s="30">
-        <v>10272473</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" hidden="1" spans="1:5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-    </row>
-    <row r="47" ht="15.25" hidden="1" spans="1:5">
-      <c r="A47" s="30">
-        <v>10212315</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" hidden="1" spans="1:5">
-      <c r="A48" s="30">
-        <v>10326982</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" hidden="1" spans="1:5">
-      <c r="A49" s="30">
-        <v>10224237</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
+      <c r="D76" s="38" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A34:E49" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="4">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A62:D76" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>
       </filters>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$62:$D$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$64:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,6 +131,9 @@
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
+    <t>Rana Khaled</t>
+  </si>
+  <si>
     <t>Sarah Hassan</t>
   </si>
   <si>
@@ -143,84 +146,84 @@
     <t>Amira Daashoush</t>
   </si>
   <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
     <t>Hossam Elamin</t>
   </si>
   <si>
     <t>Peter Tawfellos Asham</t>
   </si>
   <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
   </si>
   <si>
     <t>Farah Rizk</t>
   </si>
   <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Abdulrahman Suliman</t>
-  </si>
-  <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
-    <t>Mustafa Mohamed</t>
-  </si>
-  <si>
-    <t>Maher Ali Dahab</t>
-  </si>
-  <si>
-    <t>Afraa Hatim</t>
-  </si>
-  <si>
-    <t>Ibrahim Balla</t>
-  </si>
-  <si>
-    <t>Aisha Mohammed</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
     <t>Lina Essam</t>
   </si>
   <si>
@@ -239,9 +242,6 @@
     <t>Faiga Maher</t>
   </si>
   <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
     <t>Hady Adel</t>
   </si>
   <si>
@@ -263,7 +263,10 @@
     <t>Hesham Abuelela</t>
   </si>
   <si>
-    <t>Mon</t>
+    <t>June-17th:</t>
+  </si>
+  <si>
+    <t>Tue</t>
   </si>
   <si>
     <t>Site</t>
@@ -284,28 +287,25 @@
     <t>Ziad Mohamed</t>
   </si>
   <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
     <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
   </si>
   <si>
     <t>Maamoon Nabil</t>
@@ -400,18 +400,25 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -433,6 +440,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -443,21 +457,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -606,7 +605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +662,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -675,18 +680,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1015,6 +1008,21 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1220,7 +1228,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,119 +1240,119 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,85 +1419,76 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2030,10 +2029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:C66"/>
+      <selection activeCell="A66" sqref="A66:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2078,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2132,7 +2131,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2176,16 +2175,16 @@
       <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="43" t="s">
+      <c r="N3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2229,16 +2228,16 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="43" t="s">
+      <c r="N4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2282,16 +2281,16 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="43" t="s">
+      <c r="N5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2335,16 +2334,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="43" t="s">
+      <c r="N6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2388,16 +2387,16 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="43" t="s">
+      <c r="N7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2441,16 +2440,16 @@
       <c r="M8" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="43" t="s">
+      <c r="N8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2494,16 +2493,16 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="40" t="s">
+      <c r="N9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2547,16 +2546,16 @@
       <c r="M10" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="40" t="s">
+      <c r="N10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2600,16 +2599,16 @@
       <c r="M11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="40" t="s">
+      <c r="N11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2653,16 +2652,16 @@
       <c r="M12" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="N12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="41" t="s">
+      <c r="N12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2674,7 +2673,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" ht="15.25" spans="1:5">
+    <row r="14" ht="15.25" spans="1:4">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -2687,9 +2686,8 @@
       <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="15.25" spans="1:5">
+    </row>
+    <row r="15" ht="15.25" spans="1:4">
       <c r="A15" s="19">
         <v>10303715</v>
       </c>
@@ -2697,866 +2695,864 @@
         <v>32</v>
       </c>
       <c r="C15" s="21">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="21">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:4">
+      <c r="A16" s="19">
+        <v>10281100</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="19">
+        <v>10304629</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="25.75" spans="1:4">
+      <c r="A18" s="19">
+        <v>10323547</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19" s="19">
+        <v>10251309</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:4">
+      <c r="A20" s="19">
+        <v>10328665</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:4">
+      <c r="A21" s="19">
+        <v>10330510</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22" s="19">
+        <v>10331785</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="19">
+        <v>10331787</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="19">
+        <v>10332567</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="19">
+        <v>10333385</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="19">
+        <v>10333416</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="22">
+        <v>10333417</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="19">
+        <v>10333396</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="23">
+        <v>10333426</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="24">
+        <v>10333432</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="24">
+        <v>10333435</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="19">
+        <v>10333437</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="19">
+        <v>10333439</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="24">
+        <v>10333436</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="19">
+        <v>10273387</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="19">
+        <v>10295541</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="20">
+        <v>10314762</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="19">
+        <v>10320445</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="19">
+        <v>10327586</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="19">
+        <v>10330150</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="19">
+        <v>10330149</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="19">
+        <v>10320448</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="19">
+        <v>10326502</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="19">
+        <v>10331082</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="19">
+        <v>10331077</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="19">
+        <v>10331157</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="19">
+        <v>10314749</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="19">
+        <v>10332557</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="19">
+        <v>10332544</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="19">
+        <v>10332517</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="19">
+        <v>10332480</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="19">
+        <v>10332681</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="19">
+        <v>10332555</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="19">
+        <v>10332548</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="19">
+        <v>10332547</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="19">
+        <v>10332515</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="19">
+        <v>10332482</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="22">
+        <v>10332478</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="19">
+        <v>10332550</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" ht="15.25" spans="1:4">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" ht="15.25" spans="1:4">
+      <c r="A64" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="31">
+        <v>45825</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:4">
+      <c r="A65" s="38">
+        <v>10303779</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="40">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="38">
+        <v>10237041</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="40">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:4">
+      <c r="A67" s="38">
+        <v>10281108</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="40">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:5">
+      <c r="A68" s="38">
+        <v>10276035</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="40">
         <v>0.541666666666667</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="22">
-        <v>10304629</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="25.75" spans="1:5">
-      <c r="A17" s="22">
-        <v>10323547</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="22">
-        <v>10251309</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="22">
-        <v>10328665</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="22">
-        <v>10330150</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="22">
-        <v>10330149</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="22">
-        <v>10330510</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="22">
-        <v>10299934</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="22">
-        <v>10331157</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="22">
-        <v>10331787</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="22">
-        <v>10333385</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="22">
-        <v>10333416</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="25">
-        <v>10333417</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="22">
-        <v>10333396</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="26">
-        <v>10333426</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="27">
-        <v>10333432</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="27">
-        <v>10333435</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="22">
-        <v>10333437</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="22">
-        <v>10333439</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="27">
-        <v>10333436</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="23">
-        <v>10282848</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D36" s="24">
+      <c r="D68" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:4">
+      <c r="A69" s="38">
+        <v>10284489</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="40">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="38">
+        <v>10304619</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="40">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="38">
+        <v>10272473</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="40">
         <v>0.666666666666667</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="22">
-        <v>10295541</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="22">
-        <v>10320445</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="22">
-        <v>10320448</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="24">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="25.75" spans="1:4">
-      <c r="A40" s="22">
-        <v>10326484</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="22">
-        <v>10327586</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D41" s="24">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="22">
-        <v>10314762</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="24">
+      <c r="D71" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:4">
+      <c r="A72" s="38">
+        <v>10292718</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" hidden="1" spans="1:5">
+      <c r="A73" s="38">
+        <v>10309113</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="40">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" ht="15.25" spans="1:4">
+      <c r="A74" s="38">
+        <v>10312258</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" hidden="1" spans="1:4">
+      <c r="A75" s="38">
+        <v>10254389</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" hidden="1" spans="1:4">
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+    </row>
+    <row r="77" ht="15.25" hidden="1" spans="1:4">
+      <c r="A77" s="38">
+        <v>10326982</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="40">
         <v>0.583333333333333</v>
       </c>
-      <c r="D42" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="22">
-        <v>10326502</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="22">
-        <v>10331082</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D44" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="22">
-        <v>10331077</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="22">
-        <v>10314749</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D46" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="22">
-        <v>10332557</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D47" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="22">
-        <v>10332544</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D48" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="22">
-        <v>10332517</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="22">
-        <v>10332480</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D50" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="22">
-        <v>10332681</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="22">
-        <v>10332567</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="22">
-        <v>10332555</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D53" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="22">
-        <v>10332548</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="22">
-        <v>10332547</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="22">
-        <v>10332515</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D56" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="22">
-        <v>10332482</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D57" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="25">
-        <v>10332478</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D58" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="23">
-        <v>10332550</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D59" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25"/>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="30"/>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="33">
-        <v>45824</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" hidden="1" spans="1:4">
-      <c r="A63" s="35">
-        <v>10303779</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="35">
-        <v>10237041</v>
-      </c>
-      <c r="B64" s="36" t="s">
+      <c r="D77" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:4">
-      <c r="A65" s="35">
-        <v>10281108</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="37">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="35">
-        <v>10312258</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:4">
-      <c r="A67" s="35">
-        <v>10284489</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:4">
-      <c r="A68" s="35">
-        <v>10272473</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="37">
+    </row>
+    <row r="78" ht="15.25" hidden="1" spans="1:4">
+      <c r="A78" s="38">
+        <v>10224237</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="40">
         <v>0.666666666666667</v>
       </c>
-      <c r="D68" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:4">
-      <c r="A69" s="35">
-        <v>10292718</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:4">
-      <c r="A70" s="35">
-        <v>10309113</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:4">
-      <c r="A71" s="35">
-        <v>10276035</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="35">
-        <v>10304619</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" hidden="1" spans="1:4">
-      <c r="A73" s="35">
-        <v>10254389</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" hidden="1" spans="1:4">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
-    </row>
-    <row r="75" ht="15.25" hidden="1" spans="1:4">
-      <c r="A75" s="35">
-        <v>10326982</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" hidden="1" spans="1:4">
-      <c r="A76" s="35">
-        <v>10224237</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>80</v>
+      <c r="D78" s="41" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A62:D76" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A64:D78" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$64:$D$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$63:$D$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Details</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
-    <t>Rana Khaled</t>
+    <t>Rawya Alor Biong</t>
   </si>
   <si>
     <t>Sarah Hassan</t>
@@ -140,15 +140,27 @@
     <t>Belal Karam Fawzy Qassem</t>
   </si>
   <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
     <t>Aya Ashraf</t>
   </si>
   <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
     <t>Amira Daashoush</t>
   </si>
   <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
     <t>Adnan Fouad</t>
   </si>
   <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
     <t>Hadya Waheed</t>
   </si>
   <si>
@@ -188,40 +200,49 @@
     <t>Aisha Mohammed</t>
   </si>
   <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
     <t>Fatma Ahmed</t>
   </si>
   <si>
+    <t>Joudi Moussa</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
     <t>Alaa Karam</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
+    <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
     <t>Mohamed Mamdouh</t>
   </si>
   <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
     <t>Fady Naser</t>
   </si>
   <si>
-    <t>Farah Rizk</t>
+    <t>Mahmoud Kamel</t>
   </si>
   <si>
     <t>Lina Essam</t>
@@ -236,79 +257,58 @@
     <t>Abdullah Haroon</t>
   </si>
   <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
     <t>Faiga Maher</t>
   </si>
   <si>
     <t>Hady Adel</t>
   </si>
   <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
     <t>Anger Bagat</t>
   </si>
   <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>June-17th:</t>
-  </si>
-  <si>
-    <t>Tue</t>
+    <t>Thu</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
     <t>Aya Shehabeldin</t>
   </si>
   <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
     <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -329,7 +329,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,13 +412,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -440,13 +433,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -458,6 +444,13 @@
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -662,24 +655,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -871,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1008,21 +1001,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1222,137 +1200,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,21 +1382,18 @@
     <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1428,67 +1403,64 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="15" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2029,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2077,10 +2049,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2131,7 +2103,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2175,16 +2147,16 @@
       <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="37" t="s">
+      <c r="N3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2228,16 +2200,16 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="37" t="s">
+      <c r="N4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2281,16 +2253,16 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="37" t="s">
+      <c r="N5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2334,16 +2306,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="37" t="s">
+      <c r="N6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2387,16 +2359,16 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="37" t="s">
+      <c r="N7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2429,27 +2401,27 @@
         <v>0.833333333333333</v>
       </c>
       <c r="J8" s="12">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="K8" s="12">
-        <v>0.833333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="L8" s="12">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="M8" s="12">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="37" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2493,16 +2465,16 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="34" t="s">
+      <c r="N9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2546,16 +2518,16 @@
       <c r="M10" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="34" t="s">
+      <c r="N10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2599,16 +2571,16 @@
       <c r="M11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="34" t="s">
+      <c r="N11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2652,16 +2624,16 @@
       <c r="M12" s="16">
         <v>0.708333333333333</v>
       </c>
-      <c r="N12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+      <c r="N12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2677,882 +2649,925 @@
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:4">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>10303715</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:4">
-      <c r="A16" s="19">
-        <v>10281100</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="C15" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="20">
+        <v>10273387</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="19">
+      <c r="C16" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="20">
         <v>10304629</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="25.75" spans="1:4">
-      <c r="A18" s="19">
+      <c r="C17" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" ht="25.75" spans="1:5">
+      <c r="A18" s="20">
         <v>10323547</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:4">
-      <c r="A19" s="19">
+      <c r="C18" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="20">
+        <v>10326463</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="20">
         <v>10251309</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="19">
+      <c r="B20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="20">
+        <v>10327594</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="15.25" spans="1:5">
+      <c r="A22" s="20">
         <v>10328665</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="19">
+      <c r="B22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:5">
+      <c r="A23" s="20">
+        <v>10329943</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="20">
         <v>10330510</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="19">
+      <c r="B24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="20">
+        <v>10331475</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="15.25" spans="1:5">
+      <c r="A26" s="20">
         <v>10331785</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="19">
+      <c r="B26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="20">
         <v>10331787</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:4">
-      <c r="A24" s="19">
+      <c r="B27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="20">
         <v>10332567</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="19">
+      <c r="B28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" ht="15.25" spans="1:5">
+      <c r="A29" s="20">
         <v>10333385</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="19">
+      <c r="B29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="20">
         <v>10333416</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="22">
+      <c r="B30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="21">
         <v>10333417</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="19">
+      <c r="B31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="20">
         <v>10333396</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="23">
+      <c r="B32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="22">
         <v>10333426</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="24">
+      <c r="B33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="23">
         <v>10333432</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="24">
+      <c r="B34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="23">
         <v>10333435</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="19">
+      <c r="B35" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="18">
         <v>10333437</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="19">
+      <c r="B36" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="20">
         <v>10333439</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="24">
+      <c r="B37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="23">
         <v>10333436</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="19">
-        <v>10273387</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="20">
+        <v>10295541</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19">
         <v>0.458333333333333</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D39" s="19">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="19">
-        <v>10295541</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="E39"/>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="20">
+        <v>10320445</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="19">
         <v>0.458333333333333</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D40" s="19">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="20">
+      <c r="E40"/>
+    </row>
+    <row r="41" ht="25.75" spans="1:5">
+      <c r="A41" s="20">
+        <v>10326484</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:5">
+      <c r="A42" s="20">
+        <v>10327588</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="20">
+        <v>10329911</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="20">
+        <v>10330150</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="20">
+        <v>10299934</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="20">
+        <v>10332480</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="20">
+        <v>10331082</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="20">
+        <v>10282848</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="20">
         <v>10314762</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="19">
-        <v>10320445</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="19">
-        <v>10327586</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="19">
-        <v>10330150</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="19">
-        <v>10330149</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D41" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="19">
-        <v>10320448</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="21">
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D49" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="19">
+      <c r="E49"/>
+    </row>
+    <row r="50" ht="25.75" spans="1:5">
+      <c r="A50" s="20">
+        <v>10324431</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="20">
         <v>10326502</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="B51" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D51" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="19">
-        <v>10331082</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="21">
+      <c r="E51"/>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="20">
+        <v>10331077</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D52" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="19">
-        <v>10331077</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="E52"/>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="20">
+        <v>10331078</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D53" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="19">
-        <v>10331157</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="E53"/>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="20">
+        <v>10314749</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D54" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="19">
-        <v>10314749</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="21">
+      <c r="E54"/>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="20">
+        <v>10332557</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D55" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="19">
-        <v>10332557</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="E55"/>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="20">
+        <v>10332544</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D56" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="19">
-        <v>10332544</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="21">
+      <c r="E56"/>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="20">
+        <v>10332517</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D57" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="19">
-        <v>10332517</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="21">
+      <c r="E57"/>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="20">
+        <v>10332681</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D58" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="19">
-        <v>10332480</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="21">
+      <c r="E58"/>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="18">
+        <v>10332555</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D59" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="19">
-        <v>10332681</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="21">
+      <c r="E59"/>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="21">
+        <v>10332478</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="19">
         <v>0.583333333333333</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D60" s="19">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="19">
-        <v>10332555</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="19">
-        <v>10332548</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D54" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="19">
-        <v>10332547</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="19">
-        <v>10332515</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="19">
-        <v>10332482</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="22">
-        <v>10332478</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D58" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="19">
-        <v>10332550</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D59" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="25" t="s">
-        <v>77</v>
-      </c>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
     </row>
-    <row r="62" ht="15.25" spans="1:5">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="27"/>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="29" t="s">
+      <c r="A63" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B63" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="31">
-        <v>45825</v>
-      </c>
-      <c r="D64" s="32" t="s">
+      <c r="C63" s="29">
+        <v>45827</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="31">
+        <v>10237041</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64"/>
+    </row>
     <row r="65" ht="15.25" hidden="1" spans="1:4">
-      <c r="A65" s="38">
+      <c r="A65" s="31">
+        <v>10276035</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" hidden="1" spans="1:4">
+      <c r="A66" s="31">
+        <v>10281108</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:4">
+      <c r="A67" s="31">
+        <v>10284489</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:4">
+      <c r="A68" s="31">
+        <v>10312258</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:5">
+      <c r="A69" s="31">
+        <v>10272473</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="33">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:4">
+      <c r="A70" s="31">
+        <v>10254389</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="31">
+        <v>10292718</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="33">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:4">
+      <c r="A72" s="31">
         <v>10303779</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D65" s="41" t="s">
+      <c r="B72" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:4">
+      <c r="A73" s="31">
+        <v>10304619</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="38">
-        <v>10237041</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D66" s="41" t="s">
+    <row r="74" ht="15.25" hidden="1" spans="1:4">
+      <c r="A74" s="31">
+        <v>10309113</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:4">
-      <c r="A67" s="38">
-        <v>10281108</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:5">
-      <c r="A68" s="38">
-        <v>10276035</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="40">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:4">
-      <c r="A69" s="38">
-        <v>10284489</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="40">
+    <row r="75" ht="15.25" hidden="1" spans="1:4">
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+    </row>
+    <row r="76" ht="15.25" hidden="1" spans="1:4">
+      <c r="A76" s="31">
+        <v>10326982</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="33">
         <v>0.583333333333333</v>
       </c>
-      <c r="D69" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="38">
-        <v>10304619</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="40">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D70" s="41" t="s">
+      <c r="D76" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:4">
-      <c r="A71" s="38">
-        <v>10272473</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="40">
+    <row r="77" ht="15.25" hidden="1" spans="1:4">
+      <c r="A77" s="31">
+        <v>10224237</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="33">
         <v>0.666666666666667</v>
       </c>
-      <c r="D71" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" hidden="1" spans="1:4">
-      <c r="A72" s="38">
-        <v>10292718</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" hidden="1" spans="1:5">
-      <c r="A73" s="38">
-        <v>10309113</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="40">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="38">
-        <v>10312258</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="41" t="s">
+      <c r="D77" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" ht="15.25" hidden="1" spans="1:4">
-      <c r="A75" s="38">
-        <v>10254389</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" hidden="1" spans="1:4">
-      <c r="A76" s="43"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-    </row>
-    <row r="77" ht="15.25" hidden="1" spans="1:4">
-      <c r="A77" s="38">
-        <v>10326982</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="40">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" hidden="1" spans="1:4">
-      <c r="A78" s="38">
-        <v>10224237</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="40">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A64:D78" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A63:D77" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$63:$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$57:$D$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>Details</t>
   </si>
@@ -119,6 +119,9 @@
     <t>Ziyad Sherif</t>
   </si>
   <si>
+    <t>Fatma Bahaa</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -143,21 +146,21 @@
     <t>Abdelrahman Ibraheem</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
     <t>Youssef Khalid</t>
   </si>
   <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
     <t>Weaam Alaa</t>
   </si>
   <si>
     <t>Adnan Fouad</t>
   </si>
   <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
     <t>Fatma El Gharably</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
     <t>Estefania Hany</t>
   </si>
   <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
     <t>Abdulrahman Suliman</t>
   </si>
   <si>
@@ -203,70 +203,52 @@
     <t>Fatma Ahmed</t>
   </si>
   <si>
-    <t>Joudi Moussa</t>
+    <t>Alaa Karam</t>
   </si>
   <si>
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
     <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
     <t>Mariam Mohamed</t>
   </si>
   <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
   </si>
   <si>
     <t>Anger Bagat</t>
   </si>
   <si>
-    <t>Thu</t>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
   <si>
     <t>Site</t>
@@ -284,21 +266,24 @@
     <t>Smart.V</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
     <t>Ziad Mohamed</t>
   </si>
   <si>
     <t>Hamdy Attia</t>
   </si>
   <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
     <t>Esraa Ibrahim</t>
   </si>
   <si>
@@ -306,9 +291,6 @@
   </si>
   <si>
     <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -667,18 +649,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -864,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -994,6 +976,47 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1049,6 +1072,19 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,7 +1242,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,34 +1254,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,88 +1415,115 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2001,10 +2064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2049,10 +2112,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2103,7 +2166,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2147,16 +2210,16 @@
       <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="39" t="s">
+      <c r="N3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2200,16 +2263,16 @@
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="39" t="s">
+      <c r="N4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2253,16 +2316,16 @@
       <c r="M5" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N5" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="39" t="s">
+      <c r="N5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2306,16 +2369,16 @@
       <c r="M6" s="12">
         <v>0.75</v>
       </c>
-      <c r="N6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+      <c r="N6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2359,16 +2422,16 @@
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2412,16 +2475,16 @@
       <c r="M8" s="12">
         <v>0.75</v>
       </c>
-      <c r="N8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="39" t="s">
+      <c r="N8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="49" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2465,16 +2528,16 @@
       <c r="M9" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="36" t="s">
+      <c r="N9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2518,20 +2581,20 @@
       <c r="M10" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:17">
+      <c r="N10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="9">
         <v>10282852</v>
       </c>
@@ -2571,16 +2634,16 @@
       <c r="M11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="36" t="s">
+      <c r="N11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2591,983 +2654,881 @@
       <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M12" s="16">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="16" spans="1:6">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="D12" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="16" spans="1:13">
+      <c r="A13" s="18">
+        <v>10295542</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="46">
+        <v>0.375</v>
+      </c>
+      <c r="M13" s="47">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" ht="15.25" spans="1:4">
+      <c r="A15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:4">
+      <c r="A16" s="24">
+        <v>10303715</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="24">
+        <v>10273387</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:4">
+      <c r="A18" s="24">
+        <v>10304629</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="25.75" spans="1:4">
+      <c r="A19" s="24">
+        <v>10323547</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:4">
+      <c r="A20" s="24">
+        <v>10326463</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:4">
+      <c r="A21" s="24">
+        <v>10327594</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22" s="24">
+        <v>10329943</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="24">
+        <v>10330510</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="24">
+        <v>10299934</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="24">
+        <v>10331157</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="24">
+        <v>10331475</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="24">
+        <v>10331785</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="24">
+        <v>10331787</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="24">
+        <v>10333385</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="24">
+        <v>10333416</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="27">
+        <v>10333417</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="24">
+        <v>10333396</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="28">
+        <v>10333426</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="29">
+        <v>10333432</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="29">
+        <v>10333435</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="24">
+        <v>10333437</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="25">
+        <v>10333439</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="29">
+        <v>10333436</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="24">
+        <v>10295541</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="24">
+        <v>10314762</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="25.75" spans="1:4">
+      <c r="A41" s="24">
+        <v>10326484</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="24">
+        <v>10327586</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="24">
+        <v>10327588</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D43" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="24">
+        <v>10329911</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D44" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="24">
+        <v>10331078</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D45" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="24">
+        <v>10282848</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="47" ht="25.75" spans="1:4">
+      <c r="A47" s="24">
+        <v>10324431</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D47" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="24">
+        <v>10331082</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="24">
+        <v>10332548</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="24">
+        <v>10332547</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="24">
+        <v>10332515</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="24">
+        <v>10332482</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="27">
+        <v>10332478</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="24">
+        <v>10332550</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="30"/>
+      <c r="B56" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:4">
-      <c r="A15" s="18">
-        <v>10303715</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.541666666666667</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="20">
-        <v>10273387</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="20">
-        <v>10304629</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="25.75" spans="1:5">
-      <c r="A18" s="20">
-        <v>10323547</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="20">
-        <v>10326463</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="20">
-        <v>10251309</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="20">
-        <v>10327594</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="20">
-        <v>10328665</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="20">
-        <v>10329943</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="20">
-        <v>10330510</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="20">
-        <v>10331475</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="20">
-        <v>10331785</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="20">
-        <v>10331787</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="20">
-        <v>10332567</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="20">
-        <v>10333385</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="20">
-        <v>10333416</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="21">
-        <v>10333417</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="20">
-        <v>10333396</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="22">
-        <v>10333426</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="23">
-        <v>10333432</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="23">
-        <v>10333435</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="18">
-        <v>10333437</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="20">
-        <v>10333439</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="23">
-        <v>10333436</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="19">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="20">
-        <v>10295541</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="20">
-        <v>10320445</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="25.75" spans="1:5">
-      <c r="A41" s="20">
-        <v>10326484</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="20">
-        <v>10327588</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D42" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="20">
-        <v>10329911</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="20">
-        <v>10330150</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="20">
-        <v>10299934</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="20">
-        <v>10332480</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D46" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="20">
-        <v>10331082</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="19">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="B57" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="35">
+        <v>45828</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="37">
+        <v>10237041</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="39">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" hidden="1" spans="1:4">
+      <c r="A59" s="37">
+        <v>10276035</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="39">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="37">
+        <v>10312258</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="39">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" ht="15.25" hidden="1" spans="1:4">
+      <c r="A61" s="37">
+        <v>10272473</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="39">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" hidden="1" spans="1:4">
+      <c r="A62" s="37">
+        <v>10254389</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" hidden="1" spans="1:4">
+      <c r="A63" s="37">
+        <v>10309113</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="39">
         <v>0.958333333333333</v>
       </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="20">
-        <v>10282848</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="D63" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" hidden="1" spans="1:4">
+      <c r="A64" s="37">
+        <v>10281108</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:5">
+      <c r="A65" s="37">
+        <v>10284489</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" ht="15.25" hidden="1" spans="1:4">
+      <c r="A66" s="37">
+        <v>10292718</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:4">
+      <c r="A67" s="37">
+        <v>10303779</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:4">
+      <c r="A68" s="37">
+        <v>10304619</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:4">
+      <c r="A69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:4">
+      <c r="A70" s="37">
+        <v>10326982</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="39">
         <v>0.583333333333333</v>
       </c>
-      <c r="D48" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="20">
-        <v>10314762</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="25.75" spans="1:5">
-      <c r="A50" s="20">
-        <v>10324431</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="20">
-        <v>10326502</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D51" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="20">
-        <v>10331077</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D52" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="20">
-        <v>10331078</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="20">
-        <v>10314749</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="20">
-        <v>10332557</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="20">
-        <v>10332544</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="20">
-        <v>10332517</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="20">
-        <v>10332681</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="18">
-        <v>10332555</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D59" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="21">
-        <v>10332478</v>
-      </c>
-      <c r="B60" s="18" t="s">
+      <c r="D70" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="19">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D60" s="19">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="26"/>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="29">
-        <v>45827</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="31">
-        <v>10237041</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:4">
-      <c r="A65" s="31">
-        <v>10276035</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" hidden="1" spans="1:4">
-      <c r="A66" s="31">
-        <v>10281108</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:4">
-      <c r="A67" s="31">
-        <v>10284489</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:4">
-      <c r="A68" s="31">
-        <v>10312258</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:5">
-      <c r="A69" s="31">
-        <v>10272473</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:4">
-      <c r="A70" s="31">
-        <v>10254389</v>
-      </c>
-      <c r="B70" s="32" t="s">
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="37">
+        <v>10224237</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:4">
-      <c r="A71" s="31">
-        <v>10292718</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" hidden="1" spans="1:4">
-      <c r="A72" s="31">
-        <v>10303779</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:4">
-      <c r="A73" s="31">
-        <v>10304619</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" hidden="1" spans="1:4">
-      <c r="A74" s="31">
-        <v>10309113</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" hidden="1" spans="1:4">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
-    </row>
-    <row r="76" ht="15.25" hidden="1" spans="1:4">
-      <c r="A76" s="31">
-        <v>10326982</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" hidden="1" spans="1:4">
-      <c r="A77" s="31">
-        <v>10224237</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>83</v>
-      </c>
+      <c r="C71" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A63:D77" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A57:D71" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$53:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$55:$D$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Details</t>
   </si>
@@ -110,15 +110,30 @@
     <t>To</t>
   </si>
   <si>
-    <t>Shimaa Mokhtar</t>
+    <t>Salah Elseesy</t>
   </si>
   <si>
     <t>Almoatazbellah Soliman</t>
   </si>
   <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
     <t>Sarah Hassan</t>
   </si>
   <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
     <t>Aya Ashraf</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t>Adnan Fouad</t>
   </si>
   <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
     <t>Estefania Hany</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>Passant Ahmed Samir</t>
   </si>
   <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
     <t>Mustafa Mohamed</t>
   </si>
   <si>
@@ -158,79 +167,73 @@
     <t>Afraa Hatim</t>
   </si>
   <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
     <t>Ibrahim Balla</t>
   </si>
   <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Mon</t>
+    <t>Tue</t>
   </si>
   <si>
     <t>Site</t>
@@ -248,31 +251,31 @@
     <t>5th.S</t>
   </si>
   <si>
+    <t>Youssef Amer</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
-    <t>Youssef Amer</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Maamoon Nabil</t>
@@ -372,21 +375,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1266,7 +1269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,13 +1336,25 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,13 +1402,13 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1934,10 +1949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1982,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2036,7 +2051,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2080,16 +2095,16 @@
       <c r="M3" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2133,16 +2148,16 @@
       <c r="M4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2186,16 +2201,16 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2239,16 +2254,16 @@
       <c r="M6" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2292,16 +2307,16 @@
       <c r="M7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2345,16 +2360,16 @@
       <c r="M8" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="Q8" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2366,7 +2381,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" ht="15.25" spans="1:5">
+    <row r="10" ht="15.25" spans="1:4">
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
@@ -2379,11 +2394,10 @@
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" ht="15.25" spans="1:5">
+    </row>
+    <row r="11" ht="15.25" spans="1:4">
       <c r="A11" s="19">
-        <v>10303715</v>
+        <v>10318450</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>26</v>
@@ -2394,10 +2408,9 @@
       <c r="D11" s="21">
         <v>0.708333333333333</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="19">
+    </row>
+    <row r="12" ht="15.25" spans="1:4">
+      <c r="A12" s="22">
         <v>10299512</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2409,833 +2422,836 @@
       <c r="D12" s="21">
         <v>0.958333333333333</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="19">
+    </row>
+    <row r="13" ht="15.25" spans="1:4">
+      <c r="A13" s="23">
+        <v>10273387</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:4">
+      <c r="A14" s="23">
+        <v>10295541</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:4">
+      <c r="A15" s="23">
+        <v>10314762</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:4">
+      <c r="A16" s="23">
         <v>10304629</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="25">
         <v>0.333333333333333</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D16" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="25.75" spans="1:4">
+      <c r="A17" s="23">
+        <v>10323547</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:4">
+      <c r="A18" s="23">
+        <v>10326463</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19" s="23">
+        <v>10251309</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:4">
+      <c r="A20" s="23">
+        <v>10328665</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:4">
+      <c r="A21" s="23">
+        <v>10328658</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22" s="23">
+        <v>10330149</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="23">
+        <v>10330510</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="23">
+        <v>10331787</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="23">
+        <v>10333385</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="23">
+        <v>10333416</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="26">
+        <v>10333432</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="23">
+        <v>10333435</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="23">
+        <v>10333437</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="23">
+        <v>10320448</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="25.75" spans="1:4">
+      <c r="A31" s="23">
+        <v>10324431</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="23">
+        <v>10327586</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="24">
+        <v>10330150</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="23">
+        <v>10331785</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="23">
+        <v>10326502</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D35" s="25">
         <v>0.958333333333333</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="19">
-        <v>10251309</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21">
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="23">
+        <v>10331082</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="23">
+        <v>10331077</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="23">
+        <v>10314749</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="23">
+        <v>10332557</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="23">
+        <v>10332544</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="23">
+        <v>10332517</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="23">
+        <v>10332480</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="23">
+        <v>10332681</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="23">
+        <v>10332567</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="23">
+        <v>10332555</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D45" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="23">
+        <v>10332548</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="23">
+        <v>10332547</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="23">
+        <v>10332515</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="23">
+        <v>10332478</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="27">
+        <v>10332550</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="23">
+        <v>10333439</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="28"/>
+      <c r="B54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="30"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="33">
+        <v>45832</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" ht="15.25" hidden="1" spans="1:5">
+      <c r="A56" s="35">
+        <v>10276035</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="37">
         <v>0.333333333333333</v>
       </c>
-      <c r="D14" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="19">
-        <v>10328665</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="D56" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="35">
+        <v>10304619</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="37">
         <v>0.333333333333333</v>
       </c>
-      <c r="D15" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="19">
-        <v>10328658</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="19">
-        <v>10330149</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="19">
-        <v>10330510</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="19">
-        <v>10299934</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="19">
-        <v>10331787</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="19">
-        <v>10333385</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="19">
-        <v>10333416</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="19">
-        <v>10333417</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="22">
-        <v>10333432</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="19">
-        <v>10333435</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="19">
-        <v>10333437</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="19">
-        <v>10333439</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="19">
-        <v>10314762</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="D57" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" ht="15.25" hidden="1" spans="1:5">
+      <c r="A58" s="35">
+        <v>10245223</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="37">
         <v>0.458333333333333</v>
       </c>
-      <c r="D28" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="19">
-        <v>10320448</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="D58" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" ht="15.25" hidden="1" spans="1:5">
+      <c r="A59" s="35">
+        <v>10284489</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="37">
         <v>0.458333333333333</v>
       </c>
-      <c r="D29" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="25.75" spans="1:5">
-      <c r="A30" s="19">
-        <v>10326484</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="19">
-        <v>10327586</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="19">
-        <v>10330150</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="19">
-        <v>10282848</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="D59" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" ht="15.25" hidden="1" spans="1:5">
+      <c r="A60" s="35">
+        <v>10272473</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="37">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="35">
+        <v>10237041</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D33" s="21">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="19">
-        <v>10326502</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="D61" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" ht="15.25" hidden="1" spans="1:5">
+      <c r="A62" s="35">
+        <v>10281108</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="37">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" ht="15.25" hidden="1" spans="1:5">
+      <c r="A63" s="35">
+        <v>10292718</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="37">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" ht="15.25" hidden="1" spans="1:5">
+      <c r="A64" s="35">
+        <v>10303779</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:5">
+      <c r="A65" s="35">
+        <v>10309113</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="37">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="35">
+        <v>10312258</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66"/>
+    </row>
+    <row r="67" ht="15.25" hidden="1" spans="1:5">
+      <c r="A67" s="35">
+        <v>10254389</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:5">
+      <c r="A68" s="35">
+        <v>10303751</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:4">
+      <c r="A69" s="35">
+        <v>10307947</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:4">
+      <c r="A70" s="44"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="46"/>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:4">
+      <c r="A71" s="35">
+        <v>10326982</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D34" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="19">
-        <v>10331082</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="19">
-        <v>10331077</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="19">
-        <v>10314749</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="19">
-        <v>10332557</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="19">
-        <v>10332544</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="19">
-        <v>10332517</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="19">
-        <v>10332480</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D41" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="19">
-        <v>10332681</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D42" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="19">
-        <v>10332567</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="19">
-        <v>10332555</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="19">
-        <v>10332548</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D45" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="19">
-        <v>10332547</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D46" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="19">
-        <v>10332515</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="19">
-        <v>10332482</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="19">
-        <v>10332478</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="23">
-        <v>10332550</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" ht="15.25"/>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="26"/>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="29">
-        <v>45831</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" hidden="1" spans="1:4">
-      <c r="A54" s="31">
-        <v>10276035</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="31">
-        <v>10304619</v>
-      </c>
-      <c r="B55" s="32" t="s">
+      <c r="D71" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="31">
-        <v>10237041</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" hidden="1" spans="1:4">
-      <c r="A57" s="31">
-        <v>10245223</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" hidden="1" spans="1:4">
-      <c r="A58" s="31">
-        <v>10284489</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" hidden="1" spans="1:4">
-      <c r="A59" s="31">
-        <v>10272473</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="33">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="31">
-        <v>10312258</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" hidden="1" spans="1:4">
-      <c r="A61" s="31">
-        <v>10281108</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="33">
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:4">
+      <c r="A72" s="35">
+        <v>10224237</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="37">
         <v>0.666666666666667</v>
       </c>
-      <c r="D61" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" hidden="1" spans="1:4">
-      <c r="A62" s="31">
-        <v>10292718</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" hidden="1" spans="1:4">
-      <c r="A63" s="31">
-        <v>10303779</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" hidden="1" spans="1:4">
-      <c r="A64" s="31">
-        <v>10309113</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="33">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:4">
-      <c r="A65" s="31">
-        <v>10254389</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" hidden="1" spans="1:4">
-      <c r="A66" s="31">
-        <v>10303751</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:4">
-      <c r="A67" s="31">
-        <v>10307947</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:4">
-      <c r="A68" s="40"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="42"/>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:4">
-      <c r="A69" s="31">
-        <v>10326982</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:4">
-      <c r="A70" s="31">
-        <v>10224237</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="33">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>69</v>
+      <c r="D72" s="38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A53:D70" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A55:D72" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$55:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$53:$D$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +110,7 @@
     <t>To</t>
   </si>
   <si>
-    <t>Salah Elseesy</t>
+    <t>Salma Yasser</t>
   </si>
   <si>
     <t>Almoatazbellah Soliman</t>
@@ -119,87 +119,99 @@
     <t>Rawya Alor Biong</t>
   </si>
   <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
     <t>Fatma Ahmed</t>
   </si>
   <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Abdulrahman Suliman</t>
-  </si>
-  <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mustafa Mohamed</t>
-  </si>
-  <si>
-    <t>Maher Ali Dahab</t>
-  </si>
-  <si>
-    <t>Afraa Hatim</t>
-  </si>
-  <si>
     <t>Donia Elbanan</t>
   </si>
   <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
+    <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Hossam Elamin</t>
   </si>
   <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
     <t>Mohamed Mamdouh</t>
   </si>
   <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
     <t>Fady Naser</t>
   </si>
   <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
     <t>Lina Essam</t>
   </si>
   <si>
     <t>Osama Attia</t>
   </si>
   <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
     <t>Abdullah Haroon</t>
   </si>
   <si>
@@ -215,25 +227,10 @@
     <t>Hady Adel</t>
   </si>
   <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
     <t>Zaki Elrefaie</t>
   </si>
   <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Ibrahim Balla</t>
-  </si>
-  <si>
-    <t>Tue</t>
+    <t>Wed</t>
   </si>
   <si>
     <t>Site</t>
@@ -263,31 +260,34 @@
     <t>Abdelrahman Nehad</t>
   </si>
   <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
     <t>Ziad Mohamed</t>
   </si>
   <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
     <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Ahmed Samir</t>
   </si>
   <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
     <t>Eman Taha</t>
+  </si>
+  <si>
+    <t>AN</t>
   </si>
   <si>
     <t>Kareem Tarek</t>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,20 +376,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF073763"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -423,6 +423,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -567,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,55 +1153,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,74 +1213,77 @@
     <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,22 +1353,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,14 +1407,17 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1949,10 +1957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1997,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="39"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2051,7 +2059,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2095,16 +2103,16 @@
       <c r="M3" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2130,11 +2138,11 @@
       <c r="G4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="H4" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.708333333333333</v>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="12">
         <v>0.333333333333333</v>
@@ -2148,16 +2156,16 @@
       <c r="M4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2201,16 +2209,16 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2254,16 +2262,16 @@
       <c r="M6" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2307,16 +2315,16 @@
       <c r="M7" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2360,16 +2368,16 @@
       <c r="M8" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2397,7 +2405,7 @@
     </row>
     <row r="11" ht="15.25" spans="1:4">
       <c r="A11" s="19">
-        <v>10318450</v>
+        <v>10254544</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>26</v>
@@ -2424,834 +2432,845 @@
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>10273387</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="C13" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="23">
-        <v>10295541</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="19">
+        <v>10314762</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="C14" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:4">
-      <c r="A15" s="23">
-        <v>10314762</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="19">
+        <v>10304629</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:4">
-      <c r="A16" s="23">
-        <v>10304629</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C15" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="25.75" spans="1:4">
+      <c r="A16" s="19">
+        <v>10323547</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="25.75" spans="1:4">
-      <c r="A17" s="23">
-        <v>10323547</v>
-      </c>
-      <c r="B17" s="24" t="s">
+      <c r="C16" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:4">
+      <c r="A17" s="19">
+        <v>10326463</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="C17" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D17" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="23">
-        <v>10326463</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="19">
+        <v>10251309</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C18" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D18" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:4">
-      <c r="A19" s="23">
-        <v>10251309</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="19">
+        <v>10328665</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="C19" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D19" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="23">
-        <v>10328665</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="19">
+        <v>10328658</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="C20" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D20" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="23">
-        <v>10328658</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="19">
+        <v>10329911</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="C21" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D21" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="23">
+      <c r="A22" s="19">
         <v>10330149</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="C22" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="21">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="23">
+      <c r="A23" s="19">
+        <v>10329943</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="19">
         <v>10330510</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:4">
-      <c r="A24" s="23">
+      <c r="B24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="19">
+        <v>10299934</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="19">
+        <v>10331157</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="19">
+        <v>10331475</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="19">
+        <v>10331785</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="19">
         <v>10331787</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="23">
+      <c r="B29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="19">
         <v>10333385</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="23">
-        <v>10333416</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="26">
-        <v>10333432</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="23">
-        <v>10333435</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="23">
-        <v>10333437</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="25">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="23">
-        <v>10320448</v>
-      </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="25.75" spans="1:4">
+      <c r="C30" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
       <c r="A31" s="23">
-        <v>10324431</v>
-      </c>
-      <c r="B31" s="24" t="s">
+        <v>10333396</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0.833333333333333</v>
+      <c r="C31" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="23">
-        <v>10327586</v>
-      </c>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="19">
+        <v>10333426</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D32" s="25">
-        <v>0.833333333333333</v>
+      <c r="C32" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:4">
       <c r="A33" s="24">
+        <v>10333432</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="19">
+        <v>10333435</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="19">
+        <v>10333436</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="19">
+        <v>10295541</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="19">
+        <v>10320448</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="19">
+        <v>10327588</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="19">
         <v>10330150</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="25">
+      <c r="B39" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="21">
         <v>0.458333333333333</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D39" s="21">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="23">
-        <v>10331785</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="25">
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="19">
+        <v>10326502</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="19">
+        <v>10331077</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="19">
+        <v>10331078</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="19">
+        <v>10314749</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="19">
+        <v>10332557</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="19">
+        <v>10332517</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="19">
+        <v>10332480</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="19">
+        <v>10332681</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="19">
+        <v>10332567</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="19">
+        <v>10332555</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="19">
+        <v>10332515</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="27"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="30">
+        <v>45833</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" ht="15.25" hidden="1" spans="1:5">
+      <c r="A54" s="32">
+        <v>10276035</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="34">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="32">
+        <v>10304619</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="34">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" ht="15.25" hidden="1" spans="1:5">
+      <c r="A56" s="32">
+        <v>10245223</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="34">
         <v>0.458333333333333</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D56" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" ht="15.25" hidden="1" spans="1:5">
+      <c r="A57" s="32">
+        <v>10284489</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" ht="15.25" hidden="1" spans="1:5">
+      <c r="A58" s="32">
+        <v>10272473</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="34">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="32">
+        <v>10237041</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="34">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" ht="15.25" hidden="1" spans="1:5">
+      <c r="A60" s="32">
+        <v>10303751</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" ht="15.25" hidden="1" spans="1:5">
+      <c r="A61" s="32">
+        <v>10307947</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" ht="15.25" hidden="1" spans="1:5">
+      <c r="A62" s="32">
+        <v>10292718</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="34">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" ht="15.25" hidden="1" spans="1:5">
+      <c r="A63" s="32">
+        <v>10254389</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" ht="15.25" hidden="1" spans="1:5">
+      <c r="A64" s="32">
+        <v>10303779</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="34">
         <v>0.833333333333333</v>
       </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="23">
-        <v>10326502</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D35" s="25">
+      <c r="D64" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" ht="15.25" hidden="1" spans="1:5">
+      <c r="A65" s="32">
+        <v>10281108</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="34">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="23">
-        <v>10331082</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D36" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="23">
-        <v>10331077</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D37" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="23">
-        <v>10314749</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D38" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="23">
-        <v>10332557</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D39" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="23">
-        <v>10332544</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D40" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="23">
-        <v>10332517</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D41" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="23">
-        <v>10332480</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D42" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="23">
-        <v>10332681</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D43" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="23">
-        <v>10332567</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D44" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="23">
-        <v>10332555</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D45" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="23">
-        <v>10332548</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D46" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="23">
-        <v>10332547</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D47" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="23">
-        <v>10332515</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D48" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="23">
-        <v>10332478</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="27">
-        <v>10332550</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D50" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="23">
-        <v>10333439</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D51" s="25">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="30"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="33">
-        <v>45832</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" ht="15.25" hidden="1" spans="1:5">
-      <c r="A56" s="35">
-        <v>10276035</v>
-      </c>
-      <c r="B56" s="36" t="s">
+      <c r="D65" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="35">
-        <v>10304619</v>
-      </c>
-      <c r="B57" s="36" t="s">
+      <c r="E65"/>
+    </row>
+    <row r="66" ht="15.25" hidden="1" spans="1:5">
+      <c r="A66" s="32">
+        <v>10309113</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66"/>
+    </row>
+    <row r="67" ht="15.25" spans="1:5">
+      <c r="A67" s="32">
+        <v>10312258</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" ht="15.25" hidden="1" spans="1:5">
-      <c r="A58" s="35">
-        <v>10245223</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="37">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" ht="15.25" hidden="1" spans="1:5">
-      <c r="A59" s="35">
-        <v>10284489</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="37">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" ht="15.25" hidden="1" spans="1:5">
-      <c r="A60" s="35">
-        <v>10272473</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="37">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="35">
-        <v>10237041</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" ht="15.25" hidden="1" spans="1:5">
-      <c r="A62" s="35">
-        <v>10281108</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="37">
+      <c r="E67"/>
+    </row>
+    <row r="68" ht="15.25" hidden="1" spans="1:5">
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" ht="15.25" hidden="1" spans="1:5">
+      <c r="A69" s="32">
+        <v>10326982</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" ht="15.25" hidden="1" spans="1:5">
+      <c r="A70" s="32">
+        <v>10224237</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="34">
         <v>0.666666666666667</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" ht="15.25" hidden="1" spans="1:5">
-      <c r="A63" s="35">
-        <v>10292718</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" ht="15.25" hidden="1" spans="1:5">
-      <c r="A64" s="35">
-        <v>10303779</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:5">
-      <c r="A65" s="35">
-        <v>10309113</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="35">
-        <v>10312258</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:5">
-      <c r="A67" s="35">
-        <v>10254389</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:5">
-      <c r="A68" s="35">
-        <v>10303751</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:4">
-      <c r="A69" s="35">
-        <v>10307947</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:4">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="46"/>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:4">
-      <c r="A71" s="35">
-        <v>10326982</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" hidden="1" spans="1:4">
-      <c r="A72" s="35">
-        <v>10224237</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>70</v>
-      </c>
+      <c r="D70" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A55:D72" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A53:D70" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$53:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$54:$D$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Details</t>
   </si>
@@ -110,7 +110,7 @@
     <t>To</t>
   </si>
   <si>
-    <t>Salma Yasser</t>
+    <t>Shimaa Mokhtar</t>
   </si>
   <si>
     <t>Almoatazbellah Soliman</t>
@@ -119,88 +119,88 @@
     <t>Rawya Alor Biong</t>
   </si>
   <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
     <t>Alaa Karam</t>
   </si>
   <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
     <t>Abdelrahman Ibraheem</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Abdulrahman Suliman</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
-    <t>Mustafa Mohamed</t>
-  </si>
-  <si>
-    <t>Maher Ali Dahab</t>
-  </si>
-  <si>
-    <t>Aisha Mohammed</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
     <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Hossam Elamin</t>
   </si>
   <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
   </si>
   <si>
     <t>Mahmoud Kamel</t>
@@ -227,10 +227,13 @@
     <t>Hady Adel</t>
   </si>
   <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Wed</t>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Thu</t>
   </si>
   <si>
     <t>Site</t>
@@ -254,6 +257,9 @@
     <t>Hamdy Attia</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
     <t>Mohamed Younes</t>
   </si>
   <si>
@@ -272,16 +278,13 @@
     <t>Maamoon Nabil</t>
   </si>
   <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
     <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -1356,7 +1359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,10 +1960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:C59"/>
+      <selection activeCell="A56" sqref="A56:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="11" ht="15.25" spans="1:4">
       <c r="A11" s="19">
-        <v>10254544</v>
+        <v>10303715</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>26</v>
@@ -2447,7 +2450,7 @@
     </row>
     <row r="14" ht="15.25" spans="1:4">
       <c r="A14" s="19">
-        <v>10314762</v>
+        <v>10295541</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>29</v>
@@ -2473,9 +2476,9 @@
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="16" ht="25.75" spans="1:4">
+    <row r="16" ht="15.25" spans="1:4">
       <c r="A16" s="19">
-        <v>10323547</v>
+        <v>10251309</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>31</v>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="17" ht="15.25" spans="1:4">
       <c r="A17" s="19">
-        <v>10326463</v>
+        <v>10326502</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>32</v>
@@ -2503,7 +2506,7 @@
     </row>
     <row r="18" ht="15.25" spans="1:4">
       <c r="A18" s="19">
-        <v>10251309</v>
+        <v>10327594</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>33</v>
@@ -2559,7 +2562,7 @@
     </row>
     <row r="22" ht="15.25" spans="1:4">
       <c r="A22" s="19">
-        <v>10330149</v>
+        <v>10329943</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>37</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="23" ht="15.25" spans="1:4">
       <c r="A23" s="19">
-        <v>10329943</v>
+        <v>10330510</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>38</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="24" ht="15.25" spans="1:4">
       <c r="A24" s="19">
-        <v>10330510</v>
+        <v>10299934</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>39</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="25" ht="15.25" spans="1:4">
       <c r="A25" s="19">
-        <v>10299934</v>
+        <v>10331082</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>40</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="26" ht="15.25" spans="1:4">
       <c r="A26" s="19">
-        <v>10331157</v>
+        <v>10331077</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>41</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="27" ht="15.25" spans="1:4">
       <c r="A27" s="19">
-        <v>10331475</v>
+        <v>10331157</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>42</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="28" ht="15.25" spans="1:4">
       <c r="A28" s="19">
-        <v>10331785</v>
+        <v>10331475</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>43</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="29" ht="15.25" spans="1:4">
       <c r="A29" s="19">
-        <v>10331787</v>
+        <v>10331785</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -2671,7 +2674,7 @@
     </row>
     <row r="30" ht="15.25" spans="1:4">
       <c r="A30" s="19">
-        <v>10333385</v>
+        <v>10331787</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>45</v>
@@ -2684,8 +2687,8 @@
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="23">
-        <v>10333396</v>
+      <c r="A31" s="19">
+        <v>10333417</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>46</v>
@@ -2698,8 +2701,8 @@
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="19">
-        <v>10333426</v>
+      <c r="A32" s="23">
+        <v>10333396</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -2712,8 +2715,8 @@
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="24">
-        <v>10333432</v>
+      <c r="A33" s="20">
+        <v>10333426</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -2726,8 +2729,8 @@
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="19">
-        <v>10333435</v>
+      <c r="A34" s="24">
+        <v>10333432</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>49</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="36" ht="15.25" spans="1:4">
       <c r="A36" s="19">
-        <v>10295541</v>
+        <v>10314762</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -2769,7 +2772,7 @@
     </row>
     <row r="37" ht="15.25" spans="1:4">
       <c r="A37" s="19">
-        <v>10320448</v>
+        <v>10326463</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>52</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="40" ht="15.25" spans="1:4">
       <c r="A40" s="19">
-        <v>10326502</v>
+        <v>10282848</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>55</v>
@@ -2820,12 +2823,12 @@
         <v>0.583333333333333</v>
       </c>
       <c r="D40" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="41" ht="25.75" spans="1:4">
       <c r="A41" s="19">
-        <v>10331077</v>
+        <v>10326484</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -2951,7 +2954,7 @@
     </row>
     <row r="50" ht="15.25" spans="1:4">
       <c r="A50" s="19">
-        <v>10332515</v>
+        <v>10332548</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>65</v>
@@ -2963,85 +2966,84 @@
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="19">
+        <v>10332482</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.958333333333333</v>
+      </c>
     </row>
     <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="27"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B54" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="30">
-        <v>45833</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="15.25" hidden="1" spans="1:5">
-      <c r="A54" s="32">
+      <c r="C54" s="30">
+        <v>45834</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" ht="15.25" hidden="1" spans="1:5">
+      <c r="A55" s="32">
         <v>10276035</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="B55" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="32">
+      <c r="C55" s="34">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="32">
         <v>10304619</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" ht="15.25" hidden="1" spans="1:5">
-      <c r="A56" s="32">
-        <v>10245223</v>
-      </c>
-      <c r="B56" s="33" t="s">
+      <c r="C56" s="34">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="C56" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="E56"/>
     </row>
     <row r="57" ht="15.25" hidden="1" spans="1:5">
       <c r="A57" s="32">
-        <v>10284489</v>
+        <v>10245223</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>73</v>
@@ -3050,148 +3052,148 @@
         <v>0.458333333333333</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57"/>
     </row>
     <row r="58" ht="15.25" hidden="1" spans="1:5">
       <c r="A58" s="32">
-        <v>10272473</v>
+        <v>10284489</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="34">
-        <v>0.541666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58"/>
     </row>
     <row r="59" ht="15.25" spans="1:5">
       <c r="A59" s="32">
-        <v>10237041</v>
+        <v>10312258</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="34">
-        <v>0.583333333333333</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E59"/>
     </row>
     <row r="60" ht="15.25" hidden="1" spans="1:5">
       <c r="A60" s="32">
-        <v>10303751</v>
+        <v>10272473</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C60" s="34">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" ht="15.25" hidden="1" spans="1:5">
+    <row r="61" ht="15.25" spans="1:5">
       <c r="A61" s="32">
-        <v>10307947</v>
+        <v>10237041</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C61" s="34">
-        <v>0.625</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E61"/>
     </row>
     <row r="62" ht="15.25" hidden="1" spans="1:5">
       <c r="A62" s="32">
-        <v>10292718</v>
+        <v>10303751</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="34">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="63" ht="15.25" hidden="1" spans="1:5">
       <c r="A63" s="32">
-        <v>10254389</v>
+        <v>10307947</v>
       </c>
       <c r="B63" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C63" s="34">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64" ht="15.25" hidden="1" spans="1:5">
       <c r="A64" s="32">
-        <v>10303779</v>
+        <v>10292718</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C64" s="34">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65" ht="15.25" hidden="1" spans="1:5">
       <c r="A65" s="32">
-        <v>10281108</v>
+        <v>10254389</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C65" s="34">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65"/>
     </row>
     <row r="66" ht="15.25" hidden="1" spans="1:5">
       <c r="A66" s="32">
-        <v>10309113</v>
+        <v>10281108</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="40" t="s">
-        <v>16</v>
+      <c r="C66" s="34">
+        <v>0.958333333333333</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" ht="15.25" spans="1:5">
+    <row r="67" ht="15.25" hidden="1" spans="1:5">
       <c r="A67" s="32">
-        <v>10312258</v>
+        <v>10303779</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>83</v>
@@ -3200,52 +3202,60 @@
         <v>16</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67"/>
     </row>
     <row r="68" ht="15.25" hidden="1" spans="1:5">
-      <c r="A68" s="41"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="32">
+        <v>10309113</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="E68"/>
     </row>
     <row r="69" ht="15.25" hidden="1" spans="1:5">
-      <c r="A69" s="32">
-        <v>10326982</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>69</v>
-      </c>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
       <c r="E69"/>
     </row>
     <row r="70" ht="15.25" hidden="1" spans="1:5">
       <c r="A70" s="32">
+        <v>10326982</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" ht="15.25" hidden="1" spans="1:5">
+      <c r="A71" s="32">
         <v>10224237</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="34">
+      <c r="B71" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="34">
         <v>0.666666666666667</v>
       </c>
-      <c r="D70" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
+      <c r="D71" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5">
@@ -3255,22 +3265,8 @@
       <c r="D72"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A53:D70" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A54:D71" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$54:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>Details</t>
   </si>
@@ -101,9 +101,72 @@
     <t>Karim Hendi</t>
   </si>
   <si>
+    <t>Fri</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Youssef Amer</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Eman Taha</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Kareem Tarek</t>
+  </si>
+  <si>
     <t>From</t>
   </si>
   <si>
@@ -113,118 +176,100 @@
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
+    <t>Salah Elseesy</t>
+  </si>
+  <si>
     <t>Almoatazbellah Soliman</t>
   </si>
   <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
     <t>Rawya Alor Biong</t>
   </si>
   <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
     <t>Fatma Ahmed</t>
   </si>
   <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
+    <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Maya Mahdy</t>
   </si>
   <si>
     <t>Hadya Waheed</t>
   </si>
   <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
-    <t>Mustafa Mohamed</t>
-  </si>
-  <si>
-    <t>Aisha Mohammed</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
     <t>Esraa mohamed</t>
   </si>
   <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
   </si>
   <si>
     <t>Huda Ezz</t>
@@ -233,67 +278,10 @@
     <t>Aldur Alsafy</t>
   </si>
   <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Youssef Amer</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Eman Taha</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>Kareem Tarek</t>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
   </si>
 </sst>
 </file>
@@ -308,7 +296,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,32 +353,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -434,6 +396,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -617,54 +599,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF741B47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -850,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -950,6 +932,21 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -971,8 +968,32 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -985,11 +1006,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,137 +1175,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,88 +1358,97 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1960,10 +1988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2008,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2062,7 +2090,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="46" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2106,16 +2134,16 @@
       <c r="M3" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2159,16 +2187,16 @@
       <c r="M4" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2212,16 +2240,16 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2265,16 +2293,16 @@
       <c r="M6" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2313,21 +2341,21 @@
         <v>0.833333333333333</v>
       </c>
       <c r="L7" s="12">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="M7" s="12">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N7" s="37" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="N7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2369,22 +2397,22 @@
         <v>0.333333333333333</v>
       </c>
       <c r="M8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N8" s="37" t="s">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="15.25" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -2392,885 +2420,906 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" ht="15.25" spans="1:4">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C12" s="22">
+        <v>45835</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24">
+        <v>10312258</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" hidden="1" spans="1:5">
+      <c r="A14" s="24">
+        <v>10276035</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" hidden="1" spans="1:5">
+      <c r="A15" s="24">
+        <v>10245223</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" hidden="1" spans="1:5">
+      <c r="A16" s="24">
+        <v>10272473</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="24">
+        <v>10237041</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" hidden="1" spans="1:5">
+      <c r="A18" s="24">
+        <v>10303751</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" hidden="1" spans="1:5">
+      <c r="A19" s="24">
+        <v>10307947</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" hidden="1" spans="1:5">
+      <c r="A20" s="24">
+        <v>10254389</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" hidden="1" spans="1:5">
+      <c r="A21" s="24">
+        <v>10309113</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="24">
+        <v>10304619</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" hidden="1" spans="1:5">
+      <c r="A23" s="24">
+        <v>10303779</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" hidden="1" spans="1:5">
+      <c r="A24" s="24">
+        <v>10284489</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" hidden="1" spans="1:5">
+      <c r="A25" s="24">
+        <v>10292718</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" hidden="1" spans="1:5">
+      <c r="A26" s="24">
+        <v>10281108</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" hidden="1" spans="1:5">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" hidden="1" spans="1:5">
+      <c r="A28" s="24">
+        <v>10326982</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" hidden="1" spans="1:5">
+      <c r="A29" s="24">
+        <v>10224237</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="19">
+      <c r="B40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="35">
         <v>10303715</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="B41" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="37">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="22">
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="35">
+        <v>10318450</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D42" s="37">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="38">
         <v>10299512</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B43" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D43" s="37">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="19">
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="39">
+        <v>10304629</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D44" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="39">
         <v>10273387</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="B45" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D45" s="41">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="19">
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="39">
+        <v>10330510</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="39">
+        <v>10299934</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D47" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="25.75" spans="1:4">
+      <c r="A48" s="39">
+        <v>10323547</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D48" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="39">
+        <v>10326463</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D49" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="39">
+        <v>10331787</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D50" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="39">
+        <v>10327594</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D51" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="39">
+        <v>10333416</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D52" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="39">
+        <v>10333417</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D53" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="39">
+        <v>10333437</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="39">
+        <v>10333439</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D55" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="39">
+        <v>10314762</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D56" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="39">
+        <v>10329943</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D57" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="39">
+        <v>10331157</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D58" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="39">
+        <v>10331078</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D59" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:4">
+      <c r="A60" s="39">
+        <v>10331475</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D60" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="39">
+        <v>10333396</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D61" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="42">
+        <v>10333426</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D62" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:4">
+      <c r="A63" s="39">
+        <v>10333436</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D63" s="41">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:4">
+      <c r="A64" s="43">
         <v>10295541</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:4">
-      <c r="A15" s="19">
-        <v>10304629</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="1:4">
-      <c r="A16" s="19">
-        <v>10251309</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="19">
-        <v>10326502</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="19">
-        <v>10327594</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:4">
-      <c r="A19" s="19">
-        <v>10328665</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="19">
-        <v>10328658</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="19">
+      <c r="B64" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D64" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:4">
+      <c r="A65" s="39">
+        <v>10327588</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D65" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:4">
+      <c r="A66" s="39">
         <v>10329911</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="19">
-        <v>10329943</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="19">
-        <v>10330510</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:4">
-      <c r="A24" s="19">
-        <v>10299934</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="19">
-        <v>10331082</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="19">
-        <v>10331077</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="19">
-        <v>10331157</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="19">
-        <v>10331475</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="19">
+      <c r="B66" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D66" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="67" ht="25.75" spans="1:4">
+      <c r="A67" s="39">
+        <v>10326484</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D67" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:4">
+      <c r="A68" s="39">
+        <v>10327586</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D68" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:4">
+      <c r="A69" s="39">
+        <v>10314812</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D69" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="39">
+        <v>10314812</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D70" s="41">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="1:4">
+      <c r="A71" s="39">
         <v>10331785</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="19">
-        <v>10331787</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="19">
-        <v>10333417</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="23">
-        <v>10333396</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="20">
-        <v>10333426</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="24">
-        <v>10333432</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="19">
-        <v>10333436</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="19">
-        <v>10314762</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="19">
-        <v>10326463</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="19">
-        <v>10327588</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="19">
-        <v>10330150</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="19">
+      <c r="B71" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="41">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D71" s="41">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:4">
+      <c r="A72" s="39">
         <v>10282848</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B72" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D72" s="41">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="41" ht="25.75" spans="1:4">
-      <c r="A41" s="19">
-        <v>10326484</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="21">
+    <row r="73" ht="25.75" spans="1:4">
+      <c r="A73" s="39">
+        <v>10324431</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D73" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="19">
-        <v>10331078</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="21">
+    <row r="74" ht="15.25" spans="1:4">
+      <c r="A74" s="39">
+        <v>10332544</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D74" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="19">
-        <v>10314749</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="21">
+    <row r="75" ht="15.25" spans="1:4">
+      <c r="A75" s="39">
+        <v>10332548</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D75" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="19">
-        <v>10332557</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="21">
+    <row r="76" ht="15.25" spans="1:4">
+      <c r="A76" s="39">
+        <v>10332482</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D76" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="19">
-        <v>10332517</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="21">
+    <row r="77" ht="15.25" spans="1:4">
+      <c r="A77" s="39">
+        <v>10332478</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D77" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="19">
-        <v>10332480</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="21">
+    <row r="78" ht="15.25" spans="1:4">
+      <c r="A78" s="39">
+        <v>10332550</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D78" s="41">
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="19">
-        <v>10332681</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="19">
-        <v>10332567</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="19">
-        <v>10332555</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="19">
-        <v>10332548</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="19">
-        <v>10332482</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D51" s="21">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="27"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="30">
-        <v>45834</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" ht="15.25" hidden="1" spans="1:5">
-      <c r="A55" s="32">
-        <v>10276035</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="32">
-        <v>10304619</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="34">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" ht="15.25" hidden="1" spans="1:5">
-      <c r="A57" s="32">
-        <v>10245223</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" ht="15.25" hidden="1" spans="1:5">
-      <c r="A58" s="32">
-        <v>10284489</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="32">
-        <v>10312258</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="34">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" ht="15.25" hidden="1" spans="1:5">
-      <c r="A60" s="32">
-        <v>10272473</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="32">
-        <v>10237041</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="34">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" ht="15.25" hidden="1" spans="1:5">
-      <c r="A62" s="32">
-        <v>10303751</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="34">
-        <v>0.625</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" ht="15.25" hidden="1" spans="1:5">
-      <c r="A63" s="32">
-        <v>10307947</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="34">
-        <v>0.625</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" ht="15.25" hidden="1" spans="1:5">
-      <c r="A64" s="32">
-        <v>10292718</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="34">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" ht="15.25" hidden="1" spans="1:5">
-      <c r="A65" s="32">
-        <v>10254389</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" ht="15.25" hidden="1" spans="1:5">
-      <c r="A66" s="32">
-        <v>10281108</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="34">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" ht="15.25" hidden="1" spans="1:5">
-      <c r="A67" s="32">
-        <v>10303779</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" ht="15.25" hidden="1" spans="1:5">
-      <c r="A68" s="32">
-        <v>10309113</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" ht="15.25" hidden="1" spans="1:5">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
-      <c r="E69"/>
-    </row>
-    <row r="70" ht="15.25" hidden="1" spans="1:5">
-      <c r="A70" s="32">
-        <v>10326982</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" ht="15.25" hidden="1" spans="1:5">
-      <c r="A71" s="32">
-        <v>10224237</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="34">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A54:D71" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:D29" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
-      <filters>
-        <filter val="5th.S"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="5th.S"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$32:$D$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,30 +30,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="133">
   <si>
     <t>Details</t>
   </si>
   <si>
-    <t>Monday, June 23, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 24, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 25, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 26, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 27, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 28, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 29, 2025</t>
+    <t>Monday, June 30, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 1, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, July 2, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, July 3, 2025</t>
+  </si>
+  <si>
+    <t>Friday, July 4, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, July 5, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, July 6, 2025</t>
   </si>
   <si>
     <t>Employee ID</t>
@@ -71,16 +71,25 @@
     <t>Shift End</t>
   </si>
   <si>
+    <t>Mohammed Saeed</t>
+  </si>
+  <si>
+    <t>QAL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
     <t>Dohha Mohamed Ali</t>
   </si>
   <si>
     <t>QAS</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>OFF</t>
+    <t>Marina Tharwat</t>
   </si>
   <si>
     <t>Fatma Sherief</t>
@@ -101,7 +110,70 @@
     <t>Karim Hendi</t>
   </si>
   <si>
-    <t>Fri</t>
+    <t>Cecelya Ayman</t>
+  </si>
+  <si>
+    <t>Mohamed Abdelmoneim</t>
+  </si>
+  <si>
+    <t>Fatma Bahaa</t>
+  </si>
+  <si>
+    <t>Mohamed Atef</t>
+  </si>
+  <si>
+    <t>Mohamed Magdy Dowidar</t>
+  </si>
+  <si>
+    <t>Mohanad Ahmed</t>
+  </si>
+  <si>
+    <t>Sarah Alsadig Alfadil</t>
+  </si>
+  <si>
+    <t>Sara Ahmed Abdelkader</t>
+  </si>
+  <si>
+    <t>Rana Attia</t>
+  </si>
+  <si>
+    <t>Yara Haitham Abdelmonem</t>
+  </si>
+  <si>
+    <t>Amal Sabry</t>
+  </si>
+  <si>
+    <t>Razan rasheed</t>
+  </si>
+  <si>
+    <t>Amira Gasser</t>
+  </si>
+  <si>
+    <t>Razan Mohammed</t>
+  </si>
+  <si>
+    <t>Ahmed Salaheldin</t>
+  </si>
+  <si>
+    <t>Fatma Ahmed</t>
+  </si>
+  <si>
+    <t>Youssef Amer</t>
+  </si>
+  <si>
+    <t>Nesting TL</t>
+  </si>
+  <si>
+    <t>Ziyad Sherif</t>
+  </si>
+  <si>
+    <t>Nesting SME</t>
+  </si>
+  <si>
+    <t>Almoatazbellah Soliman</t>
+  </si>
+  <si>
+    <t>Mon</t>
   </si>
   <si>
     <t>HRID</t>
@@ -110,25 +182,40 @@
     <t>Site</t>
   </si>
   <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Abdelrahman Nehad</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
     <t>Ahmed Samir</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Youssef Amer</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Ahmed Fahmy</t>
@@ -140,148 +227,208 @@
     <t>Maamoon Nabil</t>
   </si>
   <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
     <t>Eman Taha</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>Kareem Tarek</t>
   </si>
   <si>
+    <t>Shift</t>
+  </si>
+  <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
+    <t>Ziyad Shrief</t>
+  </si>
+  <si>
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
-    <t>Salah Elseesy</t>
-  </si>
-  <si>
-    <t>Almoatazbellah Soliman</t>
-  </si>
-  <si>
     <t>Sarah Hassan</t>
   </si>
   <si>
-    <t>Rawya Alor Biong</t>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Jasmine Sharaf</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Abdulrahman Suliman</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
   </si>
   <si>
     <t>Adnan Fouad</t>
   </si>
   <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Afraa Hatim</t>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
   </si>
   <si>
     <t>Ibrahim Balla</t>
   </si>
   <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
-    <t>Aisha Mohammed</t>
-  </si>
-  <si>
-    <t>Fatma Ahmed</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Maya Mahdy</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
+    <t>Mohamed Nihad</t>
+  </si>
+  <si>
+    <t>Alaa Ibrahim Abdelaziz Mohamed</t>
+  </si>
+  <si>
+    <t>Asmaa Nabil Abdelwahab Eissa</t>
+  </si>
+  <si>
+    <t>Ahmed Hussein</t>
+  </si>
+  <si>
+    <t>Ahmed Adel</t>
+  </si>
+  <si>
+    <t>Moustafa Kallash</t>
+  </si>
+  <si>
+    <t>Hebatallah Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Ossama</t>
+  </si>
+  <si>
+    <t>Islam Ashour</t>
+  </si>
+  <si>
+    <t>Wafaa Salah</t>
+  </si>
+  <si>
+    <t>Rawda Elmasri</t>
+  </si>
+  <si>
+    <t>Abdalazem Diab</t>
+  </si>
+  <si>
+    <t>Nadeen Tarek</t>
+  </si>
+  <si>
+    <t>Sahar Mohammed</t>
+  </si>
+  <si>
+    <t>Ziad Ahmed</t>
+  </si>
+  <si>
+    <t>Mario Ramy Makram Amin</t>
+  </si>
+  <si>
+    <t>Nada Nagi</t>
+  </si>
+  <si>
+    <t>Bassel Hesham</t>
+  </si>
+  <si>
+    <t>Mariam Ahmed</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamal</t>
+  </si>
+  <si>
+    <t>Sherif Zaki</t>
+  </si>
+  <si>
+    <t>Omer Alsadig Alfadil</t>
   </si>
 </sst>
 </file>
@@ -300,13 +447,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,12 +483,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="IBM Plex Sans"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFE5E5E5"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -389,14 +531,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -409,9 +543,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -560,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,12 +771,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -977,38 +1118,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,11 +1138,11 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1173,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,7 +1315,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,262 +1327,256 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1988,1338 +2116,2939 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D78"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="3" max="12" width="12.9090909090909" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.0909090909091" style="2"/>
-    <col min="14" max="14" width="8.72727272727273" style="2"/>
-    <col min="15" max="15" width="11.3636363636364" style="2"/>
-    <col min="16" max="16" width="10.2727272727273" style="2"/>
-    <col min="17" max="16384" width="8.72727272727273" style="2"/>
+    <col min="1" max="1" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="12" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.0909090909091" style="1"/>
+    <col min="14" max="14" width="8.72727272727273" style="1"/>
+    <col min="15" max="15" width="11.3636363636364" style="1"/>
+    <col min="16" max="16" width="10.2727272727273" style="1"/>
+    <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.5" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16" spans="1:17">
-      <c r="A3" s="10">
+    <row r="3" ht="16" spans="1:17">
+      <c r="A3" s="9">
+        <v>10272463</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="1:17">
+      <c r="A4" s="13">
         <v>10282174</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11">
         <v>0.416666666666667</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="15">
         <v>0.416666666666667</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G4" s="15">
         <v>0.791666666666667</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="H4" s="11">
         <v>0.416666666666667</v>
       </c>
-      <c r="M3" s="12">
+      <c r="I4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A4" s="10">
+      <c r="J4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:17">
+      <c r="A5" s="13">
+        <v>10304633</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:17">
+      <c r="A6" s="13">
         <v>10282854</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F6" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="H6" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="K4" s="12">
+      <c r="I6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="L4" s="12">
+      <c r="J6" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="M4" s="12">
+      <c r="K6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:17">
-      <c r="A5" s="10">
+      <c r="L6" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:17">
+      <c r="A7" s="13">
         <v>10295540</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11">
         <v>0.375</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E7" s="11">
         <v>0.75</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F7" s="11">
         <v>0.375</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G7" s="11">
         <v>0.75</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H7" s="11">
         <v>0.375</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I7" s="11">
         <v>0.75</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J7" s="11">
         <v>0.375</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K7" s="11">
         <v>0.75</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L7" s="11">
         <v>0.375</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M7" s="11">
         <v>0.75</v>
       </c>
-      <c r="N5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A6" s="10">
+      <c r="N7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:17">
+      <c r="A8" s="13">
         <v>10304630</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11">
         <v>0.375</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E8" s="11">
         <v>0.75</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F8" s="11">
         <v>0.375</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G8" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H8" s="15">
         <v>0.333333333333333</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I8" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J8" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="K6" s="15">
+      <c r="M8" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="L6" s="12">
+      <c r="N8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:17">
+      <c r="A9" s="13">
+        <v>10272462</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:17">
+      <c r="A10" s="13">
+        <v>10325072</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11">
         <v>0.333333333333333</v>
       </c>
-      <c r="M6" s="12">
+      <c r="E10" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A7" s="10">
-        <v>10272462</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="F10" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:17">
+      <c r="A11" s="13">
+        <v>10281246</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="D11" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E11" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:17">
+      <c r="A12" s="13">
+        <v>10292719</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:17">
+      <c r="A13" s="13">
+        <v>10295542</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:17">
+      <c r="A14" s="13">
+        <v>10299937</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:17">
+      <c r="A15" s="13">
+        <v>10240188</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:17">
+      <c r="A16" s="13">
+        <v>10299940</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="13">
+        <v>10282231</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:17">
+      <c r="A18" s="13">
+        <v>10304628</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:17">
+      <c r="A19" s="13">
+        <v>10323545</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="G7" s="12">
+      <c r="E19" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="H7" s="12">
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:17">
+      <c r="A20" s="13">
+        <v>10273349</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:17">
+      <c r="A21" s="13">
+        <v>10312260</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:17">
+      <c r="A22" s="13">
+        <v>10328613</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="I7" s="12">
+      <c r="E22" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="J7" s="12">
+      <c r="F22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:17">
+      <c r="A23" s="13">
+        <v>10310083</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="K7" s="12">
+      <c r="E23" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="L7" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.25" spans="1:17">
-      <c r="A8" s="10">
-        <v>10325072</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22">
-        <v>45835</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24">
-        <v>10312258</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" hidden="1" spans="1:5">
-      <c r="A14" s="24">
-        <v>10276035</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" hidden="1" spans="1:5">
-      <c r="A15" s="24">
+      <c r="F23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:17">
+      <c r="A24" s="13">
+        <v>10326471</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:17">
+      <c r="A25" s="13">
+        <v>10309111</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:17">
+      <c r="A26" s="13">
+        <v>10295541</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:17">
+      <c r="A27" s="13">
         <v>10245223</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" hidden="1" spans="1:5">
-      <c r="A16" s="24">
-        <v>10272473</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="24">
-        <v>10237041</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" hidden="1" spans="1:5">
-      <c r="A18" s="24">
-        <v>10303751</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.625</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" hidden="1" spans="1:5">
-      <c r="A19" s="24">
-        <v>10307947</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0.625</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" hidden="1" spans="1:5">
-      <c r="A20" s="24">
-        <v>10254389</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" hidden="1" spans="1:5">
-      <c r="A21" s="24">
-        <v>10309113</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="24">
-        <v>10304619</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" hidden="1" spans="1:5">
-      <c r="A23" s="24">
-        <v>10303779</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" hidden="1" spans="1:5">
-      <c r="A24" s="24">
-        <v>10284489</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" hidden="1" spans="1:5">
-      <c r="A25" s="24">
-        <v>10292718</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" hidden="1" spans="1:5">
-      <c r="A26" s="24">
-        <v>10281108</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" hidden="1" spans="1:5">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" hidden="1" spans="1:5">
-      <c r="A28" s="24">
-        <v>10326982</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" hidden="1" spans="1:5">
-      <c r="A29" s="24">
-        <v>10224237</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="D27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:17">
+      <c r="A28" s="13">
+        <v>10295622</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:17">
+      <c r="A29" s="13">
+        <v>10299512</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="21">
+        <v>45838</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="23">
+        <v>10304619</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+    <row r="34" ht="15.25" hidden="1" spans="1:5">
+      <c r="A34" s="23">
+        <v>10276035</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
+    <row r="35" ht="15.25" hidden="1" spans="1:5">
+      <c r="A35" s="23">
+        <v>10245223</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="23">
+        <v>10237041</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+    <row r="37" ht="15.25" hidden="1" spans="1:5">
+      <c r="A37" s="23">
+        <v>10281108</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+    <row r="38" ht="15.25" hidden="1" spans="1:5">
+      <c r="A38" s="23">
+        <v>10303779</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
+    <row r="39" ht="15.25" hidden="1" spans="1:5">
+      <c r="A39" s="23">
+        <v>10272473</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E39"/>
     </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="34" t="s">
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="23">
+        <v>10312258</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" ht="15.25" hidden="1" spans="1:5">
+      <c r="A41" s="23">
+        <v>10284489</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" ht="15.25" hidden="1" spans="1:5">
+      <c r="A42" s="23">
+        <v>10292718</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" ht="15.25" hidden="1" spans="1:5">
+      <c r="A43" s="23">
+        <v>10309113</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" ht="15.25" hidden="1" spans="1:5">
+      <c r="A44" s="23">
+        <v>10303751</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" ht="15.25" hidden="1" spans="1:5">
+      <c r="A45" s="23">
+        <v>10307947</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" ht="15.25" hidden="1" spans="1:5">
+      <c r="A46" s="23">
+        <v>10254389</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" ht="15.25" hidden="1" spans="1:5">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" ht="15.25" hidden="1" spans="1:5">
+      <c r="A48" s="23">
+        <v>10326982</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" ht="15.25" hidden="1" spans="1:5">
+      <c r="A49" s="23">
+        <v>10224237</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="34" t="s">
+      <c r="D51" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B52" s="34">
+        <v>10299512</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="35">
+      <c r="D52" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B53" s="34">
+        <v>10295622</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B54" s="34">
         <v>10303715</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="37">
+      <c r="C54" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="33">
         <v>0.333333333333333</v>
       </c>
-      <c r="D41" s="37">
+      <c r="B55" s="34">
+        <v>10304629</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E55" s="35">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="35">
-        <v>10318450</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="37">
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="33">
         <v>0.333333333333333</v>
       </c>
-      <c r="D42" s="37">
+      <c r="B56" s="34">
+        <v>10251309</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E56" s="35">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="38">
-        <v>10299512</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D43" s="37">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="39">
-        <v>10304629</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="41">
+    <row r="57" spans="1:5">
+      <c r="A57" s="33">
         <v>0.333333333333333</v>
       </c>
-      <c r="D44" s="41">
+      <c r="B57" s="34">
+        <v>10328665</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E57" s="35">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="39">
-        <v>10273387</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="41">
+    <row r="58" spans="1:5">
+      <c r="A58" s="33">
         <v>0.333333333333333</v>
       </c>
-      <c r="D45" s="41">
+      <c r="B58" s="34">
+        <v>10328658</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E58" s="35">
         <v>0.708333333333333</v>
       </c>
     </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="39">
+    <row r="59" spans="1:5">
+      <c r="A59" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B59" s="34">
+        <v>10330149</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E59" s="35">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B60" s="34">
+        <v>10314749</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E60" s="35">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B61" s="34">
+        <v>10331787</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="35">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E61" s="35">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B62" s="36">
+        <v>10333385</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B63" s="34">
+        <v>10333416</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E63" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B64" s="34">
+        <v>10333417</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E64" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B65" s="34">
+        <v>10333432</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E65" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B66" s="44">
+        <v>10333435</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E66" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="B67" s="34">
+        <v>10333437</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="E67" s="35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B68" s="34">
+        <v>10326463</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="35">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E68" s="35">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B69" s="34">
+        <v>10329943</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="35">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E69" s="35">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="33">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B70" s="34">
+        <v>10331785</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E70" s="35">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B71" s="34">
+        <v>10282848</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E71" s="35">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B72" s="34">
+        <v>10324431</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E72" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B73" s="34">
+        <v>10326484</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E73" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B74" s="34">
+        <v>10327586</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E74" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B75" s="34">
+        <v>10327588</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E75" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B76" s="34">
+        <v>10330150</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E76" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B77" s="34">
         <v>10330510</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="39">
-        <v>10299934</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="25.75" spans="1:4">
-      <c r="A48" s="39">
-        <v>10323547</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="39">
-        <v>10326463</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="39">
-        <v>10331787</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="39">
-        <v>10327594</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D51" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="39">
-        <v>10333416</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D52" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="39">
-        <v>10333417</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D53" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="39">
-        <v>10333437</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="39">
+      <c r="C77" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E77" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B78" s="34">
+        <v>10331082</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E78" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B79" s="34">
+        <v>10331077</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E79" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B80" s="34">
+        <v>10332557</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E80" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B81" s="34">
+        <v>10332544</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E81" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B82" s="34">
+        <v>10332517</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E82" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B83" s="34">
+        <v>10332480</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E83" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B84" s="34">
+        <v>10332681</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E84" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B85" s="34">
+        <v>10332567</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E85" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B86" s="34">
+        <v>10332555</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E86" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B87" s="34">
+        <v>10332548</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E87" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B88" s="34">
+        <v>10332547</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E88" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B89" s="34">
+        <v>10332515</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E89" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B90" s="34">
+        <v>10332482</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E90" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B91" s="34">
+        <v>10332478</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E91" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B92" s="34">
+        <v>10332550</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E92" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B93" s="34">
         <v>10333439</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="39">
-        <v>10314762</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="39">
-        <v>10329943</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D57" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="39">
-        <v>10331157</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="39">
-        <v>10331078</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D59" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="39">
-        <v>10331475</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D60" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="39">
-        <v>10333396</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D61" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="42">
-        <v>10333426</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D62" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="39">
-        <v>10333436</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="41">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D63" s="41">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="43">
-        <v>10295541</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D64" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:4">
-      <c r="A65" s="39">
-        <v>10327588</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D65" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="39">
-        <v>10329911</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D66" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="67" ht="25.75" spans="1:4">
-      <c r="A67" s="39">
-        <v>10326484</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D67" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:4">
-      <c r="A68" s="39">
-        <v>10327586</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:4">
-      <c r="A69" s="39">
-        <v>10314812</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D69" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="39">
-        <v>10314812</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="41">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D70" s="41">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:4">
-      <c r="A71" s="39">
-        <v>10331785</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="39">
-        <v>10282848</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D72" s="41">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="73" ht="25.75" spans="1:4">
-      <c r="A73" s="39">
-        <v>10324431</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D73" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="39">
-        <v>10332544</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D74" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:4">
-      <c r="A75" s="39">
-        <v>10332548</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:4">
-      <c r="A76" s="39">
-        <v>10332482</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D76" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:4">
-      <c r="A77" s="39">
-        <v>10332478</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D77" s="41">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:4">
-      <c r="A78" s="39">
-        <v>10332550</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" s="41">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D78" s="41">
+      <c r="C93" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E93" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B94" s="34">
+        <v>10334342</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E94" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B95" s="34">
+        <v>10334370</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E95" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B96" s="34">
+        <v>10318448</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E96" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B97" s="34">
+        <v>10334449</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E97" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B98" s="34">
+        <v>10334451</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E98" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B99" s="34">
+        <v>10334398</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E99" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B100" s="34">
+        <v>10334368</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E100" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B101" s="34">
+        <v>10334393</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E101" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B102" s="34">
+        <v>10334372</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E102" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B103" s="34">
+        <v>10334476</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E103" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B104" s="45">
+        <v>10334359</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E104" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B105" s="34">
+        <v>10334423</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E105" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B106" s="34">
+        <v>10334401</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E106" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B107" s="34">
+        <v>10334475</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E107" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B108" s="34">
+        <v>10334395</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E108" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B109" s="34">
+        <v>10334465</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E109" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B110" s="34">
+        <v>10334367</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E110" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B111" s="34">
+        <v>10334381</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E111" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B112" s="34">
+        <v>10334469</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E112" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B113" s="34">
+        <v>10334375</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E113" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B114" s="34">
+        <v>10334374</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E114" s="35">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="33">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B115" s="34">
+        <v>10330637</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E115" s="35">
         <v>0.958333333333333</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:D29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:D49" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="5th.S"/>
-      </customFilters>
+      <filters>
+        <filter val="5th.S"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$32:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$93:$D$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="126">
   <si>
     <t>Details</t>
   </si>
@@ -173,262 +173,241 @@
     <t>Almoatazbellah Soliman</t>
   </si>
   <si>
-    <t>Mon</t>
+    <t>Shift</t>
   </si>
   <si>
     <t>HRID</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Shimaa Mokhtar</t>
+  </si>
+  <si>
+    <t>Salah Elseesy</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Estefania Hany</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Yara Ehab</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Ahmed Khalil</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
+    <t>Mohamed Nihad</t>
+  </si>
+  <si>
+    <t>Alaa Ibrahim Abdelaziz Mohamed</t>
+  </si>
+  <si>
+    <t>Asmaa Nabil Abdelwahab Eissa</t>
+  </si>
+  <si>
+    <t>Ahmed Hussein</t>
+  </si>
+  <si>
+    <t>Ahmed Adel</t>
+  </si>
+  <si>
+    <t>Moustafa Kallash</t>
+  </si>
+  <si>
+    <t>Hebatallah Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Ossama</t>
+  </si>
+  <si>
+    <t>Islam Ashour</t>
+  </si>
+  <si>
+    <t>Wafaa Salah</t>
+  </si>
+  <si>
+    <t>Rawda Elmasri</t>
+  </si>
+  <si>
+    <t>Abdalazem Diab</t>
+  </si>
+  <si>
+    <t>Nadeen Tarek</t>
+  </si>
+  <si>
+    <t>Sahar Mohammed</t>
+  </si>
+  <si>
+    <t>Ziad Ahmed</t>
+  </si>
+  <si>
+    <t>Mario Ramy Makram Amin</t>
+  </si>
+  <si>
+    <t>Nada Nagi</t>
+  </si>
+  <si>
+    <t>Bassel Hesham</t>
+  </si>
+  <si>
+    <t>Mariam Ahmed</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamal</t>
+  </si>
+  <si>
+    <t>Sherif Zaki</t>
+  </si>
+  <si>
+    <t>Omer Alsadig Alfadil</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Hager Salah</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
     <t>Aya Shehabeldin</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>Abdelrahman Nehad</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
     <t>Eman Taha</t>
   </si>
   <si>
     <t>Kareem Tarek</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Ziyad Shrief</t>
-  </si>
-  <si>
-    <t>Shimaa Mokhtar</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Jasmine Sharaf</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Estefania Hany</t>
-  </si>
-  <si>
-    <t>Abdulrahman Suliman</t>
-  </si>
-  <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Mustafa Mohamed</t>
-  </si>
-  <si>
-    <t>Maher Ali Dahab</t>
-  </si>
-  <si>
-    <t>Afraa Hatim</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Ahmed Khalil</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
-  </si>
-  <si>
-    <t>Ibrahim Balla</t>
-  </si>
-  <si>
-    <t>Mohamed Nihad</t>
-  </si>
-  <si>
-    <t>Alaa Ibrahim Abdelaziz Mohamed</t>
-  </si>
-  <si>
-    <t>Asmaa Nabil Abdelwahab Eissa</t>
-  </si>
-  <si>
-    <t>Ahmed Hussein</t>
-  </si>
-  <si>
-    <t>Ahmed Adel</t>
-  </si>
-  <si>
-    <t>Moustafa Kallash</t>
-  </si>
-  <si>
-    <t>Hebatallah Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Ossama</t>
-  </si>
-  <si>
-    <t>Islam Ashour</t>
-  </si>
-  <si>
-    <t>Wafaa Salah</t>
-  </si>
-  <si>
-    <t>Rawda Elmasri</t>
-  </si>
-  <si>
-    <t>Abdalazem Diab</t>
-  </si>
-  <si>
-    <t>Nadeen Tarek</t>
-  </si>
-  <si>
-    <t>Sahar Mohammed</t>
-  </si>
-  <si>
-    <t>Ziad Ahmed</t>
-  </si>
-  <si>
-    <t>Mario Ramy Makram Amin</t>
-  </si>
-  <si>
-    <t>Nada Nagi</t>
-  </si>
-  <si>
-    <t>Bassel Hesham</t>
-  </si>
-  <si>
-    <t>Mariam Ahmed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamal</t>
-  </si>
-  <si>
-    <t>Sherif Zaki</t>
-  </si>
-  <si>
-    <t>Omer Alsadig Alfadil</t>
   </si>
 </sst>
 </file>
@@ -443,7 +422,7 @@
     <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,9 +474,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE5E5E5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -526,39 +558,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3D3D3D"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -746,6 +745,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF741B47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA4335"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -771,18 +782,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF741B47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1073,14 +1072,96 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1106,21 +1187,6 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
       <top style="thick">
@@ -1128,21 +1194,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1231,19 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1188,6 +1252,36 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,137 +1403,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1488,95 +1582,143 @@
     <xf numFmtId="178" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="11" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2116,10 +2258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:E115"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2134,7 +2276,7 @@
     <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1" spans="1:17">
+    <row r="1" ht="19" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2164,10 +2306,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2218,7 +2360,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2262,16 +2404,16 @@
       <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="42" t="s">
+      <c r="N3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2303,11 +2445,11 @@
       <c r="I4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>15</v>
+      <c r="J4" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0.291666666666667</v>
       </c>
       <c r="L4" s="11">
         <v>0.333333333333333</v>
@@ -2315,20 +2457,20 @@
       <c r="M4" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="1:17">
+      <c r="N4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:17">
       <c r="A5" s="13">
         <v>10304633</v>
       </c>
@@ -2368,16 +2510,16 @@
       <c r="M5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="43" t="s">
+      <c r="N5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2421,16 +2563,16 @@
       <c r="M6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="43" t="s">
+      <c r="N6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2450,40 +2592,40 @@
       <c r="E7" s="11">
         <v>0.75</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="43" t="s">
+      <c r="F7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2510,10 +2652,10 @@
         <v>0.708333333333333</v>
       </c>
       <c r="H8" s="15">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="I8" s="15">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="15">
         <v>0.375</v>
@@ -2522,25 +2664,25 @@
         <v>0.75</v>
       </c>
       <c r="L8" s="11">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="M8" s="11">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="1:17">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:17">
       <c r="A9" s="13">
         <v>10272462</v>
       </c>
@@ -2580,16 +2722,16 @@
       <c r="M9" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="N9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2609,40 +2751,40 @@
       <c r="E10" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="18">
         <v>0.333333333333333</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="19">
         <v>0.333333333333333</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="19">
         <v>0.708333333333333</v>
       </c>
-      <c r="J10" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="40" t="s">
+      <c r="J10" s="19">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2686,16 +2828,16 @@
       <c r="M11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="42" t="s">
+      <c r="N11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2739,16 +2881,16 @@
       <c r="M12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="42" t="s">
+      <c r="N12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2792,16 +2934,16 @@
       <c r="M13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="42" t="s">
+      <c r="N13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2845,16 +2987,16 @@
       <c r="M14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="42" t="s">
+      <c r="N14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2898,16 +3040,16 @@
       <c r="M15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="42" t="s">
+      <c r="N15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2927,40 +3069,40 @@
       <c r="E16" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="42" t="s">
+      <c r="F16" s="20">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3004,16 +3146,16 @@
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="42" t="s">
+      <c r="N17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3033,40 +3175,40 @@
       <c r="E18" s="11">
         <v>0.666666666666667</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="42" t="s">
+      <c r="F18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3083,43 +3225,43 @@
       <c r="D19" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="24">
         <v>0.833333333333333</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="42" t="s">
+      <c r="F19" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3139,40 +3281,40 @@
       <c r="E20" s="11">
         <v>0.75</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="42" t="s">
+      <c r="F20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="45" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3216,16 +3358,16 @@
       <c r="M21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="42" t="s">
+      <c r="N21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3269,16 +3411,16 @@
       <c r="M22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="42" t="s">
+      <c r="N22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3316,22 +3458,22 @@
       <c r="K23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="42" t="s">
+      <c r="L23" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M23" s="35">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3351,40 +3493,40 @@
       <c r="E24" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="42" t="s">
+      <c r="F24" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3428,16 +3570,16 @@
       <c r="M25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N25" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="42" t="s">
+      <c r="N25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3457,40 +3599,40 @@
       <c r="E26" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="42" t="s">
+      <c r="F26" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3534,16 +3676,16 @@
       <c r="M27" s="11">
         <v>0.958333333333333</v>
       </c>
-      <c r="N27" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="42" t="s">
+      <c r="N27" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3587,16 +3729,16 @@
       <c r="M28" s="11">
         <v>0.958333333333333</v>
       </c>
-      <c r="N28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" s="42" t="s">
+      <c r="N28" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3640,16 +3782,16 @@
       <c r="M29" s="11">
         <v>0.958333333333333</v>
       </c>
-      <c r="N29" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="42" t="s">
+      <c r="N29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3661,1390 +3803,1284 @@
       <c r="E30"/>
     </row>
     <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="19" t="s">
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="C31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="21">
-        <v>45838</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="D31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="23">
+      <c r="E31" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="25.75" spans="1:5">
+      <c r="A32" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B32" s="30">
+        <v>10303715</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E32" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="25.75" spans="1:5">
+      <c r="A33" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B33" s="30">
+        <v>10299512</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B34" s="30">
+        <v>10295622</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E34" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B35" s="30">
+        <v>10318450</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E35" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="25.75" spans="1:5">
+      <c r="A36" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B36" s="30">
+        <v>10273387</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E36" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B37" s="30">
+        <v>10314762</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E37" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B38" s="30">
+        <v>10304629</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E38" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B39" s="30">
+        <v>10327594</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B40" s="30">
+        <v>10329911</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B41" s="30">
+        <v>10330510</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="25.75" spans="1:5">
+      <c r="A42" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B42" s="30">
+        <v>10331078</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B43" s="30">
+        <v>10331787</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B44" s="30">
+        <v>10332478</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B45" s="30">
+        <v>10333439</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E45" s="31">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="38.25" spans="1:5">
+      <c r="A46" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B46" s="30">
+        <v>10323547</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" ht="38.25" spans="1:5">
+      <c r="A47" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B47" s="30">
+        <v>10324431</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B48" s="30">
+        <v>10299934</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E48" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B49" s="30">
+        <v>10314763</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E49" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B50" s="30">
+        <v>10331157</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E50" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" ht="25.75" spans="1:5">
+      <c r="A51" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B51" s="30">
+        <v>10331475</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" ht="25.75" spans="1:5">
+      <c r="A52" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B52" s="30">
+        <v>10333416</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" ht="25.75" spans="1:5">
+      <c r="A53" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B53" s="30">
+        <v>10333417</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B54" s="30">
+        <v>10333396</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E54" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B55" s="32">
+        <v>10333426</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E55" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B56" s="30">
+        <v>10333437</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E56" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" ht="25.75" spans="1:5">
+      <c r="A57" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B57" s="30">
+        <v>10282848</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E57" s="31">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="58" ht="25.75" spans="1:5">
+      <c r="A58" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B58" s="30">
+        <v>10326463</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E58" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="38.25" spans="1:5">
+      <c r="A59" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B59" s="30">
+        <v>10326484</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="25.75" spans="1:5">
+      <c r="A60" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B60" s="30">
+        <v>10327586</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E60" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B61" s="30">
+        <v>10327588</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E61" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B62" s="30">
+        <v>10329943</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E62" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B63" s="30">
+        <v>10332544</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E63" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B64" s="30">
+        <v>10332548</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E64" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:5">
+      <c r="A65" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B65" s="30">
+        <v>10332547</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E65" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B66" s="30">
+        <v>10332482</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E66" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="67" ht="25.75" spans="1:5">
+      <c r="A67" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B67" s="30">
+        <v>10332550</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E67" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="68" ht="25.75" spans="1:5">
+      <c r="A68" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B68" s="30">
+        <v>10333436</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E68" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="69" ht="25.75" spans="1:5">
+      <c r="A69" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B69" s="30">
+        <v>10334342</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="70" ht="38.25" spans="1:5">
+      <c r="A70" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B70" s="30">
+        <v>10334370</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E70" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="71" ht="38.25" spans="1:5">
+      <c r="A71" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B71" s="30">
+        <v>10318448</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E71" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:5">
+      <c r="A72" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B72" s="30">
+        <v>10334449</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E72" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B73" s="30">
+        <v>10334451</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E73" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="74" ht="25.75" spans="1:5">
+      <c r="A74" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B74" s="30">
+        <v>10334398</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E74" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="75" ht="25.75" spans="1:5">
+      <c r="A75" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B75" s="30">
+        <v>10334368</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E75" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="76" ht="25.75" spans="1:5">
+      <c r="A76" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B76" s="30">
+        <v>10334393</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E76" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="1:5">
+      <c r="A77" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B77" s="30">
+        <v>10334372</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E77" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="1:5">
+      <c r="A78" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B78" s="30">
+        <v>10334476</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E78" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="1:5">
+      <c r="A79" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B79" s="30">
+        <v>10334359</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E79" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="80" ht="25.75" spans="1:5">
+      <c r="A80" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B80" s="30">
+        <v>10334423</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E80" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="1:5">
+      <c r="A81" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B81" s="30">
+        <v>10334401</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E81" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="82" ht="25.75" spans="1:5">
+      <c r="A82" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B82" s="30">
+        <v>10334475</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E82" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:5">
+      <c r="A83" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B83" s="30">
+        <v>10334395</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E83" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="84" ht="25.75" spans="1:5">
+      <c r="A84" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B84" s="30">
+        <v>10334465</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E84" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="1:5">
+      <c r="A85" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B85" s="30">
+        <v>10334367</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E85" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="86" ht="25.75" spans="1:5">
+      <c r="A86" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B86" s="46">
+        <v>10334381</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E86" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="87" ht="15.25" spans="1:5">
+      <c r="A87" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B87" s="30">
+        <v>10334469</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E87" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="88" ht="25.75" spans="1:5">
+      <c r="A88" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B88" s="30">
+        <v>10334375</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E88" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="89" ht="15.25" spans="1:5">
+      <c r="A89" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B89" s="30">
+        <v>10334374</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E89" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="90" ht="25.75" spans="1:5">
+      <c r="A90" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B90" s="30">
+        <v>10330637</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E90" s="31">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="1:5">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" ht="15.25" spans="1:5">
+      <c r="A92" s="47"/>
+      <c r="B92" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="49"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" ht="15.25" spans="1:5">
+      <c r="A93" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="52">
+        <v>45842</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93"/>
+    </row>
+    <row r="94" ht="15.25" hidden="1" spans="1:5">
+      <c r="A94" s="54">
+        <v>10276035</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="56">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94"/>
+    </row>
+    <row r="95" ht="15.25" spans="1:5">
+      <c r="A95" s="54">
+        <v>10312258</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96" ht="15.25" spans="1:5">
+      <c r="A96" s="54">
+        <v>10245223</v>
+      </c>
+      <c r="B96" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="56">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" ht="15.25" hidden="1" spans="1:5">
+      <c r="A97" s="54">
+        <v>10272473</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="56">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98" ht="15.25" hidden="1" spans="1:5">
+      <c r="A98" s="54">
+        <v>10303751</v>
+      </c>
+      <c r="B98" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="56">
+        <v>0.625</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" ht="15.25" hidden="1" spans="1:5">
+      <c r="A99" s="54">
+        <v>10307947</v>
+      </c>
+      <c r="B99" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="56">
+        <v>0.625</v>
+      </c>
+      <c r="D99" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99"/>
+    </row>
+    <row r="100" ht="15.25" hidden="1" spans="1:5">
+      <c r="A100" s="54">
+        <v>10309113</v>
+      </c>
+      <c r="B100" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="D100" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100"/>
+    </row>
+    <row r="101" ht="15.25" hidden="1" spans="1:5">
+      <c r="A101" s="54">
+        <v>10254389</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="56">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D101" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101"/>
+    </row>
+    <row r="102" ht="15.25" spans="1:5">
+      <c r="A102" s="54">
+        <v>10281108</v>
+      </c>
+      <c r="B102" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102"/>
+    </row>
+    <row r="103" ht="15.25" hidden="1" spans="1:5">
+      <c r="A103" s="54">
+        <v>10292718</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103"/>
+    </row>
+    <row r="104" ht="15.25" hidden="1" spans="1:4">
+      <c r="A104" s="54">
+        <v>10284489</v>
+      </c>
+      <c r="B104" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" hidden="1" spans="1:4">
+      <c r="A105" s="54">
+        <v>10303779</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" ht="15.25" spans="1:4">
+      <c r="A106" s="54">
         <v>10304619</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="15.25" hidden="1" spans="1:5">
-      <c r="A34" s="23">
-        <v>10276035</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="25">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="15.25" hidden="1" spans="1:5">
-      <c r="A35" s="23">
-        <v>10245223</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="23">
-        <v>10237041</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="15.25" hidden="1" spans="1:5">
-      <c r="A37" s="23">
-        <v>10281108</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="25">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="15.25" hidden="1" spans="1:5">
-      <c r="A38" s="23">
-        <v>10303779</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="25">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="15.25" hidden="1" spans="1:5">
-      <c r="A39" s="23">
-        <v>10272473</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="23">
-        <v>10312258</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="15.25" hidden="1" spans="1:5">
-      <c r="A41" s="23">
-        <v>10284489</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="15.25" hidden="1" spans="1:5">
-      <c r="A42" s="23">
-        <v>10292718</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="15.25" hidden="1" spans="1:5">
-      <c r="A43" s="23">
-        <v>10309113</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="25">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="15.25" hidden="1" spans="1:5">
-      <c r="A44" s="23">
-        <v>10303751</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="15.25" hidden="1" spans="1:5">
-      <c r="A45" s="23">
-        <v>10307947</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="15.25" hidden="1" spans="1:5">
-      <c r="A46" s="23">
-        <v>10254389</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" ht="15.25" hidden="1" spans="1:5">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="15.25" hidden="1" spans="1:5">
-      <c r="A48" s="23">
+      <c r="B106" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" ht="15.25" hidden="1" spans="1:4">
+      <c r="A107" s="59"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="61"/>
+    </row>
+    <row r="108" ht="15.25" hidden="1" spans="1:4">
+      <c r="A108" s="54">
         <v>10326982</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="15.25" hidden="1" spans="1:5">
-      <c r="A49" s="23">
+      <c r="B108" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="56">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D108" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" ht="15.25" hidden="1" spans="1:4">
+      <c r="A109" s="54">
         <v>10224237</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B52" s="34">
-        <v>10299512</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B53" s="34">
-        <v>10295622</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E53" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B54" s="34">
-        <v>10303715</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B55" s="34">
-        <v>10304629</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E55" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B56" s="34">
-        <v>10251309</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E56" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B57" s="34">
-        <v>10328665</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B58" s="34">
-        <v>10328658</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E58" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B59" s="34">
-        <v>10330149</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B60" s="34">
-        <v>10314749</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B61" s="34">
-        <v>10331787</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E61" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B62" s="36">
-        <v>10333385</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E62" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B63" s="34">
-        <v>10333416</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E63" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B64" s="34">
-        <v>10333417</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E64" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B65" s="34">
-        <v>10333432</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E65" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B66" s="44">
-        <v>10333435</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E66" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B67" s="34">
-        <v>10333437</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E67" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B68" s="34">
-        <v>10326463</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E68" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B69" s="34">
-        <v>10329943</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E69" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B70" s="34">
-        <v>10331785</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E70" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B71" s="34">
-        <v>10282848</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E71" s="35">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B72" s="34">
-        <v>10324431</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E72" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B73" s="34">
-        <v>10326484</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E73" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B74" s="34">
-        <v>10327586</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E74" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B75" s="34">
-        <v>10327588</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E75" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B76" s="34">
-        <v>10330150</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E76" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B77" s="34">
-        <v>10330510</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E77" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B78" s="34">
-        <v>10331082</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E78" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B79" s="34">
-        <v>10331077</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E79" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B80" s="34">
-        <v>10332557</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E80" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B81" s="34">
-        <v>10332544</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E81" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B82" s="34">
-        <v>10332517</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E82" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B83" s="34">
-        <v>10332480</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D83" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E83" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B84" s="34">
-        <v>10332681</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E84" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B85" s="34">
-        <v>10332567</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E85" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B86" s="34">
-        <v>10332555</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E86" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B87" s="34">
-        <v>10332548</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E87" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B88" s="34">
-        <v>10332547</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D88" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E88" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B89" s="34">
-        <v>10332515</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E89" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B90" s="34">
-        <v>10332482</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D90" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E90" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B91" s="34">
-        <v>10332478</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E91" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B92" s="34">
-        <v>10332550</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D92" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E92" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B93" s="34">
-        <v>10333439</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E93" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B94" s="34">
-        <v>10334342</v>
-      </c>
-      <c r="C94" s="34" t="s">
+      <c r="B109" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E94" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B95" s="34">
-        <v>10334370</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D95" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E95" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B96" s="34">
-        <v>10318448</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E96" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B97" s="34">
-        <v>10334449</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D97" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E97" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B98" s="34">
-        <v>10334451</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E98" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B99" s="34">
-        <v>10334398</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E99" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B100" s="34">
-        <v>10334368</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E100" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B101" s="34">
-        <v>10334393</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D101" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E101" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B102" s="34">
-        <v>10334372</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E102" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B103" s="34">
-        <v>10334476</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E103" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B104" s="45">
-        <v>10334359</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E104" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B105" s="34">
-        <v>10334423</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D105" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E105" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B106" s="34">
-        <v>10334401</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E106" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B107" s="34">
-        <v>10334475</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D107" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E107" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B108" s="34">
-        <v>10334395</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D108" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E108" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B109" s="34">
-        <v>10334465</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E109" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B110" s="34">
-        <v>10334367</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D110" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E110" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B111" s="34">
-        <v>10334381</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E111" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B112" s="34">
-        <v>10334469</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E112" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B113" s="34">
-        <v>10334375</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E113" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B114" s="34">
-        <v>10334374</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E114" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B115" s="34">
-        <v>10330637</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D115" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E115" s="35">
-        <v>0.958333333333333</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:D49" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A93:D109" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$83:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$71:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
   <si>
     <t>Details</t>
   </si>
@@ -199,159 +199,123 @@
     <t>Shimaa Mokhtar</t>
   </si>
   <si>
-    <t>Salah Elseesy</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Passant Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Mustafa Mohamed</t>
+  </si>
+  <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
   </si>
   <si>
     <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
   </si>
   <si>
     <t>Anger Bagat</t>
   </si>
   <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
-    <t>Afraa Hatim</t>
-  </si>
-  <si>
-    <t>Aisha Mohammed</t>
-  </si>
-  <si>
-    <t>Mohamed Nihad</t>
-  </si>
-  <si>
-    <t>Alaa Ibrahim Abdelaziz Mohamed</t>
-  </si>
-  <si>
-    <t>Asmaa Nabil Abdelwahab Eissa</t>
-  </si>
-  <si>
-    <t>Ahmed Hussein</t>
-  </si>
-  <si>
-    <t>Ahmed Adel</t>
-  </si>
-  <si>
-    <t>Moustafa Kallash</t>
-  </si>
-  <si>
-    <t>Hebatallah Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamed Ossama</t>
-  </si>
-  <si>
-    <t>Islam Ashour</t>
-  </si>
-  <si>
-    <t>Wafaa Salah</t>
-  </si>
-  <si>
-    <t>Rawda Elmasri</t>
-  </si>
-  <si>
-    <t>Abdalazem Diab</t>
-  </si>
-  <si>
-    <t>Nadeen Tarek</t>
-  </si>
-  <si>
-    <t>Sahar Mohammed</t>
-  </si>
-  <si>
-    <t>Ziad Ahmed</t>
-  </si>
-  <si>
-    <t>Mario Ramy Makram Amin</t>
-  </si>
-  <si>
-    <t>Nada Nagi</t>
-  </si>
-  <si>
-    <t>Bassel Hesham</t>
-  </si>
-  <si>
-    <t>Mariam Ahmed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamal</t>
-  </si>
-  <si>
-    <t>Sherif Zaki</t>
-  </si>
-  <si>
-    <t>Omer Alsadig Alfadil</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
     <t>Hesham Abuelela</t>
   </si>
   <si>
@@ -361,55 +325,55 @@
     <t>Esraa mohamed</t>
   </si>
   <si>
-    <t>July-11th:</t>
-  </si>
-  <si>
-    <t>Fri</t>
+    <t>July-13th:</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
     <t>Hager Salah</t>
   </si>
   <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
     <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -499,13 +463,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF073763"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -521,12 +492,6 @@
       <sz val="11.25"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -983,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1218,21 +1183,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1400,7 +1350,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,34 +1362,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1524,7 +1474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,24 +1544,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,16 +1556,19 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,22 +1577,22 @@
     <xf numFmtId="178" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,22 +1601,19 @@
     <xf numFmtId="178" fontId="7" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,7 +1625,7 @@
     <xf numFmtId="16" fontId="15" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,20 +1637,11 @@
     <xf numFmtId="35" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2258,10 +2181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:C86"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2306,10 +2229,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2360,7 +2283,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2404,16 +2327,16 @@
       <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="46" t="s">
+      <c r="N3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2457,16 +2380,16 @@
       <c r="M4" s="12">
         <v>0.75</v>
       </c>
-      <c r="N4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="46" t="s">
+      <c r="N4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2510,20 +2433,20 @@
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:17">
+      <c r="N5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="16.75" customHeight="1" spans="1:17">
       <c r="A6" s="13">
         <v>10272462</v>
       </c>
@@ -2563,20 +2486,20 @@
       <c r="M6" s="12">
         <v>0.833333333333333</v>
       </c>
-      <c r="N6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="17.5" customHeight="1" spans="1:17">
+      <c r="N6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="18.25" customHeight="1" spans="1:17">
       <c r="A7" s="13">
         <v>10325072</v>
       </c>
@@ -2616,16 +2539,16 @@
       <c r="M7" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="38" t="s">
+      <c r="N7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2669,16 +2592,16 @@
       <c r="M8" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="46" t="s">
+      <c r="N8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2722,16 +2645,16 @@
       <c r="M9" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N9" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="46" t="s">
+      <c r="N9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2775,16 +2698,16 @@
       <c r="M10" s="12">
         <v>0.75</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="46" t="s">
+      <c r="N10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2828,16 +2751,16 @@
       <c r="M11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="38" t="s">
+      <c r="N11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2881,16 +2804,16 @@
       <c r="M12" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="46" t="s">
+      <c r="N12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2934,16 +2857,16 @@
       <c r="M13" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="N13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="46" t="s">
+      <c r="N13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2987,16 +2910,16 @@
       <c r="M14" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="N14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="46" t="s">
+      <c r="N14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3040,16 +2963,16 @@
       <c r="M15" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="N15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="46" t="s">
+      <c r="N15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3093,16 +3016,16 @@
       <c r="M16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="46" t="s">
+      <c r="N16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3146,16 +3069,16 @@
       <c r="M17" s="15">
         <v>0.708333333333333</v>
       </c>
-      <c r="N17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="46" t="s">
+      <c r="N17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="41" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3175,16 +3098,16 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="39">
+      <c r="J18" s="34">
         <v>0.375</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="34">
         <v>0.75</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="35">
         <v>0.416666666666667</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="35">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -3204,66 +3127,66 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="41">
+      <c r="J19" s="36">
         <v>0.375</v>
       </c>
-      <c r="K19" s="41">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L19" s="41">
+      <c r="K19" s="36">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L19" s="36">
         <v>0.375</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="36">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:13">
-      <c r="A20" s="23">
+      <c r="A20" s="16">
         <v>10304633</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="42">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="37">
         <v>0.416666666666667</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="37">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15.25" spans="1:13">
-      <c r="A21" s="27">
+      <c r="A21" s="16">
         <v>10281246</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39">
         <v>0.416666666666667</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="39">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -3275,1223 +3198,1038 @@
       <c r="E22"/>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B24" s="34">
+      <c r="A24" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B24" s="28">
         <v>10303715</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E24" s="29">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B25" s="34">
-        <v>10318450</v>
-      </c>
-      <c r="C25" s="34" t="s">
+      <c r="A25" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B25" s="28">
+        <v>10251309</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E25" s="29">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B26" s="34">
-        <v>10304629</v>
-      </c>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B26" s="28">
+        <v>10327594</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E26" s="35">
+      <c r="D26" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E26" s="29">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B27" s="34">
-        <v>10323547</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B27" s="28">
+        <v>10328665</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E27" s="35">
+      <c r="D27" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E27" s="29">
         <v>0.708333333333333</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B28" s="34">
+      <c r="A28" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B28" s="28">
+        <v>10329911</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:5">
+      <c r="A29" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B29" s="28">
+        <v>10329943</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B30" s="28">
+        <v>10331157</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B31" s="28">
+        <v>10331475</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:5">
+      <c r="A32" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B32" s="28">
+        <v>10333416</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:5">
+      <c r="A33" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B33" s="28">
+        <v>10333417</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E33" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:5">
+      <c r="A34" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B34" s="28">
+        <v>10333396</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:5">
+      <c r="A35" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B35" s="30">
+        <v>10333426</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:5">
+      <c r="A36" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B36" s="28">
+        <v>10333432</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:5">
+      <c r="A37" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B37" s="31">
+        <v>10333435</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:5">
+      <c r="A38" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B38" s="28">
+        <v>10333437</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:5">
+      <c r="A39" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B39" s="28">
+        <v>10333436</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:5">
+      <c r="A40" s="27">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B40" s="28">
+        <v>10331082</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:5">
+      <c r="A41" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="B41" s="28">
+        <v>10320448</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:5">
+      <c r="A42" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="B42" s="28">
         <v>10324431</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B29" s="34">
-        <v>10327594</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E29" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B30" s="34">
-        <v>10329943</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E30" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B31" s="34">
-        <v>10299934</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E31" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B32" s="34">
-        <v>10331157</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E32" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B33" s="34">
-        <v>10331475</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E33" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B34" s="34">
+      <c r="C42" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:5">
+      <c r="A43" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="B43" s="28">
+        <v>10332557</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:5">
+      <c r="A44" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B44" s="28">
+        <v>10326463</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:5">
+      <c r="A45" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B45" s="28">
+        <v>10332567</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E45" s="29">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:5">
+      <c r="A46" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B46" s="28">
+        <v>10326484</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E46" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:5">
+      <c r="A47" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B47" s="28">
+        <v>10326502</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E47" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B48" s="28">
+        <v>10327586</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B49" s="28">
+        <v>10327588</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E49" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B50" s="28">
+        <v>10330150</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E50" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B51" s="28">
+        <v>10330149</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B52" s="28">
+        <v>10331077</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:5">
+      <c r="A53" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B53" s="28">
+        <v>10331078</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E53" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:5">
+      <c r="A54" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B54" s="28">
+        <v>10314749</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:5">
+      <c r="A55" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B55" s="28">
+        <v>10332544</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:5">
+      <c r="A56" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B56" s="28">
+        <v>10332517</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:5">
+      <c r="A57" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B57" s="28">
+        <v>10332480</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:5">
+      <c r="A58" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B58" s="28">
+        <v>10332681</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E58" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:5">
+      <c r="A59" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B59" s="28">
+        <v>10332555</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E59" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B60" s="28">
+        <v>10332548</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E60" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B61" s="28">
+        <v>10332515</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E61" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:5">
+      <c r="A62" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B62" s="28">
+        <v>10332482</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E62" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:5">
+      <c r="A63" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B63" s="28">
         <v>10332478</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E34" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B35" s="34">
-        <v>10333416</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E35" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B36" s="34">
-        <v>10333417</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E36" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B37" s="34">
-        <v>10333396</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E37" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B38" s="36">
-        <v>10333426</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E38" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B39" s="34">
-        <v>10333437</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E39" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B40" s="34">
-        <v>10333436</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B41" s="34">
-        <v>10334342</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E41" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B42" s="34">
-        <v>10334370</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E42" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B43" s="34">
-        <v>10318448</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E43" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B44" s="34">
-        <v>10334449</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E44" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B45" s="34">
-        <v>10334451</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E45" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B46" s="34">
-        <v>10334398</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B47" s="34">
-        <v>10334368</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E47" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:5">
-      <c r="A48" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B48" s="34">
-        <v>10334393</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E48" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:5">
-      <c r="A49" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B49" s="34">
-        <v>10334372</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E49" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:5">
-      <c r="A50" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B50" s="34">
-        <v>10334476</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E50" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:5">
-      <c r="A51" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B51" s="34">
-        <v>10334359</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E51" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:5">
-      <c r="A52" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B52" s="34">
-        <v>10334423</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:5">
-      <c r="A53" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B53" s="34">
-        <v>10334401</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E53" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:5">
-      <c r="A54" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B54" s="34">
-        <v>10334475</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:5">
-      <c r="A55" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B55" s="34">
-        <v>10334395</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E55" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:5">
-      <c r="A56" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B56" s="34">
-        <v>10334465</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E56" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:5">
-      <c r="A57" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B57" s="34">
-        <v>10334367</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:5">
-      <c r="A58" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B58" s="34">
-        <v>10334381</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E58" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:5">
-      <c r="A59" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B59" s="34">
-        <v>10334469</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B60" s="34">
-        <v>10334375</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:5">
-      <c r="A61" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B61" s="34">
-        <v>10334374</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E61" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:5">
-      <c r="A62" s="33">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B62" s="34">
-        <v>10330637</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="35">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E62" s="35">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:5">
-      <c r="A63" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B63" s="34">
-        <v>10314762</v>
-      </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E63" s="35">
+      <c r="D63" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E63" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:5">
+      <c r="A64" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B64" s="28">
+        <v>10332550</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E64" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:5">
+      <c r="A65" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B65" s="28">
+        <v>10333439</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E65" s="29">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:5">
+      <c r="A66" s="27">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B66" s="42">
+        <v>10282848</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="29">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E66" s="29">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" ht="15.25" spans="1:5">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="44"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="45"/>
+    </row>
+    <row r="71" ht="15.25" spans="1:4">
+      <c r="A71" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="49">
+        <v>45851</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" hidden="1" spans="1:4">
+      <c r="A72" s="51">
+        <v>10303779</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="53">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="51">
+        <v>10304619</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="53">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" hidden="1" spans="1:4">
+      <c r="A74" s="51">
+        <v>10281108</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="53">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:4">
+      <c r="A75" s="51">
+        <v>10312258</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="53">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" hidden="1" spans="1:4">
+      <c r="A76" s="51">
+        <v>10284489</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="53">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" hidden="1" spans="1:4">
+      <c r="A77" s="51">
+        <v>10303751</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" hidden="1" spans="1:4">
+      <c r="A78" s="51">
+        <v>10292718</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="53">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" hidden="1" spans="1:4">
+      <c r="A79" s="51">
+        <v>10254389</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="53">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:5">
-      <c r="A64" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B64" s="34">
-        <v>10330510</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E64" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:5">
-      <c r="A65" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B65" s="34">
-        <v>10331785</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E65" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:5">
-      <c r="A66" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="B66" s="34">
-        <v>10331082</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="35">
-        <v>0.375</v>
-      </c>
-      <c r="E66" s="35">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:5">
-      <c r="A67" s="33">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B67" s="34">
-        <v>10326463</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="35">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E67" s="35">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:5">
-      <c r="A68" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B68" s="34">
-        <v>10273387</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E68" s="35">
+      <c r="D79" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" hidden="1" spans="1:4">
+      <c r="A80" s="51">
+        <v>10309113</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="53">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:5">
-      <c r="A69" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B69" s="34">
-        <v>10326484</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E69" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:5">
-      <c r="A70" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B70" s="34">
-        <v>10327586</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E70" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:5">
-      <c r="A71" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B71" s="34">
-        <v>10327588</v>
-      </c>
-      <c r="C71" s="34" t="s">
+      <c r="D80" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E71" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:5">
-      <c r="A72" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B72" s="34">
-        <v>10331078</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E72" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B73" s="34">
-        <v>10332544</v>
-      </c>
-      <c r="C73" s="34" t="s">
+    </row>
+    <row r="81" ht="15.25" hidden="1" spans="1:4">
+      <c r="A81" s="51">
+        <v>10307947</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" hidden="1" spans="1:4">
+      <c r="A82" s="51">
+        <v>10276035</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:4">
+      <c r="A83" s="51">
+        <v>10245223</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E73" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B74" s="47">
-        <v>10332548</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E74" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B75" s="34">
-        <v>10332482</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E75" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:5">
-      <c r="A76" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B76" s="34">
-        <v>10332550</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E76" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:5">
-      <c r="A77" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B77" s="34">
-        <v>10333439</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E77" s="35">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="33">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B78" s="48">
-        <v>10282848</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="35">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="E78" s="35">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" ht="15.25" spans="1:5">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" ht="15.25" spans="1:5">
-      <c r="A82" s="50"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" s="51"/>
-      <c r="E82"/>
-    </row>
-    <row r="83" ht="15.25" spans="1:5">
-      <c r="A83" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="55">
-        <v>45849</v>
-      </c>
-      <c r="D83" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83"/>
-    </row>
-    <row r="84" ht="15.25" hidden="1" spans="1:5">
-      <c r="A84" s="57">
-        <v>10276035</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="59">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D84" s="60" t="s">
+    </row>
+    <row r="84" ht="15.25" hidden="1" spans="1:4">
+      <c r="A84" s="51">
+        <v>10272473</v>
+      </c>
+      <c r="B84" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" ht="15.25" spans="1:4">
-      <c r="A85" s="57">
-        <v>10245223</v>
-      </c>
-      <c r="B85" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="59">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D85" s="60" t="s">
+      <c r="C84" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" hidden="1" spans="1:4">
+      <c r="A85" s="51">
+        <v>10326982</v>
+      </c>
+      <c r="B85" s="52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="86" ht="15.25" spans="1:4">
-      <c r="A86" s="57">
-        <v>10312258</v>
-      </c>
-      <c r="B86" s="58" t="s">
+      <c r="C85" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" ht="15.25" hidden="1" spans="1:4">
+      <c r="A86" s="51">
+        <v>10224237</v>
+      </c>
+      <c r="B86" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="59">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D86" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" ht="15.25" hidden="1" spans="1:4">
-      <c r="A87" s="57">
-        <v>10272473</v>
-      </c>
-      <c r="B87" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="59">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D87" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" ht="15.25" hidden="1" spans="1:4">
-      <c r="A88" s="57">
-        <v>10307947</v>
-      </c>
-      <c r="B88" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="D88" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" ht="15.25" hidden="1" spans="1:4">
-      <c r="A89" s="57">
-        <v>10303751</v>
-      </c>
-      <c r="B89" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="D89" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" ht="15.25" hidden="1" spans="1:4">
-      <c r="A90" s="57">
-        <v>10254389</v>
-      </c>
-      <c r="B90" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" s="59">
-        <v>0.75</v>
-      </c>
-      <c r="D90" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" ht="15.25" hidden="1" spans="1:4">
-      <c r="A91" s="57">
-        <v>10309113</v>
-      </c>
-      <c r="B91" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="59">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D91" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" ht="15.25" spans="1:4">
-      <c r="A92" s="57">
-        <v>10281108</v>
-      </c>
-      <c r="B92" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" ht="15.25" hidden="1" spans="1:4">
-      <c r="A93" s="57">
-        <v>10292718</v>
-      </c>
-      <c r="B93" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" ht="15.25" hidden="1" spans="1:4">
-      <c r="A94" s="57">
-        <v>10284489</v>
-      </c>
-      <c r="B94" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" ht="15.25" hidden="1" spans="1:4">
-      <c r="A95" s="57">
-        <v>10303779</v>
-      </c>
-      <c r="B95" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" ht="15.25" spans="1:4">
-      <c r="A96" s="57">
-        <v>10304619</v>
-      </c>
-      <c r="B96" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" ht="15.25" hidden="1" spans="1:4">
-      <c r="A97" s="62"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="64"/>
-    </row>
-    <row r="98" ht="15.25" hidden="1" spans="1:4">
-      <c r="A98" s="57">
-        <v>10326982</v>
-      </c>
-      <c r="B98" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="59">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D98" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" ht="15.25" hidden="1" spans="1:4">
-      <c r="A99" s="57">
-        <v>10224237</v>
-      </c>
-      <c r="B99" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="60" t="s">
-        <v>103</v>
-      </c>
+      <c r="C86" s="53">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A83:D99" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A71:D86" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$90:$D$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$89:$D$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="123">
   <si>
     <t>Details</t>
   </si>
@@ -134,6 +134,9 @@
     <t>Alhaj Ashraf</t>
   </si>
   <si>
+    <t>Marina Tharwat</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -146,40 +149,37 @@
     <t>Salah Elseesy</t>
   </si>
   <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
     <t>Aya Ashraf</t>
   </si>
   <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
     <t>Amira Daashoush</t>
   </si>
   <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
     <t>Aya Mohamed</t>
   </si>
   <si>
     <t>Fatma El Gharably</t>
   </si>
   <si>
+    <t>Faris Muamar</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
+  </si>
+  <si>
     <t>Mostafa Alaa</t>
   </si>
   <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
     <t>Mustafa Mohamed</t>
   </si>
   <si>
-    <t>Maher Ali Dahab</t>
+    <t>Afraa Hatim</t>
   </si>
   <si>
     <t>Aisha Mohammed</t>
@@ -248,109 +248,106 @@
     <t>Sherif Zaki</t>
   </si>
   <si>
+    <t>Donia Gamal Hassan</t>
+  </si>
+  <si>
+    <t>Nour Hossam</t>
+  </si>
+  <si>
+    <t>Mathew Emad</t>
+  </si>
+  <si>
+    <t>Timothy Moody</t>
+  </si>
+  <si>
+    <t>Ahmed Gobba</t>
+  </si>
+  <si>
+    <t>Mostafa Ayman</t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t>Duaa Abdelfattah</t>
+  </si>
+  <si>
+    <t>Ahmad Ali</t>
+  </si>
+  <si>
+    <t>Ali Ahmed</t>
+  </si>
+  <si>
+    <t>Kerollos Magdy</t>
+  </si>
+  <si>
+    <t>Nouran Nezar</t>
+  </si>
+  <si>
+    <t>Mohamed Samir</t>
+  </si>
+  <si>
+    <t>Yousra Ehab</t>
+  </si>
+  <si>
+    <t>Safa Mohamed</t>
+  </si>
+  <si>
+    <t>Naba Faisal</t>
+  </si>
+  <si>
+    <t>Saleh Mostafa</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
+    <t>Akram Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamel</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
     <t>Omer Alsadig Alfadil</t>
   </si>
   <si>
-    <t>Donia Gamal Hassan</t>
-  </si>
-  <si>
-    <t>Nour Hossam</t>
-  </si>
-  <si>
-    <t>Mathew Emad</t>
-  </si>
-  <si>
-    <t>Timothy Moody</t>
-  </si>
-  <si>
-    <t>Ahmed Gobba</t>
-  </si>
-  <si>
-    <t>Mostafa Ayman</t>
-  </si>
-  <si>
-    <t>Mostafa Mahmoud</t>
-  </si>
-  <si>
-    <t>Duaa Abdelfattah</t>
-  </si>
-  <si>
-    <t>Ahmad Ali</t>
-  </si>
-  <si>
-    <t>Ali Ahmed</t>
-  </si>
-  <si>
-    <t>Kerollos Magdy</t>
-  </si>
-  <si>
-    <t>Nouran Nezar</t>
-  </si>
-  <si>
-    <t>Mohamed Samir</t>
-  </si>
-  <si>
-    <t>Yousra Ehab</t>
-  </si>
-  <si>
-    <t>Safa Mohamed</t>
-  </si>
-  <si>
-    <t>Naba Faisal</t>
-  </si>
-  <si>
-    <t>Saleh Mostafa</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Alaa Karam</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamel</t>
-  </si>
-  <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Wed</t>
+    <t>Thu</t>
   </si>
   <si>
     <t>Site</t>
@@ -362,40 +359,40 @@
     <t>Smart.V</t>
   </si>
   <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Mohamed Younes</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
     <t>Ziad Mohamed</t>
   </si>
   <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
     <t>Aya Shehabeldin</t>
   </si>
   <si>
-    <t>Mohamed Younes</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
     <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -417,7 +414,7 @@
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,33 +496,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -672,7 +647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,31 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA4335"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34A853"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
+        <fgColor rgb="FFFE002F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1038,21 +989,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -1098,6 +1034,21 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thick">
@@ -1138,36 +1089,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,137 +1210,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,22 +1392,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,15 +1416,18 @@
     <xf numFmtId="180" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1513,50 +1437,23 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="35" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1828,6 +1725,7 @@
   <colors>
     <mruColors>
       <color rgb="00DD5A21"/>
+      <color rgb="00FE002F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2096,10 +1994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2196,7 +2094,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2249,7 +2147,7 @@
       <c r="P3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2302,7 +2200,7 @@
       <c r="P4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2461,7 +2359,7 @@
       <c r="P7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2493,11 +2391,11 @@
       <c r="I8" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="J8" s="12">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.708333333333333</v>
+      <c r="J8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="L8" s="12">
         <v>0.333333333333333</v>
@@ -2514,7 +2412,7 @@
       <c r="P8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2567,7 +2465,7 @@
       <c r="P9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2620,7 +2518,7 @@
       <c r="P10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2673,7 +2571,7 @@
       <c r="P11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2726,7 +2624,7 @@
       <c r="P12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2779,7 +2677,7 @@
       <c r="P13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2832,11 +2730,11 @@
       <c r="P14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:17">
+      <c r="Q14" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:17">
       <c r="A15" s="10">
         <v>10282852</v>
       </c>
@@ -2885,11 +2783,11 @@
       <c r="P15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="13.75" spans="1:13">
+      <c r="Q15" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="13.75" spans="1:17">
       <c r="A16" s="15">
         <v>10295540</v>
       </c>
@@ -2899,53 +2797,120 @@
       <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19">
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="17">
         <v>0.375</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>0.75</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" ht="15.25"/>
-    <row r="18" spans="1:4">
-      <c r="A18" s="20" t="s">
+      <c r="J16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:17">
+      <c r="A17" s="18">
+        <v>10304633</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="28">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="22">
-        <v>10318450</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="22">
-        <v>10304629</v>
+        <v>10318450</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>38</v>
@@ -2959,7 +2924,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="22">
-        <v>10320448</v>
+        <v>10251309</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>39</v>
@@ -2973,7 +2938,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="22">
-        <v>10251309</v>
+        <v>10327594</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>40</v>
@@ -3015,7 +2980,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="22">
-        <v>10330149</v>
+        <v>10299934</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>43</v>
@@ -3029,7 +2994,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="22">
-        <v>10299934</v>
+        <v>10331475</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>44</v>
@@ -3043,7 +3008,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="22">
-        <v>10331475</v>
+        <v>10332480</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
@@ -3056,8 +3021,8 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22">
-        <v>10333396</v>
+      <c r="A28" s="25">
+        <v>10333417</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>46</v>
@@ -3071,7 +3036,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="22">
-        <v>10333426</v>
+        <v>10333396</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>47</v>
@@ -3098,8 +3063,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="25">
-        <v>10333435</v>
+      <c r="A31" s="22">
+        <v>10333437</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>49</v>
@@ -3421,7 +3386,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="22">
-        <v>10330637</v>
+        <v>10299935</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>72</v>
@@ -3435,7 +3400,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="22">
-        <v>10299935</v>
+        <v>10334834</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>73</v>
@@ -3449,7 +3414,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="22">
-        <v>10334834</v>
+        <v>10334832</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>74</v>
@@ -3463,7 +3428,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="22">
-        <v>10334832</v>
+        <v>10334828</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>75</v>
@@ -3477,7 +3442,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="22">
-        <v>10334828</v>
+        <v>10334790</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>76</v>
@@ -3491,7 +3456,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="22">
-        <v>10334790</v>
+        <v>10334780</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>77</v>
@@ -3505,7 +3470,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="23">
-        <v>10334780</v>
+        <v>10334779</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>78</v>
@@ -3519,7 +3484,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="22">
-        <v>10334779</v>
+        <v>10334778</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>79</v>
@@ -3533,7 +3498,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="22">
-        <v>10334778</v>
+        <v>10334777</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>80</v>
@@ -3547,7 +3512,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="22">
-        <v>10334777</v>
+        <v>10334773</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>81</v>
@@ -3561,7 +3526,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="23">
-        <v>10334773</v>
+        <v>10334771</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>82</v>
@@ -3575,7 +3540,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="22">
-        <v>10334771</v>
+        <v>10334844</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>83</v>
@@ -3589,7 +3554,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="22">
-        <v>10334844</v>
+        <v>10334743</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>84</v>
@@ -3602,8 +3567,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="30">
-        <v>10334743</v>
+      <c r="A67" s="31">
+        <v>10334744</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>85</v>
@@ -3617,7 +3582,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="23">
-        <v>10334744</v>
+        <v>10334741</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>86</v>
@@ -3631,7 +3596,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="22">
-        <v>10334741</v>
+        <v>10334740</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>87</v>
@@ -3645,7 +3610,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="22">
-        <v>10334740</v>
+        <v>10334737</v>
       </c>
       <c r="B70" s="23" t="s">
         <v>88</v>
@@ -3659,49 +3624,49 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="22">
-        <v>10334737</v>
+        <v>10282848</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C71" s="24">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D71" s="24">
-        <v>0.708333333333333</v>
+        <v>0.791666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="22">
-        <v>10331785</v>
+        <v>10273387</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="24">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D72" s="24">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="22">
-        <v>10332567</v>
+        <v>10324431</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="24">
-        <v>0.458333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D73" s="24">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="22">
-        <v>10273387</v>
+        <v>10326484</v>
       </c>
       <c r="B74" s="23" t="s">
         <v>92</v>
@@ -3715,7 +3680,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="22">
-        <v>10314762</v>
+        <v>10326502</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>93</v>
@@ -3729,7 +3694,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="22">
-        <v>10326502</v>
+        <v>10330150</v>
       </c>
       <c r="B76" s="23" t="s">
         <v>94</v>
@@ -3743,7 +3708,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="22">
-        <v>10327594</v>
+        <v>10331077</v>
       </c>
       <c r="B77" s="23" t="s">
         <v>95</v>
@@ -3757,7 +3722,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="22">
-        <v>10330150</v>
+        <v>10331078</v>
       </c>
       <c r="B78" s="23" t="s">
         <v>96</v>
@@ -3771,7 +3736,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="22">
-        <v>10331077</v>
+        <v>10314749</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>97</v>
@@ -3785,7 +3750,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="22">
-        <v>10331078</v>
+        <v>10332557</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>98</v>
@@ -3799,7 +3764,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="22">
-        <v>10314749</v>
+        <v>10332517</v>
       </c>
       <c r="B81" s="23" t="s">
         <v>99</v>
@@ -3813,7 +3778,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="22">
-        <v>10332557</v>
+        <v>10332681</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>100</v>
@@ -3827,7 +3792,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="22">
-        <v>10332517</v>
+        <v>10332555</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>101</v>
@@ -3841,7 +3806,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="22">
-        <v>10332480</v>
+        <v>10332548</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>102</v>
@@ -3855,7 +3820,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="22">
-        <v>10332681</v>
+        <v>10332482</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>103</v>
@@ -3869,7 +3834,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="22">
-        <v>10332555</v>
+        <v>10330637</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>104</v>
@@ -3881,261 +3846,240 @@
         <v>0.958333333333333</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="22">
-        <v>10332515</v>
-      </c>
-      <c r="B87" s="23" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="24">
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="35">
+        <v>45855</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="1:4">
+      <c r="A90" s="36">
+        <v>10276035</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="37">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="36">
+        <v>10245223</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="37">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:4">
+      <c r="A92" s="36">
+        <v>10254389</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="37">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:4">
+      <c r="A93" s="36">
+        <v>10272473</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D93" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="36">
+        <v>10312258</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="37">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:4">
+      <c r="A95" s="36">
+        <v>10303751</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:4">
+      <c r="A96" s="36">
+        <v>10284489</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="37">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:4">
+      <c r="A97" s="36">
+        <v>10292718</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="1:4">
+      <c r="A98" s="36">
+        <v>10307947</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="37">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="88" ht="15.25"/>
-    <row r="89" ht="15.25" spans="1:4">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="33"/>
-    </row>
-    <row r="90" ht="15.25" spans="1:4">
-      <c r="A90" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="36">
-        <v>45854</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" ht="15.25" hidden="1" spans="1:4">
-      <c r="A91" s="38">
-        <v>10276035</v>
-      </c>
-      <c r="B91" s="39" t="s">
+      <c r="D98" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="40">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D91" s="41" t="s">
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="36">
+        <v>10281108</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" ht="15.25" spans="1:4">
-      <c r="A92" s="38">
-        <v>10281108</v>
-      </c>
-      <c r="B92" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="40">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" ht="15.25" spans="1:4">
-      <c r="A93" s="38">
-        <v>10245223</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" ht="15.25" hidden="1" spans="1:4">
-      <c r="A94" s="38">
-        <v>10254389</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="40">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D94" s="41" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="36">
+        <v>10304619</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" ht="15.25" spans="1:4">
-      <c r="A95" s="38">
-        <v>10304619</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="40">
+    <row r="101" hidden="1" spans="1:4">
+      <c r="A101" s="36">
+        <v>10303779</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:4">
+      <c r="A102" s="36">
+        <v>10309113</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:4">
+      <c r="A103" s="36">
+        <v>10326982</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="37">
         <v>0.583333333333333</v>
       </c>
-      <c r="D95" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" ht="15.25" hidden="1" spans="1:4">
-      <c r="A96" s="38">
-        <v>10272473</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="40">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" ht="15.25" hidden="1" spans="1:4">
-      <c r="A97" s="38">
-        <v>10292718</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" ht="15.25" hidden="1" spans="1:4">
-      <c r="A98" s="38">
-        <v>10303751</v>
-      </c>
-      <c r="B98" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" ht="15.25" hidden="1" spans="1:4">
-      <c r="A99" s="38">
-        <v>10284489</v>
-      </c>
-      <c r="B99" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="40">
+      <c r="D103" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:4">
+      <c r="A104" s="36">
+        <v>10224237</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="37">
         <v>0.666666666666667</v>
       </c>
-      <c r="D99" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" ht="15.25" hidden="1" spans="1:4">
-      <c r="A100" s="38">
-        <v>10307947</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="40">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" ht="15.25" hidden="1" spans="1:4">
-      <c r="A101" s="38">
-        <v>10303779</v>
-      </c>
-      <c r="B101" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="40">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" ht="15.25" hidden="1" spans="1:4">
-      <c r="A102" s="38">
-        <v>10309113</v>
-      </c>
-      <c r="B102" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" ht="15.25" spans="1:4">
-      <c r="A103" s="38">
-        <v>10312258</v>
-      </c>
-      <c r="B103" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" ht="15.25" hidden="1" spans="1:4">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="45"/>
-    </row>
-    <row r="105" ht="15.25" hidden="1" spans="1:4">
-      <c r="A105" s="38">
-        <v>10326982</v>
-      </c>
-      <c r="B105" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="40">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D105" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" ht="15.25" hidden="1" spans="1:4">
-      <c r="A106" s="38">
-        <v>10224237</v>
-      </c>
-      <c r="B106" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="40">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>109</v>
+      <c r="D104" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A90:D106" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A89:D104" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$89:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$91:$D$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
   <si>
     <t>Details</t>
   </si>
@@ -137,6 +137,9 @@
     <t>Marina Tharwat</t>
   </si>
   <si>
+    <t>Shift</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -149,25 +152,28 @@
     <t>Salah Elseesy</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
+    <t>Belal Karam Fawzy Qassem</t>
   </si>
   <si>
     <t>Youssef Khalid</t>
   </si>
   <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
     <t>Hagar Ayman</t>
   </si>
   <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
     <t>Aya Mohamed</t>
   </si>
   <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
     <t>Fatma El Gharably</t>
   </si>
   <si>
-    <t>Faris Muamar</t>
+    <t>Passant Ahmed Samir</t>
   </si>
   <si>
     <t>Mariam Abu Bakr</t>
@@ -176,7 +182,7 @@
     <t>Mostafa Alaa</t>
   </si>
   <si>
-    <t>Mustafa Mohamed</t>
+    <t>Mohab Alaa</t>
   </si>
   <si>
     <t>Afraa Hatim</t>
@@ -248,6 +254,9 @@
     <t>Sherif Zaki</t>
   </si>
   <si>
+    <t>Omer Alsadig Alfadil</t>
+  </si>
+  <si>
     <t>Donia Gamal Hassan</t>
   </si>
   <si>
@@ -299,43 +308,37 @@
     <t>Saleh Mostafa</t>
   </si>
   <si>
+    <t>Yomna Salah</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
+  </si>
+  <si>
     <t>Esraa mohamed</t>
   </si>
   <si>
     <t>Rawya Alor Biong</t>
   </si>
   <si>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
     <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
   </si>
   <si>
     <t>Mahmoud Kamel</t>
   </si>
   <si>
-    <t>Lina Essam</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
+    <t>William Gilada</t>
   </si>
   <si>
     <t>Huda Ezz</t>
@@ -344,10 +347,16 @@
     <t>Aldur Alsafy</t>
   </si>
   <si>
-    <t>Omer Alsadig Alfadil</t>
-  </si>
-  <si>
-    <t>Thu</t>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
   <si>
     <t>Site</t>
@@ -374,15 +383,18 @@
     <t>Ahmed Fahmy</t>
   </si>
   <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
     <t>Hamdy Attia</t>
   </si>
   <si>
     <t>Esraa Ibrahim</t>
   </si>
   <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
     <t>Ziad Mohamed</t>
   </si>
   <si>
@@ -390,9 +402,6 @@
   </si>
   <si>
     <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -414,7 +423,7 @@
     <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,11 +505,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -647,7 +685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,7 +736,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFE002F"/>
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1093,6 +1155,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1210,137 +1302,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,16 +1490,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1505,7 @@
     <xf numFmtId="180" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,23 +1526,53 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1994,10 +2113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:C94"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2040,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="5"/>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="6" t="s">
@@ -2094,7 +2213,7 @@
       <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2138,16 +2257,16 @@
       <c r="M3" s="12">
         <v>0.75</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="30" t="s">
+      <c r="N3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2186,21 +2305,21 @@
         <v>0.75</v>
       </c>
       <c r="L4" s="12">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="M4" s="12">
         <v>0.75</v>
       </c>
-      <c r="N4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="30" t="s">
+      <c r="N4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2239,25 +2358,25 @@
         <v>0.833333333333333</v>
       </c>
       <c r="L5" s="12">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="M5" s="12">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.75" customHeight="1" spans="1:17">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:17">
       <c r="A6" s="10">
         <v>10325072</v>
       </c>
@@ -2297,16 +2416,16 @@
       <c r="M6" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="27" t="s">
+      <c r="N6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2350,16 +2469,16 @@
       <c r="M7" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="30" t="s">
+      <c r="N7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2398,21 +2517,21 @@
         <v>15</v>
       </c>
       <c r="L8" s="12">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="M8" s="12">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="30" t="s">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2456,16 +2575,16 @@
       <c r="M9" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="30" t="s">
+      <c r="N9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2504,21 +2623,21 @@
         <v>0.75</v>
       </c>
       <c r="L10" s="12">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M10" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="30" t="s">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2562,16 +2681,16 @@
       <c r="M11" s="13">
         <v>0.708333333333333</v>
       </c>
-      <c r="N11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="30" t="s">
+      <c r="N11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2615,16 +2734,16 @@
       <c r="M12" s="13">
         <v>0.708333333333333</v>
       </c>
-      <c r="N12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="30" t="s">
+      <c r="N12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2668,16 +2787,16 @@
       <c r="M13" s="13">
         <v>0.708333333333333</v>
       </c>
-      <c r="N13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="30" t="s">
+      <c r="N13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2721,16 +2840,16 @@
       <c r="M14" s="13">
         <v>0.708333333333333</v>
       </c>
-      <c r="N14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="30" t="s">
+      <c r="N14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2774,16 +2893,16 @@
       <c r="M15" s="13">
         <v>0.708333333333333</v>
       </c>
-      <c r="N15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="30" t="s">
+      <c r="N15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2821,22 +2940,22 @@
       <c r="K16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" s="30" t="s">
+      <c r="L16" s="12">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2844,10 +2963,10 @@
       <c r="A17" s="18">
         <v>10304633</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -2868,10 +2987,10 @@
       <c r="I17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="27">
         <v>0.416666666666667</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>0.791666666666667</v>
       </c>
       <c r="L17" s="12" t="s">
@@ -2880,1206 +2999,1450 @@
       <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25"/>
-    <row r="19" spans="1:4">
-      <c r="A19" s="20" t="s">
+      <c r="N17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B20" s="22">
+        <v>10318450</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B21" s="22">
+        <v>10323547</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B22" s="22">
+        <v>10327594</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B23" s="22">
+        <v>10329911</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B24" s="22">
+        <v>10329943</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B25" s="22">
+        <v>10299934</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B26" s="22">
+        <v>10331082</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B27" s="22">
+        <v>10331475</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B28" s="22">
+        <v>10333416</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B29" s="24">
+        <v>10333417</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B30" s="22">
+        <v>10333396</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B31" s="22">
+        <v>10333426</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B32" s="22">
+        <v>10333437</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B33" s="22">
+        <v>10333436</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B34" s="22">
+        <v>10334342</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B35" s="22">
+        <v>10334370</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B36" s="22">
+        <v>10318448</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B37" s="22">
+        <v>10334449</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B38" s="22">
+        <v>10334451</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B39" s="22">
+        <v>10334398</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B40" s="22">
+        <v>10334368</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B41" s="22">
+        <v>10334393</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B42" s="22">
+        <v>10334372</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B43" s="22">
+        <v>10334476</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B44" s="22">
+        <v>10334359</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B45" s="22">
+        <v>10334423</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B46" s="22">
+        <v>10334401</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B47" s="22">
+        <v>10334475</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B48" s="22">
+        <v>10334395</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B49" s="22">
+        <v>10334465</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E49" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B50" s="22">
+        <v>10334367</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B51" s="22">
+        <v>10334381</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B52" s="22">
+        <v>10334469</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B53" s="22">
+        <v>10334375</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E53" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B54" s="22">
+        <v>10334374</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B55" s="22">
+        <v>10330637</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B56" s="22">
+        <v>10299935</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B57" s="22">
+        <v>10334834</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B58" s="22">
+        <v>10334832</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B59" s="22">
+        <v>10334828</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B60" s="22">
+        <v>10334790</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B61" s="22">
+        <v>10334780</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B62" s="22">
+        <v>10334779</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B63" s="22">
+        <v>10334778</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B64" s="22">
+        <v>10334777</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B65" s="22">
+        <v>10334773</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E65" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B66" s="22">
+        <v>10334771</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E66" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B67" s="30">
+        <v>10334844</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E67" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B68" s="22">
+        <v>10334743</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E68" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B69" s="22">
+        <v>10334744</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E69" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B70" s="22">
+        <v>10334741</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B71" s="22">
+        <v>10334740</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E71" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B72" s="22">
+        <v>10334737</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B73" s="22">
+        <v>10316242</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="23">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E73" s="23">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B74" s="22">
+        <v>10326463</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="23">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E74" s="23">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B75" s="22">
+        <v>10282848</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E75" s="23">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B76" s="22">
+        <v>10273387</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B77" s="22">
+        <v>10314762</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E77" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B78" s="22">
+        <v>10324431</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E78" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B79" s="22">
+        <v>10326484</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E79" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B80" s="22">
+        <v>10327586</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E80" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B81" s="22">
+        <v>10327588</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E81" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B82" s="22">
+        <v>10331078</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E82" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B83" s="22">
+        <v>10332544</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E83" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B84" s="22">
+        <v>10332548</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E84" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B85" s="22">
+        <v>10332482</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E85" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B86" s="22">
+        <v>10332478</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E86" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B87" s="22">
+        <v>10332550</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E87" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B88" s="31">
+        <v>10333439</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="23">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E88" s="23">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="89" ht="15.25"/>
+    <row r="90" ht="15.25" spans="1:4">
+      <c r="A90" s="32"/>
+      <c r="B90" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="34"/>
+    </row>
+    <row r="91" ht="15.25" spans="1:4">
+      <c r="A91" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="22">
-        <v>10318450</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="22">
-        <v>10251309</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="22">
-        <v>10327594</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="22">
-        <v>10328665</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="22">
-        <v>10329911</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="22">
-        <v>10299934</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="22">
-        <v>10331475</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="22">
-        <v>10332480</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25">
-        <v>10333417</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="22">
-        <v>10333396</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="22">
-        <v>10333432</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="22">
-        <v>10333437</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="22">
-        <v>10333436</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="22">
-        <v>10334342</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="22">
-        <v>10334370</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="22">
-        <v>10318448</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="22">
-        <v>10334449</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="22">
-        <v>10334451</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="22">
-        <v>10334398</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="22">
-        <v>10334368</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="22">
-        <v>10334393</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="22">
-        <v>10334372</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="22">
-        <v>10334476</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="22">
-        <v>10334359</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="22">
-        <v>10334423</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="22">
-        <v>10334401</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="22">
-        <v>10334475</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="22">
-        <v>10334395</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="22">
-        <v>10334465</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="22">
-        <v>10334367</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="22">
-        <v>10334381</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="22">
-        <v>10334469</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="22">
-        <v>10334375</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="22">
-        <v>10334374</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D53" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="22">
-        <v>10299935</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="22">
-        <v>10334834</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="22">
-        <v>10334832</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="22">
-        <v>10334828</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D57" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="22">
-        <v>10334790</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="22">
-        <v>10334780</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D59" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="23">
-        <v>10334779</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D60" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="22">
-        <v>10334778</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D61" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="22">
-        <v>10334777</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D62" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="22">
-        <v>10334773</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D63" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="23">
-        <v>10334771</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D64" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="22">
-        <v>10334844</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D65" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="22">
-        <v>10334743</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D66" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="31">
-        <v>10334744</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D67" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="23">
-        <v>10334741</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D68" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="22">
-        <v>10334740</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D69" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="22">
-        <v>10334737</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="24">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D70" s="24">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="22">
-        <v>10282848</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="24">
+      <c r="B91" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="37">
+        <v>45856</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" hidden="1" spans="1:4">
+      <c r="A92" s="39">
+        <v>10276035</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="39">
+        <v>10245223</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="41">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" hidden="1" spans="1:4">
+      <c r="A94" s="39">
+        <v>10254389</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="41">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" hidden="1" spans="1:4">
+      <c r="A95" s="39">
+        <v>10272473</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D71" s="24">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="22">
-        <v>10273387</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="24">
+      <c r="D95" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="1:4">
+      <c r="A96" s="39">
+        <v>10312258</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D96" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" hidden="1" spans="1:4">
+      <c r="A97" s="39">
+        <v>10303751</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" hidden="1" spans="1:4">
+      <c r="A98" s="39">
+        <v>10309113</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" hidden="1" spans="1:4">
+      <c r="A99" s="39">
+        <v>10307947</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="41">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="22">
-        <v>10324431</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="24">
+      <c r="D99" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" hidden="1" spans="1:4">
+      <c r="A100" s="39">
+        <v>10284489</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" hidden="1" spans="1:4">
+      <c r="A101" s="39">
+        <v>10292718</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" ht="15.25" spans="1:4">
+      <c r="A102" s="39">
+        <v>10281108</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" ht="15.25" spans="1:4">
+      <c r="A103" s="39">
+        <v>10304619</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" ht="15.25" hidden="1" spans="1:4">
+      <c r="A104" s="39">
+        <v>10303779</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" hidden="1" spans="1:4">
+      <c r="A105" s="44"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="46"/>
+    </row>
+    <row r="106" ht="15.25" hidden="1" spans="1:4">
+      <c r="A106" s="39">
+        <v>10326982</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="41">
         <v>0.583333333333333</v>
       </c>
-      <c r="D73" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="22">
-        <v>10326484</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D74" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="22">
-        <v>10326502</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="22">
-        <v>10330150</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D76" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="22">
-        <v>10331077</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D77" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="22">
-        <v>10331078</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D78" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="22">
-        <v>10314749</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D79" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="22">
-        <v>10332557</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D80" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="22">
-        <v>10332517</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D81" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="22">
-        <v>10332681</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D82" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="22">
-        <v>10332555</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D83" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="22">
-        <v>10332548</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D84" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="22">
-        <v>10332482</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D85" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="22">
-        <v>10330637</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="24">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D86" s="24">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="35">
-        <v>45855</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="1:4">
-      <c r="A90" s="36">
-        <v>10276035</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="36">
-        <v>10245223</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="37">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" spans="1:4">
-      <c r="A92" s="36">
-        <v>10254389</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="37">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" spans="1:4">
-      <c r="A93" s="36">
-        <v>10272473</v>
-      </c>
-      <c r="B93" s="36" t="s">
+      <c r="D106" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="36">
-        <v>10312258</v>
-      </c>
-      <c r="B94" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:4">
-      <c r="A95" s="36">
-        <v>10303751</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="37">
-        <v>0.625</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" spans="1:4">
-      <c r="A96" s="36">
-        <v>10284489</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" spans="1:4">
-      <c r="A97" s="36">
-        <v>10292718</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" spans="1:4">
-      <c r="A98" s="36">
-        <v>10307947</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="36">
-        <v>10281108</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="36">
-        <v>10304619</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" spans="1:4">
-      <c r="A101" s="36">
-        <v>10303779</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" hidden="1" spans="1:4">
-      <c r="A102" s="36">
-        <v>10309113</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" hidden="1" spans="1:4">
-      <c r="A103" s="36">
-        <v>10326982</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" hidden="1" spans="1:4">
-      <c r="A104" s="36">
+    </row>
+    <row r="107" ht="15.25" hidden="1" spans="1:4">
+      <c r="A107" s="39">
         <v>10224237</v>
       </c>
-      <c r="B104" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="37">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>108</v>
+      <c r="B107" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A89:D104" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A91:D107" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$95:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$104:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
   <si>
     <t>Details</t>
   </si>
@@ -125,6 +125,21 @@
     <t>Aboul Alor</t>
   </si>
   <si>
+    <t>Mohammed Saeed</t>
+  </si>
+  <si>
+    <t>QAL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Marina Tharwat</t>
+  </si>
+  <si>
+    <t>Alhaj Ashraf</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -143,6 +158,21 @@
     <t>Ziyad Sherif (NST)</t>
   </si>
   <si>
+    <t>Marwan Wael</t>
+  </si>
+  <si>
+    <t>Haneen Afifi</t>
+  </si>
+  <si>
+    <t>Rawya Alor Biong</t>
+  </si>
+  <si>
+    <t>Belal Karam Fawzy Qassem</t>
+  </si>
+  <si>
+    <t>Noureldin Abdelrahman Hassan</t>
+  </si>
+  <si>
     <t>Aya Ashraf</t>
   </si>
   <si>
@@ -152,187 +182,184 @@
     <t>Hossam Elamin</t>
   </si>
   <si>
-    <t>Faris Muamar</t>
-  </si>
-  <si>
-    <t>Hesham Abuelela</t>
+    <t>Aya Mohamed</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Mostafa Alaa</t>
+  </si>
+  <si>
+    <t>Moustafa Kallash</t>
+  </si>
+  <si>
+    <t>Islam Ashour</t>
+  </si>
+  <si>
+    <t>Rawda Elmasri</t>
+  </si>
+  <si>
+    <t>Nadeen Tarek</t>
+  </si>
+  <si>
+    <t>Bassel Hesham</t>
+  </si>
+  <si>
+    <t>Mariam Ahmed</t>
+  </si>
+  <si>
+    <t>Mahmoud Kamal</t>
+  </si>
+  <si>
+    <t>Sherif Zaki</t>
+  </si>
+  <si>
+    <t>Nour Hossam</t>
+  </si>
+  <si>
+    <t>Timothy Moody</t>
+  </si>
+  <si>
+    <t>Ahmed Gobba</t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t>Amjad Ahmed</t>
+  </si>
+  <si>
+    <t>Osama Ibrahim Mahmoud Tahan</t>
+  </si>
+  <si>
+    <t>Moustafa Hussein</t>
+  </si>
+  <si>
+    <t>Muhammad Al Shafey</t>
+  </si>
+  <si>
+    <t>Youssef Saeid</t>
+  </si>
+  <si>
+    <t>Suhaila Hany</t>
+  </si>
+  <si>
+    <t>Mariam Rashwan</t>
+  </si>
+  <si>
+    <t>Rawan Essa</t>
+  </si>
+  <si>
+    <t>Karim Mohammed Ali Abdeljawad</t>
+  </si>
+  <si>
+    <t>Suhaila Atef</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Ismail</t>
+  </si>
+  <si>
+    <t>Amal Youssef</t>
+  </si>
+  <si>
+    <t>Mohamed Kamal</t>
+  </si>
+  <si>
+    <t>Hajer Elhussein</t>
+  </si>
+  <si>
+    <t>Amira Mohamed</t>
+  </si>
+  <si>
+    <t>Reem Mohamed Khaled</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Esraa mohamed</t>
   </si>
   <si>
     <t>Passant Ahmed Samir</t>
   </si>
   <si>
-    <t>Moustafa Kallash</t>
-  </si>
-  <si>
-    <t>Rawda Elmasri</t>
-  </si>
-  <si>
-    <t>Nadeen Tarek</t>
-  </si>
-  <si>
-    <t>Bassel Hesham</t>
-  </si>
-  <si>
-    <t>Mariam Ahmed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamal</t>
-  </si>
-  <si>
-    <t>Sherif Zaki</t>
-  </si>
-  <si>
-    <t>Donia Gamal Hassan</t>
-  </si>
-  <si>
-    <t>Nour Hossam</t>
-  </si>
-  <si>
-    <t>Timothy Moody</t>
-  </si>
-  <si>
-    <t>Ahmed Gobba</t>
-  </si>
-  <si>
-    <t>Mostafa Mahmoud</t>
+    <t>Sarah Hassan</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Adnan Fouad</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Faiga Maher</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
   </si>
   <si>
     <t>Duaa Abdelfattah</t>
   </si>
   <si>
-    <t>Yousra Ehab</t>
-  </si>
-  <si>
-    <t>Amjad Ahmed</t>
-  </si>
-  <si>
-    <t>Moustafa Hussein</t>
-  </si>
-  <si>
-    <t>Youssef Saeid</t>
-  </si>
-  <si>
-    <t>Suhaila Hany</t>
-  </si>
-  <si>
-    <t>Mariam Rashwan</t>
-  </si>
-  <si>
-    <t>Rawan Essa</t>
-  </si>
-  <si>
-    <t>Karim Mohammed Ali Abdeljawad</t>
-  </si>
-  <si>
-    <t>Suhaila Atef</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed Ismail</t>
-  </si>
-  <si>
-    <t>Amira Mohamed</t>
-  </si>
-  <si>
-    <t>Amira Ahmed</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
-  </si>
-  <si>
-    <t>Ahmed Ehab Ahmed</t>
-  </si>
-  <si>
-    <t>Noureldin Abdelrahman Hassan</t>
-  </si>
-  <si>
-    <t>Abdelrahman Ibraheem</t>
-  </si>
-  <si>
     <t>Akram Mohamed Hassan</t>
   </si>
   <si>
-    <t>Eslam Wessam</t>
-  </si>
-  <si>
-    <t>Shahd Mahmoud</t>
-  </si>
-  <si>
-    <t>Khaled Ezz</t>
-  </si>
-  <si>
-    <t>Peter Tawfellos Asham</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Hadya Waheed</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Zaki Elrefaie</t>
-  </si>
-  <si>
-    <t>Mostafa Alaa</t>
-  </si>
-  <si>
-    <t>Maher Ali Dahab</t>
-  </si>
-  <si>
-    <t>Ibrahim Balla</t>
-  </si>
-  <si>
     <t>Mohamed Mamdouh</t>
   </si>
   <si>
-    <t>Hazem Gamal</t>
-  </si>
-  <si>
-    <t>William Gilada</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
-  </si>
-  <si>
-    <t>Faiga Maher</t>
+    <t>Mohab Alaa</t>
   </si>
   <si>
     <t>Mustafa Mohamed</t>
   </si>
   <si>
-    <t>Afraa Hatim</t>
-  </si>
-  <si>
-    <t>Ahmed Adel</t>
-  </si>
-  <si>
-    <t>Abdalazem Diab</t>
-  </si>
-  <si>
-    <t>Ziad Ahmed</t>
+    <t>Aisha Mohammed</t>
+  </si>
+  <si>
+    <t>Ahmed Hussein</t>
+  </si>
+  <si>
+    <t>Hebatallah Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Ossama</t>
+  </si>
+  <si>
+    <t>Sahar Mohammed</t>
   </si>
   <si>
     <t>Mario Ramy Makram Amin</t>
@@ -341,22 +368,28 @@
     <t>Omer Alsadig Alfadil</t>
   </si>
   <si>
-    <t>Mathew Emad</t>
+    <t>Mostafa Ayman</t>
   </si>
   <si>
     <t>Ahmad Ali</t>
   </si>
   <si>
+    <t>Nouran Nezar</t>
+  </si>
+  <si>
     <t>Mohamed Samir</t>
   </si>
   <si>
     <t>Safa Mohamed</t>
   </si>
   <si>
-    <t>Naba Faisal</t>
-  </si>
-  <si>
-    <t>Tue</t>
+    <t>Saleh Mostafa</t>
+  </si>
+  <si>
+    <t>Alaa Ibrahim Abdelaziz Mohamed</t>
+  </si>
+  <si>
+    <t>Thu</t>
   </si>
   <si>
     <t>Site</t>
@@ -374,31 +407,31 @@
     <t>Ziad Mohamed</t>
   </si>
   <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
     <t>Mohamed Medhat</t>
   </si>
   <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
     <t>Ayman Hassan</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -414,15 +447,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,14 +480,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -465,10 +501,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF073763"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -911,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1014,13 +1062,69 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,6 +1141,34 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1078,6 +1210,21 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1217,137 +1364,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,88 +1537,118 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="35" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2013,10 +2190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:C100"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2062,10 +2239,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2116,7 +2293,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2160,16 +2337,16 @@
       <c r="M3" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="22" t="s">
+      <c r="N3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2213,16 +2390,16 @@
       <c r="M4" s="11">
         <v>0.75</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="25" t="s">
+      <c r="N4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2249,16 +2426,16 @@
         <v>0.833333333333333</v>
       </c>
       <c r="H5" s="11">
-        <v>0.458333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I5" s="11">
         <v>0.833333333333333</v>
       </c>
       <c r="J5" s="11">
-        <v>0.458333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="K5" s="11">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="L5" s="11">
         <v>0.458333333333333</v>
@@ -2266,16 +2443,16 @@
       <c r="M5" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="N5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="22" t="s">
+      <c r="N5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2319,16 +2496,16 @@
       <c r="M6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="22" t="s">
+      <c r="N6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2372,16 +2549,16 @@
       <c r="M7" s="11">
         <v>0.75</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="26" t="s">
+      <c r="N7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2425,16 +2602,16 @@
       <c r="M8" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="26" t="s">
+      <c r="N8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2478,16 +2655,16 @@
       <c r="M9" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2531,16 +2708,16 @@
       <c r="M10" s="11">
         <v>0.75</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="26" t="s">
+      <c r="N10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2584,16 +2761,16 @@
       <c r="M11" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2637,16 +2814,16 @@
       <c r="M12" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="26" t="s">
+      <c r="N12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2690,16 +2867,16 @@
       <c r="M13" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="26" t="s">
+      <c r="N13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2743,16 +2920,16 @@
       <c r="M14" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="26" t="s">
+      <c r="N14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2796,1330 +2973,1540 @@
       <c r="M15" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25"/>
-    <row r="17" ht="15.25" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="N15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:13">
+      <c r="A16" s="14">
+        <v>10272463</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="C16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:13">
+      <c r="A17" s="14">
+        <v>10304633</v>
+      </c>
       <c r="B17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M17" s="31">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:13">
+      <c r="A18" s="19">
+        <v>10295540</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:4">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:4">
+      <c r="A20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="1:4">
-      <c r="A18" s="16">
+      <c r="C20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:4">
+      <c r="A21" s="24">
+        <v>10299512</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22" s="25">
         <v>10281100</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="19" ht="25.75" spans="1:4">
-      <c r="A19" s="19">
+      <c r="B22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="24">
         <v>10280906</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="20">
+      <c r="B23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="24">
         <v>10295622</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="24">
+        <v>10315965</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="24">
+        <v>10305638</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="25">
+        <v>10273387</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="25">
+        <v>10323547</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="25">
+        <v>10324431</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="25">
+        <v>10251309</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="25">
+        <v>10328665</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="25">
+        <v>10330150</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="25">
+        <v>10299934</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="25">
+        <v>10331082</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="25">
+        <v>10331157</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="25">
+        <v>10333396</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="25">
+        <v>10334398</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="25">
+        <v>10334372</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="25">
+        <v>10334359</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="25">
+        <v>10334401</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="25">
+        <v>10334381</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="25">
+        <v>10334469</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="25">
+        <v>10334375</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D43" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="25">
+        <v>10334374</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D44" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="25">
+        <v>10334834</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D45" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="25">
+        <v>10334828</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D46" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="25">
+        <v>10334790</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D47" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="25">
+        <v>10334779</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D48" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="25">
+        <v>10335058</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D49" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="25">
+        <v>10335167</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="25">
+        <v>10335055</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="25">
+        <v>10335041</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="25">
+        <v>10335066</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="25">
+        <v>10335052</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="25">
+        <v>10335060</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="25">
+        <v>10335050</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="25">
+        <v>10335120</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D57" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="25">
+        <v>10335024</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D58" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="25">
+        <v>10335056</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D59" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:4">
+      <c r="A60" s="25">
+        <v>10335073</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D60" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="25">
+        <v>10335057</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D61" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="25">
+        <v>10335027</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D62" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:4">
+      <c r="A63" s="25">
+        <v>10335026</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D63" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:4">
+      <c r="A64" s="25">
+        <v>10335051</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D64" s="26">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="65" ht="15.25" spans="1:4">
+      <c r="A65" s="25">
+        <v>10327594</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="D65" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:4">
+      <c r="A66" s="25">
+        <v>10329911</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="D66" s="26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:4">
+      <c r="A67" s="25">
+        <v>10332478</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="26">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D67" s="26">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:4">
+      <c r="A68" s="25">
+        <v>10282848</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D68" s="26">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:4">
+      <c r="A69" s="25">
+        <v>10333416</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D69" s="26">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="25">
+        <v>10304629</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D70" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="1:4">
+      <c r="A71" s="25">
+        <v>10320448</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D71" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:4">
+      <c r="A72" s="25">
+        <v>10329943</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D72" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:4">
+      <c r="A73" s="25">
+        <v>10330510</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D73" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:4">
+      <c r="A74" s="25">
+        <v>10331077</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D74" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:4">
+      <c r="A75" s="25">
+        <v>10331475</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D75" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" spans="1:4">
+      <c r="A76" s="25">
+        <v>10332557</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D76" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="1:4">
+      <c r="A77" s="25">
+        <v>10332517</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D77" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="1:4">
+      <c r="A78" s="25">
+        <v>10332681</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D78" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="1:4">
+      <c r="A79" s="25">
+        <v>10332555</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D79" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="1:4">
+      <c r="A80" s="25">
+        <v>10332548</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D80" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="1:4">
+      <c r="A81" s="36">
+        <v>10332482</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D81" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="1:4">
+      <c r="A82" s="36">
+        <v>10333417</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D82" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="83" ht="15.25" spans="1:4">
+      <c r="A83" s="25">
+        <v>10334778</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="26">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D83" s="26">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="1:4">
+      <c r="A84" s="25">
+        <v>10326484</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D84" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="1:4">
+      <c r="A85" s="25">
+        <v>10326502</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D85" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="86" ht="15.25" spans="1:4">
+      <c r="A86" s="24">
+        <v>10333426</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D86" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="87" ht="15.25" spans="1:4">
+      <c r="A87" s="25">
+        <v>10333432</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D87" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="88" ht="15.25" spans="1:4">
+      <c r="A88" s="25">
+        <v>10333436</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D88" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="89" ht="15.25" spans="1:4">
+      <c r="A89" s="25">
+        <v>10334449</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D89" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="90" ht="15.25" spans="1:4">
+      <c r="A90" s="25">
+        <v>10334368</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D90" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="91" ht="15.25" spans="1:4">
+      <c r="A91" s="25">
+        <v>10334393</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D91" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="92" ht="15.25" spans="1:4">
+      <c r="A92" s="25">
+        <v>10334475</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D92" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="93" ht="15.25" spans="1:4">
+      <c r="A93" s="25">
+        <v>10334465</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D93" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="94" ht="15.25" spans="1:4">
+      <c r="A94" s="25">
+        <v>10330637</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D94" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="95" ht="15.25" spans="1:4">
+      <c r="A95" s="25">
+        <v>10334780</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D95" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="1:4">
+      <c r="A96" s="25">
+        <v>10334777</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D96" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="1:4">
+      <c r="A97" s="25">
+        <v>10334844</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D97" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="1:4">
+      <c r="A98" s="25">
+        <v>10334743</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D98" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="99" ht="15.25" spans="1:4">
+      <c r="A99" s="25">
+        <v>10334741</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D99" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="1:4">
+      <c r="A100" s="25">
+        <v>10334737</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D100" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="101" ht="15.25" spans="1:4">
+      <c r="A101" s="25">
+        <v>10334370</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="26">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D101" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="102" ht="15.25" spans="1:4">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" ht="15.25" spans="1:4">
+      <c r="A103" s="37"/>
+      <c r="B103" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="37"/>
+      <c r="D103" s="39"/>
+    </row>
+    <row r="104" ht="15.25" spans="1:4">
+      <c r="A104" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="19">
-        <v>10299512</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="16">
-        <v>10251309</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="16">
-        <v>10328665</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:4">
-      <c r="A24" s="16">
-        <v>10330150</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="16">
-        <v>10332480</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="16">
-        <v>10332550</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="16">
-        <v>10333416</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="B104" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="42">
+        <v>45869</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" ht="15.25" hidden="1" spans="1:4">
+      <c r="A105" s="44">
+        <v>10276035</v>
+      </c>
+      <c r="B105" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="44">
+        <v>10245223</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="46">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" ht="15.25" hidden="1" spans="1:4">
+      <c r="A107" s="44">
+        <v>10281108</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="46">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" ht="15.25" spans="1:4">
+      <c r="A108" s="44">
+        <v>10312258</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="46">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" ht="15.25" hidden="1" spans="1:4">
+      <c r="A109" s="44">
+        <v>10284489</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="46">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" ht="15.25" hidden="1" spans="1:4">
+      <c r="A110" s="44">
+        <v>10254389</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="46">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" ht="15.25" spans="1:4">
+      <c r="A111" s="44">
+        <v>10303751</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="46">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" ht="15.25" hidden="1" spans="1:4">
+      <c r="A112" s="44">
+        <v>10307947</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="46">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="16">
-        <v>10334398</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="16">
-        <v>10334359</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="16">
-        <v>10334401</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="16">
-        <v>10334381</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="16">
-        <v>10334469</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="16">
-        <v>10334375</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="16">
-        <v>10334374</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="16">
-        <v>10299935</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="16">
-        <v>10334834</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="16">
-        <v>10334828</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="16">
-        <v>10334790</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="16">
-        <v>10334779</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="16">
-        <v>10334778</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="16">
-        <v>10334744</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="16">
-        <v>10335058</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="16">
-        <v>10335055</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="16">
-        <v>10335066</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="16">
-        <v>10335052</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="16">
-        <v>10335060</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="16">
-        <v>10335050</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="25.75" spans="1:4">
-      <c r="A48" s="16">
-        <v>10335120</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="16">
-        <v>10335024</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="16">
-        <v>10335056</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="16">
-        <v>10335026</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="16">
-        <v>10316245</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="18">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D52" s="18">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="16">
-        <v>10273387</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="16">
-        <v>10320448</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D54" s="18">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="25.75" spans="1:4">
-      <c r="A55" s="16">
-        <v>10323547</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="18">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="16">
-        <v>10332567</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="18">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="57" ht="25.75" spans="1:4">
-      <c r="A57" s="16">
-        <v>10324431</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="18">
+      <c r="D112" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" ht="15.25" hidden="1" spans="1:4">
+      <c r="A113" s="44">
+        <v>10292718</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="46">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" ht="15.25" spans="1:4">
+      <c r="A114" s="44">
+        <v>10304619</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" ht="15.25" hidden="1" spans="1:4">
+      <c r="A115" s="44">
+        <v>10303779</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" ht="15.25" hidden="1" spans="1:4">
+      <c r="A116" s="44">
+        <v>10309113</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" ht="15.25" hidden="1" spans="1:4">
+      <c r="A117" s="49"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="51"/>
+    </row>
+    <row r="118" ht="15.25" hidden="1" spans="1:4">
+      <c r="A118" s="44">
+        <v>10326982</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="46">
         <v>0.583333333333333</v>
       </c>
-      <c r="D57" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="16">
-        <v>10326463</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="18">
+      <c r="D118" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" ht="15.25" hidden="1" spans="1:4">
+      <c r="A119" s="44">
+        <v>10224237</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="46">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" ht="15.25" hidden="1" spans="1:4">
+      <c r="A120" s="44">
+        <v>10272473</v>
+      </c>
+      <c r="B120" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="46">
         <v>0.583333333333333</v>
       </c>
-      <c r="D58" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="25.75" spans="1:4">
-      <c r="A59" s="16">
-        <v>10326484</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D59" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="16">
-        <v>10326498</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D60" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="16">
-        <v>10327586</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D61" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="16">
-        <v>10327588</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D62" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="16">
-        <v>10330149</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D63" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="16">
-        <v>10329943</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D64" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:4">
-      <c r="A65" s="16">
-        <v>10330510</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D65" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="16">
-        <v>10299934</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D66" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:4">
-      <c r="A67" s="16">
-        <v>10331077</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D67" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:4">
-      <c r="A68" s="16">
-        <v>10331785</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D68" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:4">
-      <c r="A69" s="16">
-        <v>10332557</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D69" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="16">
-        <v>10332555</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D70" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:4">
-      <c r="A71" s="16">
-        <v>10332548</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="16">
-        <v>10332515</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D72" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:4">
-      <c r="A73" s="16">
-        <v>10333396</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D73" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="16">
-        <v>10333435</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D74" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:4">
-      <c r="A75" s="16">
-        <v>10333439</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="18">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="18">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:4">
-      <c r="A76" s="16">
-        <v>10326502</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D76" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:4">
-      <c r="A77" s="16">
-        <v>10330554</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D77" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:4">
-      <c r="A78" s="16">
-        <v>10332544</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D78" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="79" ht="15.25" spans="1:4">
-      <c r="A79" s="16">
-        <v>10332517</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D79" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="80" ht="15.25" spans="1:4">
-      <c r="A80" s="16">
-        <v>10332681</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D80" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="81" ht="15.25" spans="1:4">
-      <c r="A81" s="16">
-        <v>10333432</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D81" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="82" ht="15.25" spans="1:4">
-      <c r="A82" s="16">
-        <v>10333437</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D82" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="83" ht="15.25" spans="1:4">
-      <c r="A83" s="16">
-        <v>10334451</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D83" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="84" ht="15.25" spans="1:4">
-      <c r="A84" s="16">
-        <v>10334423</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D84" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="85" ht="15.25" spans="1:4">
-      <c r="A85" s="16">
-        <v>10334395</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D85" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="86" ht="25.75" spans="1:4">
-      <c r="A86" s="16">
-        <v>10334465</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D86" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="87" ht="15.25" spans="1:4">
-      <c r="A87" s="16">
-        <v>10330637</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D87" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="88" ht="15.25" spans="1:4">
-      <c r="A88" s="16">
-        <v>10334832</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D88" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="89" ht="15.25" spans="1:4">
-      <c r="A89" s="16">
-        <v>10334777</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D89" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="90" ht="15.25" spans="1:4">
-      <c r="A90" s="16">
-        <v>10334743</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D90" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="91" ht="15.25" spans="1:4">
-      <c r="A91" s="16">
-        <v>10334741</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D91" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="92" ht="15.25" spans="1:4">
-      <c r="A92" s="16">
-        <v>10334740</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="18">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D92" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="93" ht="15.25" spans="1:4">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-    </row>
-    <row r="94" ht="15.25" spans="1:4">
-      <c r="A94" s="27"/>
-      <c r="B94" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" ht="15.25" spans="1:4">
-      <c r="A95" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="32">
-        <v>45867</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" ht="15.25" hidden="1" spans="1:4">
-      <c r="A96" s="34">
-        <v>10276035</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96" s="36">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" ht="15.25" spans="1:4">
-      <c r="A97" s="34">
-        <v>10245223</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="36">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" ht="15.25" spans="1:4">
-      <c r="A98" s="34">
-        <v>10281108</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="36">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" ht="15.25" hidden="1" spans="1:4">
-      <c r="A99" s="34">
-        <v>10303779</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="36">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" ht="15.25" spans="1:4">
-      <c r="A100" s="34">
-        <v>10304619</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" ht="15.25" hidden="1" spans="1:4">
-      <c r="A101" s="34">
-        <v>10284489</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" ht="15.25" hidden="1" spans="1:4">
-      <c r="A102" s="34">
-        <v>10307947</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="36">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" ht="15.25" hidden="1" spans="1:4">
-      <c r="A103" s="34">
-        <v>10309113</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" ht="15.25" hidden="1" spans="1:4">
-      <c r="A104" s="34">
-        <v>10292718</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="36">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D104" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="105" ht="15.25" spans="1:4">
-      <c r="A105" s="34">
-        <v>10312258</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" ht="15.25" hidden="1" spans="1:4">
-      <c r="A106" s="34">
-        <v>10254389</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" ht="15.25" hidden="1" spans="1:4">
-      <c r="A107" s="34">
-        <v>10303751</v>
-      </c>
-      <c r="B107" s="35" t="s">
+      <c r="D120" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" ht="15.25" hidden="1" spans="1:4">
-      <c r="A108" s="39"/>
-      <c r="B108" s="40"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="41"/>
-    </row>
-    <row r="109" ht="15.25" hidden="1" spans="1:4">
-      <c r="A109" s="34">
-        <v>10326982</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D109" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" ht="15.25" hidden="1" spans="1:4">
-      <c r="A110" s="34">
-        <v>10224237</v>
-      </c>
-      <c r="B110" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="36">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" ht="15.25" hidden="1" spans="1:4">
-      <c r="A111" s="34">
-        <v>10272473</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="36">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A95:D111" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A104:D120" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$104:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$84:$D$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
   <si>
     <t>Details</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Rana Attia</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Razan Mohammed</t>
   </si>
   <si>
@@ -131,15 +134,21 @@
     <t>QAL</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Marina Tharwat</t>
   </si>
   <si>
     <t>Alhaj Ashraf</t>
   </si>
   <si>
+    <t>Mohamed Atef</t>
+  </si>
+  <si>
+    <t>Mohamed Magdy Dowidar</t>
+  </si>
+  <si>
+    <t>Yara Haitham Abdelmonem</t>
+  </si>
+  <si>
     <t>HRID</t>
   </si>
   <si>
@@ -152,235 +161,169 @@
     <t>Rana Khaled</t>
   </si>
   <si>
-    <t>David Michael Gabriel (NST)</t>
-  </si>
-  <si>
-    <t>Ziyad Sherif (NST)</t>
+    <t>Haneen Afifi</t>
   </si>
   <si>
     <t>Marwan Wael</t>
   </si>
   <si>
-    <t>Haneen Afifi</t>
-  </si>
-  <si>
-    <t>Rawya Alor Biong</t>
-  </si>
-  <si>
-    <t>Belal Karam Fawzy Qassem</t>
+    <t>Alaa Karam</t>
+  </si>
+  <si>
+    <t>Donia Elbanan</t>
+  </si>
+  <si>
+    <t>Aya Ashraf</t>
+  </si>
+  <si>
+    <t>Shahd Mahmoud</t>
+  </si>
+  <si>
+    <t>Khaled Ezz</t>
+  </si>
+  <si>
+    <t>Amira Daashoush</t>
+  </si>
+  <si>
+    <t>Hossam Elamin</t>
+  </si>
+  <si>
+    <t>Hazem Gamal</t>
+  </si>
+  <si>
+    <t>Mariam Mohamed</t>
+  </si>
+  <si>
+    <t>Fady Naser</t>
+  </si>
+  <si>
+    <t>Farah Rizk</t>
+  </si>
+  <si>
+    <t>Osama Attia</t>
+  </si>
+  <si>
+    <t>William Gilada</t>
+  </si>
+  <si>
+    <t>Abdullah Haroon</t>
+  </si>
+  <si>
+    <t>Ahmed Ehab Ahmed</t>
+  </si>
+  <si>
+    <t>Hady Adel</t>
+  </si>
+  <si>
+    <t>Huda Ezz</t>
+  </si>
+  <si>
+    <t>Anger Bagat</t>
+  </si>
+  <si>
+    <t>Hesham Abuelela</t>
+  </si>
+  <si>
+    <t>Sahar Mohammed</t>
+  </si>
+  <si>
+    <t>Youssef Khalid</t>
+  </si>
+  <si>
+    <t>Mohab Alaa</t>
+  </si>
+  <si>
+    <t>Judy Azab</t>
   </si>
   <si>
     <t>Noureldin Abdelrahman Hassan</t>
   </si>
   <si>
-    <t>Aya Ashraf</t>
-  </si>
-  <si>
-    <t>Amira Daashoush</t>
-  </si>
-  <si>
-    <t>Hossam Elamin</t>
-  </si>
-  <si>
-    <t>Aya Mohamed</t>
-  </si>
-  <si>
-    <t>Mariam Mohamed</t>
-  </si>
-  <si>
-    <t>Farah Rizk</t>
+    <t>Fatma El Gharably</t>
+  </si>
+  <si>
+    <t>Zaki Elrefaie</t>
+  </si>
+  <si>
+    <t>Lina Essam</t>
+  </si>
+  <si>
+    <t>Eslam Wessam</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh</t>
+  </si>
+  <si>
+    <t>Hagar Ayman</t>
+  </si>
+  <si>
+    <t>Peter Tawfellos Asham</t>
+  </si>
+  <si>
+    <t>Weaam Alaa</t>
+  </si>
+  <si>
+    <t>Hadya Waheed</t>
+  </si>
+  <si>
+    <t>Aldur Alsafy</t>
+  </si>
+  <si>
+    <t>Mariam Abu Bakr</t>
   </si>
   <si>
     <t>Mostafa Alaa</t>
   </si>
   <si>
-    <t>Moustafa Kallash</t>
-  </si>
-  <si>
-    <t>Islam Ashour</t>
-  </si>
-  <si>
-    <t>Rawda Elmasri</t>
-  </si>
-  <si>
-    <t>Nadeen Tarek</t>
-  </si>
-  <si>
-    <t>Bassel Hesham</t>
-  </si>
-  <si>
-    <t>Mariam Ahmed</t>
-  </si>
-  <si>
-    <t>Mahmoud Kamal</t>
-  </si>
-  <si>
-    <t>Sherif Zaki</t>
-  </si>
-  <si>
-    <t>Nour Hossam</t>
-  </si>
-  <si>
-    <t>Timothy Moody</t>
-  </si>
-  <si>
-    <t>Ahmed Gobba</t>
-  </si>
-  <si>
-    <t>Mostafa Mahmoud</t>
-  </si>
-  <si>
-    <t>Amjad Ahmed</t>
-  </si>
-  <si>
-    <t>Osama Ibrahim Mahmoud Tahan</t>
-  </si>
-  <si>
-    <t>Moustafa Hussein</t>
-  </si>
-  <si>
-    <t>Muhammad Al Shafey</t>
-  </si>
-  <si>
-    <t>Youssef Saeid</t>
-  </si>
-  <si>
-    <t>Suhaila Hany</t>
-  </si>
-  <si>
-    <t>Mariam Rashwan</t>
-  </si>
-  <si>
-    <t>Rawan Essa</t>
-  </si>
-  <si>
-    <t>Karim Mohammed Ali Abdeljawad</t>
-  </si>
-  <si>
-    <t>Suhaila Atef</t>
-  </si>
-  <si>
-    <t>Mohamed Ahmed Ismail</t>
-  </si>
-  <si>
-    <t>Amal Youssef</t>
-  </si>
-  <si>
-    <t>Mohamed Kamal</t>
-  </si>
-  <si>
-    <t>Hajer Elhussein</t>
-  </si>
-  <si>
-    <t>Amira Mohamed</t>
-  </si>
-  <si>
-    <t>Reem Mohamed Khaled</t>
-  </si>
-  <si>
-    <t>Youssef Khalid</t>
-  </si>
-  <si>
-    <t>Hagar Ayman</t>
-  </si>
-  <si>
-    <t>Anger Bagat</t>
-  </si>
-  <si>
-    <t>Esraa mohamed</t>
-  </si>
-  <si>
-    <t>Passant Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Sarah Hassan</t>
-  </si>
-  <si>
-    <t>Donia Elbanan</t>
-  </si>
-  <si>
-    <t>Weaam Alaa</t>
-  </si>
-  <si>
-    <t>Adnan Fouad</t>
-  </si>
-  <si>
-    <t>Fady Naser</t>
-  </si>
-  <si>
-    <t>Fatma El Gharably</t>
-  </si>
-  <si>
-    <t>Osama Attia</t>
-  </si>
-  <si>
-    <t>Abdullah Haroon</t>
+    <t>Ibrahim Balla</t>
+  </si>
+  <si>
+    <t>Abdelrahman Ibraheem</t>
   </si>
   <si>
     <t>Faiga Maher</t>
   </si>
   <si>
-    <t>Hady Adel</t>
-  </si>
-  <si>
-    <t>Huda Ezz</t>
-  </si>
-  <si>
-    <t>Aldur Alsafy</t>
-  </si>
-  <si>
-    <t>Mariam Abu Bakr</t>
-  </si>
-  <si>
-    <t>Duaa Abdelfattah</t>
-  </si>
-  <si>
-    <t>Akram Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Mohamed Mamdouh</t>
-  </si>
-  <si>
-    <t>Mohab Alaa</t>
-  </si>
-  <si>
     <t>Mustafa Mohamed</t>
   </si>
   <si>
+    <t>Maher Ali Dahab</t>
+  </si>
+  <si>
+    <t>Afraa Hatim</t>
+  </si>
+  <si>
     <t>Aisha Mohammed</t>
   </si>
   <si>
     <t>Ahmed Hussein</t>
   </si>
   <si>
+    <t>Ahmed Adel</t>
+  </si>
+  <si>
     <t>Hebatallah Mohamed</t>
   </si>
   <si>
     <t>Mohamed Ossama</t>
   </si>
   <si>
-    <t>Sahar Mohammed</t>
-  </si>
-  <si>
-    <t>Mario Ramy Makram Amin</t>
-  </si>
-  <si>
-    <t>Omer Alsadig Alfadil</t>
+    <t>Abdalazem Diab</t>
+  </si>
+  <si>
+    <t>Ziad Ahmed</t>
+  </si>
+  <si>
+    <t>Mathew Emad</t>
   </si>
   <si>
     <t>Mostafa Ayman</t>
   </si>
   <si>
-    <t>Ahmad Ali</t>
-  </si>
-  <si>
     <t>Nouran Nezar</t>
   </si>
   <si>
-    <t>Mohamed Samir</t>
-  </si>
-  <si>
-    <t>Safa Mohamed</t>
+    <t>Naba Faisal</t>
   </si>
   <si>
     <t>Saleh Mostafa</t>
@@ -389,49 +332,49 @@
     <t>Alaa Ibrahim Abdelaziz Mohamed</t>
   </si>
   <si>
-    <t>Thu</t>
+    <t>Sun</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Aya Shehabeldin</t>
+  </si>
+  <si>
+    <t>5th.S</t>
+  </si>
+  <si>
+    <t>Hamdy Attia</t>
+  </si>
+  <si>
+    <t>Smart.V</t>
+  </si>
+  <si>
+    <t>Mohamed Medhat</t>
+  </si>
+  <si>
+    <t>Ahmed Samir</t>
+  </si>
+  <si>
+    <t>Ayman Hassan</t>
+  </si>
+  <si>
+    <t>Esraa Ibrahim</t>
+  </si>
+  <si>
+    <t>Ahmed Fahmy</t>
+  </si>
+  <si>
+    <t>Ziad Mohamed</t>
+  </si>
+  <si>
+    <t>Maamoon Nabil</t>
+  </si>
+  <si>
+    <t>Mohamed Wagdy</t>
+  </si>
+  <si>
     <t>Hager Salah</t>
-  </si>
-  <si>
-    <t>Smart.V</t>
-  </si>
-  <si>
-    <t>5th.S</t>
-  </si>
-  <si>
-    <t>Ziad Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmed Samir</t>
-  </si>
-  <si>
-    <t>Hamdy Attia</t>
-  </si>
-  <si>
-    <t>Maamoon Nabil</t>
-  </si>
-  <si>
-    <t>Ahmed Fahmy</t>
-  </si>
-  <si>
-    <t>Mohamed Wagdy</t>
-  </si>
-  <si>
-    <t>Esraa Ibrahim</t>
-  </si>
-  <si>
-    <t>Aya Shehabeldin</t>
-  </si>
-  <si>
-    <t>Mohamed Medhat</t>
-  </si>
-  <si>
-    <t>Ayman Hassan</t>
   </si>
   <si>
     <t>Eman Taha</t>
@@ -494,6 +437,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -502,7 +451,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF073763"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -511,12 +460,6 @@
       <sz val="11"/>
       <color rgb="FF3D3D3D"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF073763"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -959,7 +902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1102,9 +1045,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1125,6 +1066,34 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,21 +1179,6 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1370,7 +1324,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1382,34 +1336,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,12 +1491,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,70 +1500,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,10 +1584,10 @@
     <xf numFmtId="16" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,19 +1596,19 @@
     <xf numFmtId="35" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2190,10 +2150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:C111"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2239,10 +2199,10 @@
         <v>6</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" ht="15.25" spans="1:17">
       <c r="A2" s="5" t="s">
@@ -2293,7 +2253,7 @@
       <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2337,16 +2297,16 @@
       <c r="M3" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="28" t="s">
+      <c r="N3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2385,21 +2345,21 @@
         <v>0.75</v>
       </c>
       <c r="L4" s="11">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="M4" s="11">
         <v>0.75</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+      <c r="N4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2443,16 +2403,16 @@
       <c r="M5" s="11">
         <v>0.833333333333333</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="28" t="s">
+      <c r="N5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2496,16 +2456,16 @@
       <c r="M6" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="28" t="s">
+      <c r="N6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2549,16 +2509,16 @@
       <c r="M7" s="11">
         <v>0.75</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="35" t="s">
+      <c r="N7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2596,22 +2556,22 @@
       <c r="K8" s="11">
         <v>0.708333333333333</v>
       </c>
-      <c r="L8" s="11">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="35" t="s">
+      <c r="L8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2620,7 +2580,7 @@
         <v>10326471</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>17</v>
@@ -2655,16 +2615,16 @@
       <c r="M9" s="11">
         <v>0.791666666666667</v>
       </c>
-      <c r="N9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="35" t="s">
+      <c r="N9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2673,7 +2633,7 @@
         <v>10295541</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>17</v>
@@ -2708,16 +2668,16 @@
       <c r="M10" s="11">
         <v>0.75</v>
       </c>
-      <c r="N10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="35" t="s">
+      <c r="N10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2726,10 +2686,10 @@
         <v>10245223</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="12">
         <v>0.333333333333333</v>
@@ -2761,16 +2721,16 @@
       <c r="M11" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="35" t="s">
+      <c r="N11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2779,10 +2739,10 @@
         <v>10295622</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="12">
         <v>0.333333333333333</v>
@@ -2814,16 +2774,16 @@
       <c r="M12" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+      <c r="N12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2832,11 +2792,11 @@
         <v>10299512</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="12">
         <v>0.333333333333333</v>
       </c>
@@ -2867,16 +2827,16 @@
       <c r="M13" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="35" t="s">
+      <c r="N13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2885,10 +2845,10 @@
         <v>10280906</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="12">
         <v>0.333333333333333</v>
@@ -2920,16 +2880,16 @@
       <c r="M14" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="35" t="s">
+      <c r="N14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2938,10 +2898,10 @@
         <v>10282852</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="12">
         <v>0.333333333333333</v>
@@ -2973,1540 +2933,1403 @@
       <c r="M15" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="35" t="s">
+      <c r="N15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:13">
-      <c r="A16" s="14">
+      <c r="A16" s="9">
         <v>10272463</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="30">
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="31">
         <v>0.458333333333333</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="31">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:13">
-      <c r="A17" s="14">
+      <c r="A17" s="9">
         <v>10304633</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="31">
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="32">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:13">
-      <c r="A18" s="19">
+      <c r="A18" s="9">
         <v>10295540</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="32">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="33">
         <v>0.375</v>
       </c>
-      <c r="K18" s="32">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:4">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:4">
-      <c r="A20" s="23" t="s">
+      <c r="K18" s="33">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="M18" s="34">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:13">
+      <c r="A19" s="9">
+        <v>10299937</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M19" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:13">
+      <c r="A20" s="9">
+        <v>10240188</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="35">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:13">
+      <c r="A21" s="9">
+        <v>10273349</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="35">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" ht="15.25" spans="1:4">
+      <c r="A23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="1:4">
-      <c r="A21" s="24">
-        <v>10299512</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:4">
+      <c r="A24" s="23">
+        <v>10281100</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:4">
+      <c r="A25" s="23">
+        <v>10305638</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:4">
+      <c r="A26" s="23">
+        <v>10315965</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:4">
+      <c r="A27" s="23">
+        <v>10314762</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:4">
+      <c r="A28" s="23">
+        <v>10320448</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:4">
+      <c r="A29" s="23">
+        <v>10251309</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:4">
+      <c r="A30" s="23">
+        <v>10327586</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:4">
+      <c r="A31" s="23">
+        <v>10327588</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="1:4">
+      <c r="A32" s="23">
+        <v>10328665</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="1:4">
+      <c r="A33" s="23">
+        <v>10330150</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="1:4">
+      <c r="A34" s="23">
+        <v>10330554</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:4">
+      <c r="A35" s="23">
+        <v>10331082</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:4">
+      <c r="A36" s="23">
+        <v>10331077</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:4">
+      <c r="A37" s="23">
+        <v>10331157</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:4">
+      <c r="A38" s="23">
+        <v>10332557</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:4">
+      <c r="A39" s="23">
+        <v>10332544</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:4">
+      <c r="A40" s="23">
+        <v>10332517</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:4">
+      <c r="A41" s="23">
+        <v>10332567</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:4">
+      <c r="A42" s="23">
+        <v>10332555</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:4">
+      <c r="A43" s="23">
+        <v>10332548</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:4">
+      <c r="A44" s="23">
+        <v>10332478</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:4">
+      <c r="A45" s="23">
+        <v>10332550</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D45" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:4">
+      <c r="A46" s="23">
+        <v>10334475</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:4">
+      <c r="A47" s="23">
+        <v>10327594</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:4">
+      <c r="A48" s="26">
+        <v>10333426</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:4">
+      <c r="A49" s="23">
+        <v>10330520</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="D49" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:4">
+      <c r="A50" s="23">
+        <v>10324431</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:4">
+      <c r="A51" s="23">
+        <v>10331475</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:4">
+      <c r="A52" s="23">
+        <v>10332515</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D52" s="25">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:4">
+      <c r="A53" s="23">
+        <v>10314749</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:4">
+      <c r="A54" s="23">
+        <v>10326498</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D54" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:4">
+      <c r="A55" s="23">
+        <v>10326502</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D55" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:4">
+      <c r="A56" s="23">
+        <v>10329911</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:4">
+      <c r="A57" s="23">
+        <v>10330149</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D57" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:4">
+      <c r="A58" s="23">
+        <v>10329943</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D58" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:4">
+      <c r="A59" s="23">
+        <v>10331785</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D59" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:4">
+      <c r="A60" s="27">
+        <v>10332482</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D60" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:4">
+      <c r="A61" s="27">
+        <v>10333417</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D61" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="62" ht="15.25" spans="1:4">
+      <c r="A62" s="23">
+        <v>10333396</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D62" s="25">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+    <row r="63" ht="15.25" spans="1:4">
+      <c r="A63" s="23">
+        <v>10333439</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D63" s="25">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="64" ht="15.25" spans="1:4">
+      <c r="A64" s="23">
+        <v>10326463</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D64" s="25">
         <v>0.0833333333333333</v>
       </c>
     </row>
-    <row r="22" ht="15.25" spans="1:4">
-      <c r="A22" s="25">
-        <v>10281100</v>
-      </c>
-      <c r="B22" s="25" t="s">
+    <row r="65" ht="15.25" spans="1:4">
+      <c r="A65" s="23">
+        <v>10332681</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D65" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="66" ht="15.25" spans="1:4">
+      <c r="A66" s="23">
+        <v>10333432</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D66" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="67" ht="15.25" spans="1:4">
+      <c r="A67" s="23">
+        <v>10333435</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="68" ht="15.25" spans="1:4">
+      <c r="A68" s="23">
+        <v>10333437</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="69" ht="15.25" spans="1:4">
+      <c r="A69" s="23">
+        <v>10333436</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="70" ht="15.25" spans="1:4">
+      <c r="A70" s="23">
+        <v>10334449</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D70" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="71" ht="15.25" spans="1:4">
+      <c r="A71" s="23">
+        <v>10334451</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D71" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25" spans="1:4">
+      <c r="A72" s="23">
+        <v>10334368</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D72" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="73" ht="15.25" spans="1:4">
+      <c r="A73" s="23">
+        <v>10334393</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D73" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:4">
+      <c r="A74" s="23">
+        <v>10334423</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D74" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:4">
+      <c r="A75" s="23">
+        <v>10334395</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D75" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25" spans="1:4">
+      <c r="A76" s="23">
+        <v>10334832</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D76" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="77" ht="15.25" spans="1:4">
+      <c r="A77" s="23">
+        <v>10334780</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D77" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="1:4">
+      <c r="A78" s="23">
+        <v>10334844</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D78" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="79" ht="15.25" spans="1:4">
+      <c r="A79" s="23">
+        <v>10334740</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D79" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="80" ht="15.25" spans="1:4">
+      <c r="A80" s="23">
+        <v>10334737</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D80" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="81" ht="15.25" spans="1:4">
+      <c r="A81" s="23">
+        <v>10334370</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="25">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D81" s="25">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="82" ht="15.25" spans="1:5">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" ht="15.25" spans="1:5">
+      <c r="A83" s="39"/>
+      <c r="B83" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="39"/>
+      <c r="D83" s="41"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" ht="15.25" spans="1:5">
+      <c r="A84" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25" spans="1:4">
-      <c r="A23" s="24">
-        <v>10280906</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="24" ht="15.25" spans="1:4">
-      <c r="A24" s="24">
-        <v>10295622</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="25" ht="15.25" spans="1:4">
-      <c r="A25" s="24">
-        <v>10315965</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="26" ht="15.25" spans="1:4">
-      <c r="A26" s="24">
-        <v>10305638</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B84" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="44">
+        <v>45872</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84"/>
+    </row>
+    <row r="85" ht="15.25" spans="1:5">
+      <c r="A85" s="46">
+        <v>10304619</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="48">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D85" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85"/>
+    </row>
+    <row r="86" ht="15.25" hidden="1" spans="1:5">
+      <c r="A86" s="46">
+        <v>10284489</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="48">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86"/>
+    </row>
+    <row r="87" ht="15.25" hidden="1" spans="1:5">
+      <c r="A87" s="46">
+        <v>10303779</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88" ht="15.25" spans="1:5">
+      <c r="A88" s="46">
+        <v>10312258</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="48">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88"/>
+    </row>
+    <row r="89" ht="15.25" hidden="1" spans="1:5">
+      <c r="A89" s="46">
+        <v>10309113</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="48">
         <v>0.583333333333333</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D89" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89"/>
+    </row>
+    <row r="90" ht="15.25" hidden="1" spans="1:5">
+      <c r="A90" s="46">
+        <v>10292718</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="48">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90"/>
+    </row>
+    <row r="91" ht="15.25" spans="1:5">
+      <c r="A91" s="46">
+        <v>10303751</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="48">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91"/>
+    </row>
+    <row r="92" ht="15.25" hidden="1" spans="1:5">
+      <c r="A92" s="46">
+        <v>10281108</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92"/>
+    </row>
+    <row r="93" ht="15.25" hidden="1" spans="1:5">
+      <c r="A93" s="46">
+        <v>10254389</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="48">
         <v>0.958333333333333</v>
       </c>
-    </row>
-    <row r="27" ht="15.25" spans="1:4">
-      <c r="A27" s="25">
-        <v>10273387</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D27" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="28" ht="15.25" spans="1:4">
-      <c r="A28" s="25">
-        <v>10323547</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="1:4">
-      <c r="A29" s="25">
-        <v>10324431</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="1:4">
-      <c r="A30" s="25">
-        <v>10251309</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="1:4">
-      <c r="A31" s="25">
-        <v>10328665</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="1:4">
-      <c r="A32" s="25">
-        <v>10330150</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="1:4">
-      <c r="A33" s="25">
-        <v>10299934</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="1:4">
-      <c r="A34" s="25">
-        <v>10331082</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25" spans="1:4">
-      <c r="A35" s="25">
-        <v>10331157</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="36" ht="15.25" spans="1:4">
-      <c r="A36" s="25">
-        <v>10333396</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="37" ht="15.25" spans="1:4">
-      <c r="A37" s="25">
-        <v>10334398</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D37" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="38" ht="15.25" spans="1:4">
-      <c r="A38" s="25">
-        <v>10334372</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D38" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="39" ht="15.25" spans="1:4">
-      <c r="A39" s="25">
-        <v>10334359</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D39" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="40" ht="15.25" spans="1:4">
-      <c r="A40" s="25">
-        <v>10334401</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="41" ht="15.25" spans="1:4">
-      <c r="A41" s="25">
-        <v>10334381</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D41" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="42" ht="15.25" spans="1:4">
-      <c r="A42" s="25">
-        <v>10334469</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D42" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="43" ht="15.25" spans="1:4">
-      <c r="A43" s="25">
-        <v>10334375</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D43" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="44" ht="15.25" spans="1:4">
-      <c r="A44" s="25">
-        <v>10334374</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D44" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="45" ht="15.25" spans="1:4">
-      <c r="A45" s="25">
-        <v>10334834</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D45" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="1:4">
-      <c r="A46" s="25">
-        <v>10334828</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D46" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="1:4">
-      <c r="A47" s="25">
-        <v>10334790</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D47" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="1:4">
-      <c r="A48" s="25">
-        <v>10334779</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D48" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="1:4">
-      <c r="A49" s="25">
-        <v>10335058</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D49" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="1:4">
-      <c r="A50" s="25">
-        <v>10335167</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D50" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="1:4">
-      <c r="A51" s="25">
-        <v>10335055</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D51" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="52" ht="15.25" spans="1:4">
-      <c r="A52" s="25">
-        <v>10335041</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D52" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="53" ht="15.25" spans="1:4">
-      <c r="A53" s="25">
-        <v>10335066</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D53" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="54" ht="15.25" spans="1:4">
-      <c r="A54" s="25">
-        <v>10335052</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D54" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="55" ht="15.25" spans="1:4">
-      <c r="A55" s="25">
-        <v>10335060</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D55" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="56" ht="15.25" spans="1:4">
-      <c r="A56" s="25">
-        <v>10335050</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D56" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="57" ht="15.25" spans="1:4">
-      <c r="A57" s="25">
-        <v>10335120</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D57" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="58" ht="15.25" spans="1:4">
-      <c r="A58" s="25">
-        <v>10335024</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D58" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="59" ht="15.25" spans="1:4">
-      <c r="A59" s="25">
-        <v>10335056</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D59" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="60" ht="15.25" spans="1:4">
-      <c r="A60" s="25">
-        <v>10335073</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D60" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="61" ht="15.25" spans="1:4">
-      <c r="A61" s="25">
-        <v>10335057</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D61" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="62" ht="15.25" spans="1:4">
-      <c r="A62" s="25">
-        <v>10335027</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D62" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="63" ht="15.25" spans="1:4">
-      <c r="A63" s="25">
-        <v>10335026</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D63" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="64" ht="15.25" spans="1:4">
-      <c r="A64" s="25">
-        <v>10335051</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="26">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D64" s="26">
-        <v>0.708333333333333</v>
-      </c>
-    </row>
-    <row r="65" ht="15.25" spans="1:4">
-      <c r="A65" s="25">
-        <v>10327594</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="26">
-        <v>0.375</v>
-      </c>
-      <c r="D65" s="26">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" ht="15.25" spans="1:4">
-      <c r="A66" s="25">
-        <v>10329911</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="26">
-        <v>0.375</v>
-      </c>
-      <c r="D66" s="26">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" ht="15.25" spans="1:4">
-      <c r="A67" s="25">
-        <v>10332478</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D67" s="26">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="68" ht="15.25" spans="1:4">
-      <c r="A68" s="25">
-        <v>10282848</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D68" s="26">
+      <c r="D93" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93"/>
+    </row>
+    <row r="94" ht="15.25" hidden="1" spans="1:5">
+      <c r="A94" s="46">
+        <v>10307947</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94"/>
+    </row>
+    <row r="95" ht="15.25" hidden="1" spans="1:5">
+      <c r="A95" s="46">
+        <v>10276035</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96" ht="15.25" spans="1:5">
+      <c r="A96" s="46">
+        <v>10245223</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" ht="15.25" hidden="1" spans="1:5">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="53"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" ht="15.25" hidden="1" spans="1:5">
+      <c r="A98" s="46">
+        <v>10326982</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" ht="15.25" hidden="1" spans="1:5">
+      <c r="A99" s="46">
+        <v>10224237</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="48">
         <v>0.666666666666667</v>
       </c>
-    </row>
-    <row r="69" ht="15.25" spans="1:4">
-      <c r="A69" s="25">
-        <v>10333416</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="26">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="D69" s="26">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="70" ht="15.25" spans="1:4">
-      <c r="A70" s="25">
-        <v>10304629</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D70" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="71" ht="15.25" spans="1:4">
-      <c r="A71" s="25">
-        <v>10320448</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D71" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="72" ht="15.25" spans="1:4">
-      <c r="A72" s="25">
-        <v>10329943</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D72" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:4">
-      <c r="A73" s="25">
-        <v>10330510</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D73" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="74" ht="15.25" spans="1:4">
-      <c r="A74" s="25">
-        <v>10331077</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D74" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="75" ht="15.25" spans="1:4">
-      <c r="A75" s="25">
-        <v>10331475</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D75" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="76" ht="15.25" spans="1:4">
-      <c r="A76" s="25">
-        <v>10332557</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D76" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="77" ht="15.25" spans="1:4">
-      <c r="A77" s="25">
-        <v>10332517</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D77" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="78" ht="15.25" spans="1:4">
-      <c r="A78" s="25">
-        <v>10332681</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D78" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="79" ht="15.25" spans="1:4">
-      <c r="A79" s="25">
-        <v>10332555</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D79" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="80" ht="15.25" spans="1:4">
-      <c r="A80" s="25">
-        <v>10332548</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D80" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="81" ht="15.25" spans="1:4">
-      <c r="A81" s="36">
-        <v>10332482</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D81" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="82" ht="15.25" spans="1:4">
-      <c r="A82" s="36">
-        <v>10333417</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D82" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="83" ht="15.25" spans="1:4">
-      <c r="A83" s="25">
-        <v>10334778</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="26">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D83" s="26">
-        <v>0.958333333333333</v>
-      </c>
-    </row>
-    <row r="84" ht="15.25" spans="1:4">
-      <c r="A84" s="25">
-        <v>10326484</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D84" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="85" ht="15.25" spans="1:4">
-      <c r="A85" s="25">
-        <v>10326502</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D85" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="86" ht="15.25" spans="1:4">
-      <c r="A86" s="24">
-        <v>10333426</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D86" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="87" ht="15.25" spans="1:4">
-      <c r="A87" s="25">
-        <v>10333432</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D87" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="88" ht="15.25" spans="1:4">
-      <c r="A88" s="25">
-        <v>10333436</v>
-      </c>
-      <c r="B88" s="25" t="s">
+      <c r="D99" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D88" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="89" ht="15.25" spans="1:4">
-      <c r="A89" s="25">
-        <v>10334449</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D89" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="90" ht="15.25" spans="1:4">
-      <c r="A90" s="25">
-        <v>10334368</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D90" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="91" ht="15.25" spans="1:4">
-      <c r="A91" s="25">
-        <v>10334393</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D91" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="92" ht="15.25" spans="1:4">
-      <c r="A92" s="25">
-        <v>10334475</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D92" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="93" ht="15.25" spans="1:4">
-      <c r="A93" s="25">
-        <v>10334465</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D93" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="94" ht="15.25" spans="1:4">
-      <c r="A94" s="25">
-        <v>10330637</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D94" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="95" ht="15.25" spans="1:4">
-      <c r="A95" s="25">
-        <v>10334780</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D95" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="96" ht="15.25" spans="1:4">
-      <c r="A96" s="25">
-        <v>10334777</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D96" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="97" ht="15.25" spans="1:4">
-      <c r="A97" s="25">
-        <v>10334844</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D97" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="98" ht="15.25" spans="1:4">
-      <c r="A98" s="25">
-        <v>10334743</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D98" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="99" ht="15.25" spans="1:4">
-      <c r="A99" s="25">
-        <v>10334741</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D99" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="100" ht="15.25" spans="1:4">
-      <c r="A100" s="25">
-        <v>10334737</v>
-      </c>
-      <c r="B100" s="25" t="s">
+      <c r="E99"/>
+    </row>
+    <row r="100" ht="15.25" hidden="1" spans="1:5">
+      <c r="A100" s="46">
+        <v>10272473</v>
+      </c>
+      <c r="B100" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D100" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="101" ht="15.25" spans="1:4">
-      <c r="A101" s="25">
-        <v>10334370</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="26">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D101" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-    </row>
-    <row r="102" ht="15.25" spans="1:4">
+      <c r="C100" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
-    </row>
-    <row r="103" ht="15.25" spans="1:4">
-      <c r="A103" s="37"/>
-      <c r="B103" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="39"/>
-    </row>
-    <row r="104" ht="15.25" spans="1:4">
-      <c r="A104" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="42">
-        <v>45869</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" ht="15.25" hidden="1" spans="1:4">
-      <c r="A105" s="44">
-        <v>10276035</v>
-      </c>
-      <c r="B105" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="44">
-        <v>10245223</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="46">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" ht="15.25" hidden="1" spans="1:4">
-      <c r="A107" s="44">
-        <v>10281108</v>
-      </c>
-      <c r="B107" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" s="46">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" ht="15.25" spans="1:4">
-      <c r="A108" s="44">
-        <v>10312258</v>
-      </c>
-      <c r="B108" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="46">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" ht="15.25" hidden="1" spans="1:4">
-      <c r="A109" s="44">
-        <v>10284489</v>
-      </c>
-      <c r="B109" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" s="46">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" ht="15.25" hidden="1" spans="1:4">
-      <c r="A110" s="44">
-        <v>10254389</v>
-      </c>
-      <c r="B110" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="46">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" ht="15.25" spans="1:4">
-      <c r="A111" s="44">
-        <v>10303751</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C111" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" ht="15.25" hidden="1" spans="1:4">
-      <c r="A112" s="44">
-        <v>10307947</v>
-      </c>
-      <c r="B112" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C112" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="D112" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" ht="15.25" hidden="1" spans="1:4">
-      <c r="A113" s="44">
-        <v>10292718</v>
-      </c>
-      <c r="B113" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C113" s="46">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" ht="15.25" spans="1:4">
-      <c r="A114" s="44">
-        <v>10304619</v>
-      </c>
-      <c r="B114" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" ht="15.25" hidden="1" spans="1:4">
-      <c r="A115" s="44">
-        <v>10303779</v>
-      </c>
-      <c r="B115" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" ht="15.25" hidden="1" spans="1:4">
-      <c r="A116" s="44">
-        <v>10309113</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" ht="15.25" hidden="1" spans="1:4">
-      <c r="A117" s="49"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="51"/>
-    </row>
-    <row r="118" ht="15.25" hidden="1" spans="1:4">
-      <c r="A118" s="44">
-        <v>10326982</v>
-      </c>
-      <c r="B118" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="46">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D118" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" ht="15.25" hidden="1" spans="1:4">
-      <c r="A119" s="44">
-        <v>10224237</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="46">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" ht="15.25" hidden="1" spans="1:4">
-      <c r="A120" s="44">
-        <v>10272473</v>
-      </c>
-      <c r="B120" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="46">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="D120" s="47" t="s">
-        <v>122</v>
-      </c>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A104:D120" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A84:D100" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
         <filter val="5th.S"/>

--- a/Accounts-Schedules/Airalo.xlsx
+++ b/Accounts-Schedules/Airalo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$86:$D$102</definedName>
+    <definedName name="_xlnm.